--- a/app/Datos/Intermodal/Costos e Inversiones.xlsx
+++ b/app/Datos/Intermodal/Costos e Inversiones.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Egresos" sheetId="1" r:id="rId1"/>
@@ -454,7 +454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DI13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -4907,8 +4907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DJ22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11455,7 +11455,7 @@
     </row>
     <row r="20" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
         <v>31</v>
@@ -12143,7 +12143,7 @@
     </row>
     <row r="22" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>24</v>

--- a/app/Datos/Intermodal/Costos e Inversiones.xlsx
+++ b/app/Datos/Intermodal/Costos e Inversiones.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Egresos" sheetId="1" r:id="rId1"/>
+    <sheet name="Costos" sheetId="1" r:id="rId1"/>
     <sheet name="Inversiones" sheetId="2" r:id="rId2"/>
     <sheet name="Notas" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -454,7 +454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DI13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -4907,8 +4907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DJ22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/app/Datos/Intermodal/Costos e Inversiones.xlsx
+++ b/app/Datos/Intermodal/Costos e Inversiones.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Costos" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="33">
   <si>
     <t>Puertos</t>
   </si>
@@ -125,9 +125,6 @@
   </si>
   <si>
     <t>Componente</t>
-  </si>
-  <si>
-    <t>Monoboyas</t>
   </si>
   <si>
     <t>Tipo.Inversion</t>
@@ -454,7 +451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DI13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -473,7 +470,7 @@
         <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
         <v>30</v>
@@ -4907,8 +4904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DJ22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8:I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4928,7 +4925,7 @@
         <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
@@ -11114,7 +11111,7 @@
         <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
@@ -11458,7 +11455,7 @@
         <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
         <v>18</v>

--- a/app/Datos/Intermodal/Costos e Inversiones.xlsx
+++ b/app/Datos/Intermodal/Costos e Inversiones.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Costos" sheetId="1" r:id="rId1"/>
@@ -32,10 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="33">
-  <si>
-    <t>Puertos</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="32">
   <si>
     <t>Infraestructura</t>
   </si>
@@ -449,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DI13"/>
+  <dimension ref="A1:DI16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -464,16 +461,16 @@
   <sheetData>
     <row r="1" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
         <v>29</v>
-      </c>
-      <c r="C1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" t="s">
-        <v>30</v>
       </c>
       <c r="E1">
         <v>2012</v>
@@ -805,16 +802,16 @@
     </row>
     <row r="2" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1146,16 +1143,16 @@
     </row>
     <row r="3" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1487,16 +1484,16 @@
     </row>
     <row r="4" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1828,357 +1825,466 @@
     </row>
     <row r="5" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
       <c r="E5">
+        <f>E4*0.5</f>
         <v>0</v>
       </c>
       <c r="F5">
+        <f t="shared" ref="F5:BQ5" si="0">F4*0.5</f>
         <v>0</v>
       </c>
       <c r="G5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K5">
-        <v>25514</v>
+        <f t="shared" si="0"/>
+        <v>7665.5</v>
       </c>
       <c r="L5">
-        <v>26152</v>
+        <f t="shared" si="0"/>
+        <v>7857</v>
       </c>
       <c r="M5">
-        <v>26806</v>
+        <f t="shared" si="0"/>
+        <v>8053.5</v>
       </c>
       <c r="N5">
-        <v>27476</v>
+        <f t="shared" si="0"/>
+        <v>8255</v>
       </c>
       <c r="O5">
-        <v>28163</v>
+        <f t="shared" si="0"/>
+        <v>8461.5</v>
       </c>
       <c r="P5">
-        <v>28867</v>
+        <f t="shared" si="0"/>
+        <v>8673</v>
       </c>
       <c r="Q5">
-        <v>29589</v>
+        <f t="shared" si="0"/>
+        <v>8889.5</v>
       </c>
       <c r="R5">
-        <v>30328</v>
+        <f t="shared" si="0"/>
+        <v>9112</v>
       </c>
       <c r="S5">
-        <v>31087</v>
+        <f t="shared" si="0"/>
+        <v>9339.5</v>
       </c>
       <c r="T5">
-        <v>31864</v>
+        <f t="shared" si="0"/>
+        <v>9573</v>
       </c>
       <c r="U5">
-        <v>32660</v>
+        <f t="shared" si="0"/>
+        <v>9812.5</v>
       </c>
       <c r="V5">
-        <v>43144</v>
+        <f t="shared" si="0"/>
+        <v>13409.5</v>
       </c>
       <c r="W5">
-        <v>44223</v>
+        <f t="shared" si="0"/>
+        <v>13744.5</v>
       </c>
       <c r="X5">
-        <v>45328</v>
+        <f t="shared" si="0"/>
+        <v>14088</v>
       </c>
       <c r="Y5">
-        <v>46461</v>
+        <f t="shared" si="0"/>
+        <v>14440.5</v>
       </c>
       <c r="Z5">
-        <v>47623</v>
+        <f t="shared" si="0"/>
+        <v>14801.5</v>
       </c>
       <c r="AA5">
-        <v>48814</v>
+        <f t="shared" si="0"/>
+        <v>15171.5</v>
       </c>
       <c r="AB5">
-        <v>50034</v>
+        <f t="shared" si="0"/>
+        <v>15550.5</v>
       </c>
       <c r="AC5">
-        <v>51285</v>
+        <f t="shared" si="0"/>
+        <v>15939.5</v>
       </c>
       <c r="AD5">
-        <v>52567</v>
+        <f t="shared" si="0"/>
+        <v>16338</v>
       </c>
       <c r="AE5">
-        <v>53881</v>
+        <f t="shared" si="0"/>
+        <v>16746.5</v>
       </c>
       <c r="AF5">
-        <v>55228</v>
+        <f t="shared" si="0"/>
+        <v>17165</v>
       </c>
       <c r="AG5">
-        <v>56609</v>
+        <f t="shared" si="0"/>
+        <v>17594</v>
       </c>
       <c r="AH5">
-        <v>58024</v>
+        <f t="shared" si="0"/>
+        <v>18034</v>
       </c>
       <c r="AI5">
-        <v>59475</v>
+        <f t="shared" si="0"/>
+        <v>18485</v>
       </c>
       <c r="AJ5">
-        <v>75137</v>
+        <f t="shared" si="0"/>
+        <v>21910</v>
       </c>
       <c r="AK5">
-        <v>77015</v>
+        <f t="shared" si="0"/>
+        <v>22458</v>
       </c>
       <c r="AL5">
-        <v>78941</v>
+        <f t="shared" si="0"/>
+        <v>23019.5</v>
       </c>
       <c r="AM5">
-        <v>80914</v>
+        <f t="shared" si="0"/>
+        <v>23595</v>
       </c>
       <c r="AN5">
-        <v>82937</v>
+        <f t="shared" si="0"/>
+        <v>24184.5</v>
       </c>
       <c r="AO5">
-        <v>85010</v>
+        <f t="shared" si="0"/>
+        <v>24789.5</v>
       </c>
       <c r="AP5">
-        <v>87136</v>
+        <f t="shared" si="0"/>
+        <v>25409</v>
       </c>
       <c r="AQ5">
-        <v>89314</v>
+        <f t="shared" si="0"/>
+        <v>26044.5</v>
       </c>
       <c r="AR5">
-        <v>91547</v>
+        <f t="shared" si="0"/>
+        <v>26695.5</v>
       </c>
       <c r="AS5">
-        <v>93835</v>
+        <f t="shared" si="0"/>
+        <v>27363</v>
       </c>
       <c r="AT5">
-        <v>96181</v>
+        <f t="shared" si="0"/>
+        <v>28047</v>
       </c>
       <c r="AU5">
-        <v>98586</v>
+        <f t="shared" si="0"/>
+        <v>28748</v>
       </c>
       <c r="AV5">
-        <v>101051</v>
+        <f t="shared" si="0"/>
+        <v>29466.5</v>
       </c>
       <c r="AW5">
-        <v>103577</v>
+        <f t="shared" si="0"/>
+        <v>30203.5</v>
       </c>
       <c r="AX5">
-        <v>106166</v>
+        <f t="shared" si="0"/>
+        <v>30958.5</v>
       </c>
       <c r="AY5">
-        <v>108820</v>
+        <f t="shared" si="0"/>
+        <v>31732.5</v>
       </c>
       <c r="AZ5">
-        <v>111541</v>
+        <f t="shared" si="0"/>
+        <v>32525.5</v>
       </c>
       <c r="BA5">
-        <v>114329</v>
+        <f t="shared" si="0"/>
+        <v>33339</v>
       </c>
       <c r="BB5">
-        <v>117188</v>
+        <f t="shared" si="0"/>
+        <v>34172.5</v>
       </c>
       <c r="BC5">
-        <v>120117</v>
+        <f t="shared" si="0"/>
+        <v>35026.5</v>
       </c>
       <c r="BD5">
-        <v>123120</v>
+        <f t="shared" si="0"/>
+        <v>35902.5</v>
       </c>
       <c r="BE5">
-        <v>126198</v>
+        <f t="shared" si="0"/>
+        <v>36800</v>
       </c>
       <c r="BF5">
-        <v>129353</v>
+        <f t="shared" si="0"/>
+        <v>37720</v>
       </c>
       <c r="BG5">
-        <v>132587</v>
+        <f t="shared" si="0"/>
+        <v>38663</v>
       </c>
       <c r="BH5">
-        <v>135902</v>
+        <f t="shared" si="0"/>
+        <v>39629.5</v>
       </c>
       <c r="BI5">
-        <v>139299</v>
+        <f t="shared" si="0"/>
+        <v>40620</v>
       </c>
       <c r="BJ5">
-        <v>142782</v>
+        <f t="shared" si="0"/>
+        <v>41635.5</v>
       </c>
       <c r="BK5">
-        <v>146351</v>
+        <f t="shared" si="0"/>
+        <v>42676.5</v>
       </c>
       <c r="BL5">
-        <v>150010</v>
+        <f t="shared" si="0"/>
+        <v>43743.5</v>
       </c>
       <c r="BM5">
-        <v>153760</v>
+        <f t="shared" si="0"/>
+        <v>44837</v>
       </c>
       <c r="BN5">
-        <v>157604</v>
+        <f t="shared" si="0"/>
+        <v>45958</v>
       </c>
       <c r="BO5">
-        <v>161545</v>
+        <f t="shared" si="0"/>
+        <v>47107</v>
       </c>
       <c r="BP5">
-        <v>165583</v>
+        <f t="shared" si="0"/>
+        <v>48284.5</v>
       </c>
       <c r="BQ5">
-        <v>169723</v>
+        <f t="shared" si="0"/>
+        <v>49492</v>
       </c>
       <c r="BR5">
-        <v>173966</v>
+        <f t="shared" ref="BR5:DI5" si="1">BR4*0.5</f>
+        <v>50729</v>
       </c>
       <c r="BS5">
-        <v>178315</v>
+        <f t="shared" si="1"/>
+        <v>51997.5</v>
       </c>
       <c r="BT5">
-        <v>182773</v>
+        <f t="shared" si="1"/>
+        <v>53297</v>
       </c>
       <c r="BU5">
-        <v>187342</v>
+        <f t="shared" si="1"/>
+        <v>54629.5</v>
       </c>
       <c r="BV5">
-        <v>192026</v>
+        <f t="shared" si="1"/>
+        <v>55995.5</v>
       </c>
       <c r="BW5">
-        <v>196826</v>
+        <f t="shared" si="1"/>
+        <v>57395.5</v>
       </c>
       <c r="BX5">
-        <v>201747</v>
+        <f t="shared" si="1"/>
+        <v>58830</v>
       </c>
       <c r="BY5">
-        <v>206791</v>
+        <f t="shared" si="1"/>
+        <v>60301</v>
       </c>
       <c r="BZ5">
-        <v>211960</v>
+        <f t="shared" si="1"/>
+        <v>61808.5</v>
       </c>
       <c r="CA5">
-        <v>217259</v>
+        <f t="shared" si="1"/>
+        <v>63353.5</v>
       </c>
       <c r="CB5">
-        <v>222691</v>
+        <f t="shared" si="1"/>
+        <v>64937.5</v>
       </c>
       <c r="CC5">
-        <v>228258</v>
+        <f t="shared" si="1"/>
+        <v>66561</v>
       </c>
       <c r="CD5">
-        <v>233965</v>
+        <f t="shared" si="1"/>
+        <v>68225</v>
       </c>
       <c r="CE5">
-        <v>239814</v>
+        <f t="shared" si="1"/>
+        <v>69930.5</v>
       </c>
       <c r="CF5">
-        <v>245809</v>
+        <f t="shared" si="1"/>
+        <v>71679</v>
       </c>
       <c r="CG5">
-        <v>251954</v>
+        <f t="shared" si="1"/>
+        <v>73471</v>
       </c>
       <c r="CH5">
-        <v>258253</v>
+        <f t="shared" si="1"/>
+        <v>75307.5</v>
       </c>
       <c r="CI5">
-        <v>264709</v>
+        <f t="shared" si="1"/>
+        <v>77190.5</v>
       </c>
       <c r="CJ5">
-        <v>271327</v>
+        <f t="shared" si="1"/>
+        <v>79120</v>
       </c>
       <c r="CK5">
-        <v>278110</v>
+        <f t="shared" si="1"/>
+        <v>81098</v>
       </c>
       <c r="CL5">
-        <v>285063</v>
+        <f t="shared" si="1"/>
+        <v>83125.5</v>
       </c>
       <c r="CM5">
-        <v>292190</v>
+        <f t="shared" si="1"/>
+        <v>85203.5</v>
       </c>
       <c r="CN5">
-        <v>299494</v>
+        <f t="shared" si="1"/>
+        <v>87333.5</v>
       </c>
       <c r="CO5">
-        <v>306982</v>
+        <f t="shared" si="1"/>
+        <v>89517</v>
       </c>
       <c r="CP5">
-        <v>314656</v>
+        <f t="shared" si="1"/>
+        <v>91755</v>
       </c>
       <c r="CQ5">
-        <v>322523</v>
+        <f t="shared" si="1"/>
+        <v>94049</v>
       </c>
       <c r="CR5">
-        <v>330586</v>
+        <f t="shared" si="1"/>
+        <v>96400</v>
       </c>
       <c r="CS5">
-        <v>338851</v>
+        <f t="shared" si="1"/>
+        <v>98810</v>
       </c>
       <c r="CT5">
-        <v>347322</v>
+        <f t="shared" si="1"/>
+        <v>101280.5</v>
       </c>
       <c r="CU5">
-        <v>356005</v>
+        <f t="shared" si="1"/>
+        <v>103812.5</v>
       </c>
       <c r="CV5">
-        <v>364905</v>
+        <f t="shared" si="1"/>
+        <v>106407.5</v>
       </c>
       <c r="CW5">
-        <v>374028</v>
+        <f t="shared" si="1"/>
+        <v>109068</v>
       </c>
       <c r="CX5">
-        <v>383378</v>
+        <f t="shared" si="1"/>
+        <v>111794.5</v>
       </c>
       <c r="CY5">
-        <v>392963</v>
+        <f t="shared" si="1"/>
+        <v>114589.5</v>
       </c>
       <c r="CZ5">
-        <v>402787</v>
+        <f t="shared" si="1"/>
+        <v>117454</v>
       </c>
       <c r="DA5">
-        <v>412856</v>
+        <f t="shared" si="1"/>
+        <v>120390.5</v>
       </c>
       <c r="DB5">
-        <v>423178</v>
+        <f t="shared" si="1"/>
+        <v>123400</v>
       </c>
       <c r="DC5">
-        <v>433757</v>
+        <f t="shared" si="1"/>
+        <v>126485</v>
       </c>
       <c r="DD5">
-        <v>444601</v>
+        <f t="shared" si="1"/>
+        <v>129647.5</v>
       </c>
       <c r="DE5">
-        <v>455716</v>
+        <f t="shared" si="1"/>
+        <v>132888.5</v>
       </c>
       <c r="DF5">
-        <v>467109</v>
+        <f t="shared" si="1"/>
+        <v>136211</v>
       </c>
       <c r="DG5">
-        <v>478787</v>
+        <f t="shared" si="1"/>
+        <v>139616</v>
       </c>
       <c r="DH5">
-        <v>490757</v>
+        <f t="shared" si="1"/>
+        <v>143106.5</v>
       </c>
       <c r="DI5">
-        <v>503025</v>
+        <f t="shared" si="1"/>
+        <v>146684</v>
       </c>
     </row>
     <row r="6" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -2199,665 +2305,774 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>3900</v>
+        <v>25514</v>
       </c>
       <c r="L6">
-        <v>3997</v>
+        <v>26152</v>
       </c>
       <c r="M6">
-        <v>4097</v>
+        <v>26806</v>
       </c>
       <c r="N6">
-        <v>4200</v>
+        <v>27476</v>
       </c>
       <c r="O6">
-        <v>4305</v>
+        <v>28163</v>
       </c>
       <c r="P6">
-        <v>4412</v>
+        <v>28867</v>
       </c>
       <c r="Q6">
-        <v>4522</v>
+        <v>29589</v>
       </c>
       <c r="R6">
-        <v>4636</v>
+        <v>30328</v>
       </c>
       <c r="S6">
-        <v>4751</v>
+        <v>31087</v>
       </c>
       <c r="T6">
-        <v>4870</v>
+        <v>31864</v>
       </c>
       <c r="U6">
-        <v>4992</v>
+        <v>32660</v>
       </c>
       <c r="V6">
-        <v>6383</v>
+        <v>43144</v>
       </c>
       <c r="W6">
-        <v>6543</v>
+        <v>44223</v>
       </c>
       <c r="X6">
-        <v>6706</v>
+        <v>45328</v>
       </c>
       <c r="Y6">
-        <v>6874</v>
+        <v>46461</v>
       </c>
       <c r="Z6">
-        <v>7046</v>
+        <v>47623</v>
       </c>
       <c r="AA6">
-        <v>7222</v>
+        <v>48814</v>
       </c>
       <c r="AB6">
-        <v>7402</v>
+        <v>50034</v>
       </c>
       <c r="AC6">
-        <v>7587</v>
+        <v>51285</v>
       </c>
       <c r="AD6">
-        <v>7777</v>
+        <v>52567</v>
       </c>
       <c r="AE6">
-        <v>7972</v>
+        <v>53881</v>
       </c>
       <c r="AF6">
-        <v>8171</v>
+        <v>55228</v>
       </c>
       <c r="AG6">
-        <v>8375</v>
+        <v>56609</v>
       </c>
       <c r="AH6">
-        <v>8585</v>
+        <v>58024</v>
       </c>
       <c r="AI6">
-        <v>8799</v>
+        <v>59475</v>
       </c>
       <c r="AJ6">
-        <v>10356</v>
+        <v>75137</v>
       </c>
       <c r="AK6">
-        <v>10615</v>
+        <v>77015</v>
       </c>
       <c r="AL6">
-        <v>10880</v>
+        <v>78941</v>
       </c>
       <c r="AM6">
-        <v>11152</v>
+        <v>80914</v>
       </c>
       <c r="AN6">
-        <v>11431</v>
+        <v>82937</v>
       </c>
       <c r="AO6">
-        <v>11717</v>
+        <v>85010</v>
       </c>
       <c r="AP6">
-        <v>12010</v>
+        <v>87136</v>
       </c>
       <c r="AQ6">
-        <v>12310</v>
+        <v>89314</v>
       </c>
       <c r="AR6">
-        <v>12618</v>
+        <v>91547</v>
       </c>
       <c r="AS6">
-        <v>12933</v>
+        <v>93835</v>
       </c>
       <c r="AT6">
-        <v>13256</v>
+        <v>96181</v>
       </c>
       <c r="AU6">
-        <v>13588</v>
+        <v>98586</v>
       </c>
       <c r="AV6">
-        <v>13927</v>
+        <v>101051</v>
       </c>
       <c r="AW6">
-        <v>14276</v>
+        <v>103577</v>
       </c>
       <c r="AX6">
-        <v>14632</v>
+        <v>106166</v>
       </c>
       <c r="AY6">
-        <v>14998</v>
+        <v>108820</v>
       </c>
       <c r="AZ6">
-        <v>15373</v>
+        <v>111541</v>
       </c>
       <c r="BA6">
-        <v>15758</v>
+        <v>114329</v>
       </c>
       <c r="BB6">
-        <v>16152</v>
+        <v>117188</v>
       </c>
       <c r="BC6">
-        <v>16555</v>
+        <v>120117</v>
       </c>
       <c r="BD6">
-        <v>16969</v>
+        <v>123120</v>
       </c>
       <c r="BE6">
-        <v>17393</v>
+        <v>126198</v>
       </c>
       <c r="BF6">
-        <v>17828</v>
+        <v>129353</v>
       </c>
       <c r="BG6">
-        <v>18274</v>
+        <v>132587</v>
       </c>
       <c r="BH6">
-        <v>18731</v>
+        <v>135902</v>
       </c>
       <c r="BI6">
-        <v>19199</v>
+        <v>139299</v>
       </c>
       <c r="BJ6">
-        <v>19679</v>
+        <v>142782</v>
       </c>
       <c r="BK6">
-        <v>20171</v>
+        <v>146351</v>
       </c>
       <c r="BL6">
-        <v>20675</v>
+        <v>150010</v>
       </c>
       <c r="BM6">
-        <v>21192</v>
+        <v>153760</v>
       </c>
       <c r="BN6">
-        <v>21722</v>
+        <v>157604</v>
       </c>
       <c r="BO6">
-        <v>22265</v>
+        <v>161545</v>
       </c>
       <c r="BP6">
-        <v>22822</v>
+        <v>165583</v>
       </c>
       <c r="BQ6">
-        <v>23392</v>
+        <v>169723</v>
       </c>
       <c r="BR6">
-        <v>23977</v>
+        <v>173966</v>
       </c>
       <c r="BS6">
-        <v>24576</v>
+        <v>178315</v>
       </c>
       <c r="BT6">
-        <v>25191</v>
+        <v>182773</v>
       </c>
       <c r="BU6">
-        <v>25821</v>
+        <v>187342</v>
       </c>
       <c r="BV6">
-        <v>26466</v>
+        <v>192026</v>
       </c>
       <c r="BW6">
-        <v>27128</v>
+        <v>196826</v>
       </c>
       <c r="BX6">
-        <v>27806</v>
+        <v>201747</v>
       </c>
       <c r="BY6">
-        <v>28501</v>
+        <v>206791</v>
       </c>
       <c r="BZ6">
-        <v>29214</v>
+        <v>211960</v>
       </c>
       <c r="CA6">
-        <v>29944</v>
+        <v>217259</v>
       </c>
       <c r="CB6">
-        <v>30693</v>
+        <v>222691</v>
       </c>
       <c r="CC6">
-        <v>31460</v>
+        <v>228258</v>
       </c>
       <c r="CD6">
-        <v>32246</v>
+        <v>233965</v>
       </c>
       <c r="CE6">
-        <v>33053</v>
+        <v>239814</v>
       </c>
       <c r="CF6">
-        <v>33879</v>
+        <v>245809</v>
       </c>
       <c r="CG6">
-        <v>34726</v>
+        <v>251954</v>
       </c>
       <c r="CH6">
-        <v>35594</v>
+        <v>258253</v>
       </c>
       <c r="CI6">
-        <v>36484</v>
+        <v>264709</v>
       </c>
       <c r="CJ6">
-        <v>37396</v>
+        <v>271327</v>
       </c>
       <c r="CK6">
-        <v>38331</v>
+        <v>278110</v>
       </c>
       <c r="CL6">
-        <v>39289</v>
+        <v>285063</v>
       </c>
       <c r="CM6">
-        <v>40271</v>
+        <v>292190</v>
       </c>
       <c r="CN6">
-        <v>41278</v>
+        <v>299494</v>
       </c>
       <c r="CO6">
-        <v>42310</v>
+        <v>306982</v>
       </c>
       <c r="CP6">
-        <v>43368</v>
+        <v>314656</v>
       </c>
       <c r="CQ6">
-        <v>44452</v>
+        <v>322523</v>
       </c>
       <c r="CR6">
-        <v>45563</v>
+        <v>330586</v>
       </c>
       <c r="CS6">
-        <v>46702</v>
+        <v>338851</v>
       </c>
       <c r="CT6">
-        <v>47870</v>
+        <v>347322</v>
       </c>
       <c r="CU6">
-        <v>49067</v>
+        <v>356005</v>
       </c>
       <c r="CV6">
-        <v>50293</v>
+        <v>364905</v>
       </c>
       <c r="CW6">
-        <v>51551</v>
+        <v>374028</v>
       </c>
       <c r="CX6">
-        <v>52840</v>
+        <v>383378</v>
       </c>
       <c r="CY6">
-        <v>54161</v>
+        <v>392963</v>
       </c>
       <c r="CZ6">
-        <v>55515</v>
+        <v>402787</v>
       </c>
       <c r="DA6">
-        <v>56902</v>
+        <v>412856</v>
       </c>
       <c r="DB6">
-        <v>58325</v>
+        <v>423178</v>
       </c>
       <c r="DC6">
-        <v>59783</v>
+        <v>433757</v>
       </c>
       <c r="DD6">
-        <v>61278</v>
+        <v>444601</v>
       </c>
       <c r="DE6">
-        <v>62810</v>
+        <v>455716</v>
       </c>
       <c r="DF6">
-        <v>64380</v>
+        <v>467109</v>
       </c>
       <c r="DG6">
-        <v>65989</v>
+        <v>478787</v>
       </c>
       <c r="DH6">
-        <v>67639</v>
+        <v>490757</v>
       </c>
       <c r="DI6">
-        <v>69330</v>
+        <v>503025</v>
       </c>
     </row>
     <row r="7" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E7">
+        <f>E6*0.5</f>
         <v>0</v>
       </c>
       <c r="F7">
+        <f t="shared" ref="F7:BQ7" si="2">F6*0.5</f>
         <v>0</v>
       </c>
       <c r="G7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K7">
-        <v>20457</v>
+        <f t="shared" si="2"/>
+        <v>12757</v>
       </c>
       <c r="L7">
-        <v>20968</v>
+        <f t="shared" si="2"/>
+        <v>13076</v>
       </c>
       <c r="M7">
-        <v>21493</v>
+        <f t="shared" si="2"/>
+        <v>13403</v>
       </c>
       <c r="N7">
-        <v>22030</v>
+        <f t="shared" si="2"/>
+        <v>13738</v>
       </c>
       <c r="O7">
-        <v>22581</v>
+        <f t="shared" si="2"/>
+        <v>14081.5</v>
       </c>
       <c r="P7">
-        <v>23145</v>
+        <f t="shared" si="2"/>
+        <v>14433.5</v>
       </c>
       <c r="Q7">
-        <v>23724</v>
+        <f t="shared" si="2"/>
+        <v>14794.5</v>
       </c>
       <c r="R7">
-        <v>24317</v>
+        <f t="shared" si="2"/>
+        <v>15164</v>
       </c>
       <c r="S7">
-        <v>24925</v>
+        <f t="shared" si="2"/>
+        <v>15543.5</v>
       </c>
       <c r="T7">
-        <v>25548</v>
+        <f t="shared" si="2"/>
+        <v>15932</v>
       </c>
       <c r="U7">
-        <v>26187</v>
+        <f t="shared" si="2"/>
+        <v>16330</v>
       </c>
       <c r="V7">
-        <v>26841</v>
+        <f t="shared" si="2"/>
+        <v>21572</v>
       </c>
       <c r="W7">
-        <v>27512</v>
+        <f t="shared" si="2"/>
+        <v>22111.5</v>
       </c>
       <c r="X7">
-        <v>28200</v>
+        <f t="shared" si="2"/>
+        <v>22664</v>
       </c>
       <c r="Y7">
-        <v>28905</v>
+        <f t="shared" si="2"/>
+        <v>23230.5</v>
       </c>
       <c r="Z7">
-        <v>29628</v>
+        <f t="shared" si="2"/>
+        <v>23811.5</v>
       </c>
       <c r="AA7">
-        <v>30369</v>
+        <f t="shared" si="2"/>
+        <v>24407</v>
       </c>
       <c r="AB7">
-        <v>31128</v>
+        <f t="shared" si="2"/>
+        <v>25017</v>
       </c>
       <c r="AC7">
-        <v>31906</v>
+        <f t="shared" si="2"/>
+        <v>25642.5</v>
       </c>
       <c r="AD7">
-        <v>32704</v>
+        <f t="shared" si="2"/>
+        <v>26283.5</v>
       </c>
       <c r="AE7">
-        <v>33521</v>
+        <f t="shared" si="2"/>
+        <v>26940.5</v>
       </c>
       <c r="AF7">
-        <v>34359</v>
+        <f t="shared" si="2"/>
+        <v>27614</v>
       </c>
       <c r="AG7">
-        <v>35218</v>
+        <f t="shared" si="2"/>
+        <v>28304.5</v>
       </c>
       <c r="AH7">
-        <v>36099</v>
+        <f t="shared" si="2"/>
+        <v>29012</v>
       </c>
       <c r="AI7">
-        <v>37001</v>
+        <f t="shared" si="2"/>
+        <v>29737.5</v>
       </c>
       <c r="AJ7">
-        <v>37926</v>
+        <f t="shared" si="2"/>
+        <v>37568.5</v>
       </c>
       <c r="AK7">
-        <v>38874</v>
+        <f t="shared" si="2"/>
+        <v>38507.5</v>
       </c>
       <c r="AL7">
-        <v>39846</v>
+        <f t="shared" si="2"/>
+        <v>39470.5</v>
       </c>
       <c r="AM7">
-        <v>40842</v>
+        <f t="shared" si="2"/>
+        <v>40457</v>
       </c>
       <c r="AN7">
-        <v>41863</v>
+        <f t="shared" si="2"/>
+        <v>41468.5</v>
       </c>
       <c r="AO7">
-        <v>42910</v>
+        <f t="shared" si="2"/>
+        <v>42505</v>
       </c>
       <c r="AP7">
-        <v>43983</v>
+        <f t="shared" si="2"/>
+        <v>43568</v>
       </c>
       <c r="AQ7">
-        <v>45082</v>
+        <f t="shared" si="2"/>
+        <v>44657</v>
       </c>
       <c r="AR7">
-        <v>46209</v>
+        <f t="shared" si="2"/>
+        <v>45773.5</v>
       </c>
       <c r="AS7">
-        <v>47365</v>
+        <f t="shared" si="2"/>
+        <v>46917.5</v>
       </c>
       <c r="AT7">
-        <v>48549</v>
+        <f t="shared" si="2"/>
+        <v>48090.5</v>
       </c>
       <c r="AU7">
-        <v>49762</v>
+        <f t="shared" si="2"/>
+        <v>49293</v>
       </c>
       <c r="AV7">
-        <v>51006</v>
+        <f t="shared" si="2"/>
+        <v>50525.5</v>
       </c>
       <c r="AW7">
-        <v>52282</v>
+        <f t="shared" si="2"/>
+        <v>51788.5</v>
       </c>
       <c r="AX7">
-        <v>53589</v>
+        <f t="shared" si="2"/>
+        <v>53083</v>
       </c>
       <c r="AY7">
-        <v>54928</v>
+        <f t="shared" si="2"/>
+        <v>54410</v>
       </c>
       <c r="AZ7">
-        <v>56302</v>
+        <f t="shared" si="2"/>
+        <v>55770.5</v>
       </c>
       <c r="BA7">
-        <v>57709</v>
+        <f t="shared" si="2"/>
+        <v>57164.5</v>
       </c>
       <c r="BB7">
-        <v>59152</v>
+        <f t="shared" si="2"/>
+        <v>58594</v>
       </c>
       <c r="BC7">
-        <v>60631</v>
+        <f t="shared" si="2"/>
+        <v>60058.5</v>
       </c>
       <c r="BD7">
-        <v>62146</v>
+        <f t="shared" si="2"/>
+        <v>61560</v>
       </c>
       <c r="BE7">
-        <v>63700</v>
+        <f t="shared" si="2"/>
+        <v>63099</v>
       </c>
       <c r="BF7">
-        <v>65293</v>
+        <f t="shared" si="2"/>
+        <v>64676.5</v>
       </c>
       <c r="BG7">
-        <v>66925</v>
+        <f t="shared" si="2"/>
+        <v>66293.5</v>
       </c>
       <c r="BH7">
-        <v>68598</v>
+        <f t="shared" si="2"/>
+        <v>67951</v>
       </c>
       <c r="BI7">
-        <v>70313</v>
+        <f t="shared" si="2"/>
+        <v>69649.5</v>
       </c>
       <c r="BJ7">
-        <v>72071</v>
+        <f t="shared" si="2"/>
+        <v>71391</v>
       </c>
       <c r="BK7">
-        <v>73872</v>
+        <f t="shared" si="2"/>
+        <v>73175.5</v>
       </c>
       <c r="BL7">
-        <v>75719</v>
+        <f t="shared" si="2"/>
+        <v>75005</v>
       </c>
       <c r="BM7">
-        <v>77612</v>
+        <f t="shared" si="2"/>
+        <v>76880</v>
       </c>
       <c r="BN7">
-        <v>79553</v>
+        <f t="shared" si="2"/>
+        <v>78802</v>
       </c>
       <c r="BO7">
-        <v>81541</v>
+        <f t="shared" si="2"/>
+        <v>80772.5</v>
       </c>
       <c r="BP7">
-        <v>83580</v>
+        <f t="shared" si="2"/>
+        <v>82791.5</v>
       </c>
       <c r="BQ7">
-        <v>85669</v>
+        <f t="shared" si="2"/>
+        <v>84861.5</v>
       </c>
       <c r="BR7">
-        <v>87811</v>
+        <f t="shared" ref="BR7:DI7" si="3">BR6*0.5</f>
+        <v>86983</v>
       </c>
       <c r="BS7">
-        <v>90006</v>
+        <f t="shared" si="3"/>
+        <v>89157.5</v>
       </c>
       <c r="BT7">
-        <v>92257</v>
+        <f t="shared" si="3"/>
+        <v>91386.5</v>
       </c>
       <c r="BU7">
-        <v>94563</v>
+        <f t="shared" si="3"/>
+        <v>93671</v>
       </c>
       <c r="BV7">
-        <v>96927</v>
+        <f t="shared" si="3"/>
+        <v>96013</v>
       </c>
       <c r="BW7">
-        <v>99350</v>
+        <f t="shared" si="3"/>
+        <v>98413</v>
       </c>
       <c r="BX7">
-        <v>101834</v>
+        <f t="shared" si="3"/>
+        <v>100873.5</v>
       </c>
       <c r="BY7">
-        <v>104380</v>
+        <f t="shared" si="3"/>
+        <v>103395.5</v>
       </c>
       <c r="BZ7">
-        <v>106989</v>
+        <f t="shared" si="3"/>
+        <v>105980</v>
       </c>
       <c r="CA7">
-        <v>109664</v>
+        <f t="shared" si="3"/>
+        <v>108629.5</v>
       </c>
       <c r="CB7">
-        <v>112406</v>
+        <f t="shared" si="3"/>
+        <v>111345.5</v>
       </c>
       <c r="CC7">
-        <v>115216</v>
+        <f t="shared" si="3"/>
+        <v>114129</v>
       </c>
       <c r="CD7">
-        <v>118096</v>
+        <f t="shared" si="3"/>
+        <v>116982.5</v>
       </c>
       <c r="CE7">
-        <v>121049</v>
+        <f t="shared" si="3"/>
+        <v>119907</v>
       </c>
       <c r="CF7">
-        <v>124075</v>
+        <f t="shared" si="3"/>
+        <v>122904.5</v>
       </c>
       <c r="CG7">
-        <v>127177</v>
+        <f t="shared" si="3"/>
+        <v>125977</v>
       </c>
       <c r="CH7">
-        <v>130356</v>
+        <f t="shared" si="3"/>
+        <v>129126.5</v>
       </c>
       <c r="CI7">
-        <v>133615</v>
+        <f t="shared" si="3"/>
+        <v>132354.5</v>
       </c>
       <c r="CJ7">
-        <v>136955</v>
+        <f t="shared" si="3"/>
+        <v>135663.5</v>
       </c>
       <c r="CK7">
-        <v>140379</v>
+        <f t="shared" si="3"/>
+        <v>139055</v>
       </c>
       <c r="CL7">
-        <v>143889</v>
+        <f t="shared" si="3"/>
+        <v>142531.5</v>
       </c>
       <c r="CM7">
-        <v>147486</v>
+        <f t="shared" si="3"/>
+        <v>146095</v>
       </c>
       <c r="CN7">
-        <v>151173</v>
+        <f t="shared" si="3"/>
+        <v>149747</v>
       </c>
       <c r="CO7">
-        <v>154953</v>
+        <f t="shared" si="3"/>
+        <v>153491</v>
       </c>
       <c r="CP7">
-        <v>158826</v>
+        <f t="shared" si="3"/>
+        <v>157328</v>
       </c>
       <c r="CQ7">
-        <v>162797</v>
+        <f t="shared" si="3"/>
+        <v>161261.5</v>
       </c>
       <c r="CR7">
-        <v>166867</v>
+        <f t="shared" si="3"/>
+        <v>165293</v>
       </c>
       <c r="CS7">
-        <v>171039</v>
+        <f t="shared" si="3"/>
+        <v>169425.5</v>
       </c>
       <c r="CT7">
-        <v>175315</v>
+        <f t="shared" si="3"/>
+        <v>173661</v>
       </c>
       <c r="CU7">
-        <v>179697</v>
+        <f t="shared" si="3"/>
+        <v>178002.5</v>
       </c>
       <c r="CV7">
-        <v>184190</v>
+        <f t="shared" si="3"/>
+        <v>182452.5</v>
       </c>
       <c r="CW7">
-        <v>188795</v>
+        <f t="shared" si="3"/>
+        <v>187014</v>
       </c>
       <c r="CX7">
-        <v>193515</v>
+        <f t="shared" si="3"/>
+        <v>191689</v>
       </c>
       <c r="CY7">
-        <v>198352</v>
+        <f t="shared" si="3"/>
+        <v>196481.5</v>
       </c>
       <c r="CZ7">
-        <v>203311</v>
+        <f t="shared" si="3"/>
+        <v>201393.5</v>
       </c>
       <c r="DA7">
-        <v>208394</v>
+        <f t="shared" si="3"/>
+        <v>206428</v>
       </c>
       <c r="DB7">
-        <v>213604</v>
+        <f t="shared" si="3"/>
+        <v>211589</v>
       </c>
       <c r="DC7">
-        <v>218944</v>
+        <f t="shared" si="3"/>
+        <v>216878.5</v>
       </c>
       <c r="DD7">
-        <v>224417</v>
+        <f t="shared" si="3"/>
+        <v>222300.5</v>
       </c>
       <c r="DE7">
-        <v>230028</v>
+        <f t="shared" si="3"/>
+        <v>227858</v>
       </c>
       <c r="DF7">
-        <v>235779</v>
+        <f t="shared" si="3"/>
+        <v>233554.5</v>
       </c>
       <c r="DG7">
-        <v>241673</v>
+        <f t="shared" si="3"/>
+        <v>239393.5</v>
       </c>
       <c r="DH7">
-        <v>247715</v>
+        <f t="shared" si="3"/>
+        <v>245378.5</v>
       </c>
       <c r="DI7">
-        <v>253908</v>
+        <f t="shared" si="3"/>
+        <v>251512.5</v>
       </c>
     </row>
     <row r="8" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -2881,668 +3096,777 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>21805</v>
+        <v>3900</v>
       </c>
       <c r="L8">
-        <v>22350</v>
+        <v>3997</v>
       </c>
       <c r="M8">
-        <v>22908</v>
+        <v>4097</v>
       </c>
       <c r="N8">
-        <v>23481</v>
+        <v>4200</v>
       </c>
       <c r="O8">
-        <v>24068</v>
+        <v>4305</v>
       </c>
       <c r="P8">
-        <v>24670</v>
+        <v>4412</v>
       </c>
       <c r="Q8">
-        <v>25287</v>
+        <v>4522</v>
       </c>
       <c r="R8">
-        <v>31902</v>
+        <v>4636</v>
       </c>
       <c r="S8">
-        <v>32699</v>
+        <v>4751</v>
       </c>
       <c r="T8">
-        <v>33517</v>
+        <v>4870</v>
       </c>
       <c r="U8">
-        <v>34354</v>
+        <v>4992</v>
       </c>
       <c r="V8">
-        <v>35213</v>
+        <v>6383</v>
       </c>
       <c r="W8">
-        <v>44500</v>
+        <v>6543</v>
       </c>
       <c r="X8">
-        <v>45613</v>
+        <v>6706</v>
       </c>
       <c r="Y8">
-        <v>46753</v>
+        <v>6874</v>
       </c>
       <c r="Z8">
-        <v>47922</v>
+        <v>7046</v>
       </c>
       <c r="AA8">
-        <v>49120</v>
+        <v>7222</v>
       </c>
       <c r="AB8">
-        <v>50348</v>
+        <v>7402</v>
       </c>
       <c r="AC8">
-        <v>58570</v>
+        <v>7587</v>
       </c>
       <c r="AD8">
-        <v>60034</v>
+        <v>7777</v>
       </c>
       <c r="AE8">
-        <v>70847</v>
+        <v>7972</v>
       </c>
       <c r="AF8">
-        <v>72618</v>
+        <v>8171</v>
       </c>
       <c r="AG8">
-        <v>74433</v>
+        <v>8375</v>
       </c>
       <c r="AH8">
-        <v>76294</v>
+        <v>8585</v>
       </c>
       <c r="AI8">
-        <v>78202</v>
+        <v>8799</v>
       </c>
       <c r="AJ8">
-        <v>80157</v>
+        <v>10356</v>
       </c>
       <c r="AK8">
-        <v>82160</v>
+        <v>10615</v>
       </c>
       <c r="AL8">
-        <v>84214</v>
+        <v>10880</v>
       </c>
       <c r="AM8">
-        <v>94099</v>
+        <v>11152</v>
       </c>
       <c r="AN8">
-        <v>96452</v>
+        <v>11431</v>
       </c>
       <c r="AO8">
-        <v>98863</v>
+        <v>11717</v>
       </c>
       <c r="AP8">
-        <v>101335</v>
+        <v>12010</v>
       </c>
       <c r="AQ8">
-        <v>103868</v>
+        <v>12310</v>
       </c>
       <c r="AR8">
-        <v>106465</v>
+        <v>12618</v>
       </c>
       <c r="AS8">
-        <v>109126</v>
+        <v>12933</v>
       </c>
       <c r="AT8">
-        <v>111855</v>
+        <v>13256</v>
       </c>
       <c r="AU8">
-        <v>114651</v>
+        <v>13588</v>
       </c>
       <c r="AV8">
-        <v>117517</v>
+        <v>13927</v>
       </c>
       <c r="AW8">
-        <v>120455</v>
+        <v>14276</v>
       </c>
       <c r="AX8">
-        <v>123466</v>
+        <v>14632</v>
       </c>
       <c r="AY8">
-        <v>126553</v>
+        <v>14998</v>
       </c>
       <c r="AZ8">
-        <v>129717</v>
+        <v>15373</v>
       </c>
       <c r="BA8">
-        <v>132960</v>
+        <v>15758</v>
       </c>
       <c r="BB8">
-        <v>136284</v>
+        <v>16152</v>
       </c>
       <c r="BC8">
-        <v>139691</v>
+        <v>16555</v>
       </c>
       <c r="BD8">
-        <v>143183</v>
+        <v>16969</v>
       </c>
       <c r="BE8">
-        <v>146763</v>
+        <v>17393</v>
       </c>
       <c r="BF8">
-        <v>150432</v>
+        <v>17828</v>
       </c>
       <c r="BG8">
-        <v>154193</v>
+        <v>18274</v>
       </c>
       <c r="BH8">
-        <v>158048</v>
+        <v>18731</v>
       </c>
       <c r="BI8">
-        <v>161999</v>
+        <v>19199</v>
       </c>
       <c r="BJ8">
-        <v>166049</v>
+        <v>19679</v>
       </c>
       <c r="BK8">
-        <v>170200</v>
+        <v>20171</v>
       </c>
       <c r="BL8">
-        <v>174455</v>
+        <v>20675</v>
       </c>
       <c r="BM8">
-        <v>178816</v>
+        <v>21192</v>
       </c>
       <c r="BN8">
-        <v>183287</v>
+        <v>21722</v>
       </c>
       <c r="BO8">
-        <v>187869</v>
+        <v>22265</v>
       </c>
       <c r="BP8">
-        <v>192566</v>
+        <v>22822</v>
       </c>
       <c r="BQ8">
-        <v>197380</v>
+        <v>23392</v>
       </c>
       <c r="BR8">
-        <v>202314</v>
+        <v>23977</v>
       </c>
       <c r="BS8">
-        <v>207372</v>
+        <v>24576</v>
       </c>
       <c r="BT8">
-        <v>212556</v>
+        <v>25191</v>
       </c>
       <c r="BU8">
-        <v>217870</v>
+        <v>25821</v>
       </c>
       <c r="BV8">
-        <v>223317</v>
+        <v>26466</v>
       </c>
       <c r="BW8">
-        <v>228900</v>
+        <v>27128</v>
       </c>
       <c r="BX8">
-        <v>234622</v>
+        <v>27806</v>
       </c>
       <c r="BY8">
-        <v>240488</v>
+        <v>28501</v>
       </c>
       <c r="BZ8">
-        <v>246500</v>
+        <v>29214</v>
       </c>
       <c r="CA8">
-        <v>252663</v>
+        <v>29944</v>
       </c>
       <c r="CB8">
-        <v>258979</v>
+        <v>30693</v>
       </c>
       <c r="CC8">
-        <v>265454</v>
+        <v>31460</v>
       </c>
       <c r="CD8">
-        <v>272090</v>
+        <v>32246</v>
       </c>
       <c r="CE8">
-        <v>278892</v>
+        <v>33053</v>
       </c>
       <c r="CF8">
-        <v>285865</v>
+        <v>33879</v>
       </c>
       <c r="CG8">
-        <v>293011</v>
+        <v>34726</v>
       </c>
       <c r="CH8">
-        <v>300337</v>
+        <v>35594</v>
       </c>
       <c r="CI8">
-        <v>307845</v>
+        <v>36484</v>
       </c>
       <c r="CJ8">
-        <v>315541</v>
+        <v>37396</v>
       </c>
       <c r="CK8">
-        <v>323430</v>
+        <v>38331</v>
       </c>
       <c r="CL8">
-        <v>331515</v>
+        <v>39289</v>
       </c>
       <c r="CM8">
-        <v>339803</v>
+        <v>40271</v>
       </c>
       <c r="CN8">
-        <v>348298</v>
+        <v>41278</v>
       </c>
       <c r="CO8">
-        <v>357006</v>
+        <v>42310</v>
       </c>
       <c r="CP8">
-        <v>365931</v>
+        <v>43368</v>
       </c>
       <c r="CQ8">
-        <v>375079</v>
+        <v>44452</v>
       </c>
       <c r="CR8">
-        <v>384456</v>
+        <v>45563</v>
       </c>
       <c r="CS8">
-        <v>394068</v>
+        <v>46702</v>
       </c>
       <c r="CT8">
-        <v>403919</v>
+        <v>47870</v>
       </c>
       <c r="CU8">
-        <v>414017</v>
+        <v>49067</v>
       </c>
       <c r="CV8">
-        <v>424368</v>
+        <v>50293</v>
       </c>
       <c r="CW8">
-        <v>434977</v>
+        <v>51551</v>
       </c>
       <c r="CX8">
-        <v>445851</v>
+        <v>52840</v>
       </c>
       <c r="CY8">
-        <v>456998</v>
+        <v>54161</v>
       </c>
       <c r="CZ8">
-        <v>468422</v>
+        <v>55515</v>
       </c>
       <c r="DA8">
-        <v>480133</v>
+        <v>56902</v>
       </c>
       <c r="DB8">
-        <v>492136</v>
+        <v>58325</v>
       </c>
       <c r="DC8">
-        <v>504440</v>
+        <v>59783</v>
       </c>
       <c r="DD8">
-        <v>517051</v>
+        <v>61278</v>
       </c>
       <c r="DE8">
-        <v>529977</v>
+        <v>62810</v>
       </c>
       <c r="DF8">
-        <v>543226</v>
+        <v>64380</v>
       </c>
       <c r="DG8">
-        <v>556807</v>
+        <v>65989</v>
       </c>
       <c r="DH8">
-        <v>570727</v>
+        <v>67639</v>
       </c>
       <c r="DI8">
-        <v>584996</v>
+        <v>69330</v>
       </c>
     </row>
     <row r="9" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9">
+        <f>E8*0.5</f>
         <v>0</v>
       </c>
       <c r="F9">
+        <f t="shared" ref="F9:BQ9" si="4">F8*0.5</f>
         <v>0</v>
       </c>
       <c r="G9">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H9">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I9">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J9">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K9">
-        <v>79669</v>
+        <f t="shared" si="4"/>
+        <v>1950</v>
       </c>
       <c r="L9">
-        <v>86520</v>
+        <f t="shared" si="4"/>
+        <v>1998.5</v>
       </c>
       <c r="M9">
-        <v>93220</v>
+        <f t="shared" si="4"/>
+        <v>2048.5</v>
       </c>
       <c r="N9">
-        <v>100481</v>
+        <f t="shared" si="4"/>
+        <v>2100</v>
       </c>
       <c r="O9">
-        <v>110986</v>
+        <f t="shared" si="4"/>
+        <v>2152.5</v>
       </c>
       <c r="P9">
-        <v>119143</v>
+        <f t="shared" si="4"/>
+        <v>2206</v>
       </c>
       <c r="Q9">
-        <v>129031</v>
+        <f t="shared" si="4"/>
+        <v>2261</v>
       </c>
       <c r="R9">
-        <v>137854</v>
+        <f t="shared" si="4"/>
+        <v>2318</v>
       </c>
       <c r="S9">
-        <v>147294</v>
+        <f t="shared" si="4"/>
+        <v>2375.5</v>
       </c>
       <c r="T9">
-        <v>157404</v>
+        <f t="shared" si="4"/>
+        <v>2435</v>
       </c>
       <c r="U9">
-        <v>168218</v>
+        <f t="shared" si="4"/>
+        <v>2496</v>
       </c>
       <c r="V9">
-        <v>181903</v>
+        <f t="shared" si="4"/>
+        <v>3191.5</v>
       </c>
       <c r="W9">
-        <v>194443</v>
+        <f t="shared" si="4"/>
+        <v>3271.5</v>
       </c>
       <c r="X9">
-        <v>206869</v>
+        <f t="shared" si="4"/>
+        <v>3353</v>
       </c>
       <c r="Y9">
-        <v>220138</v>
+        <f t="shared" si="4"/>
+        <v>3437</v>
       </c>
       <c r="Z9">
-        <v>233190</v>
+        <f t="shared" si="4"/>
+        <v>3523</v>
       </c>
       <c r="AA9">
-        <v>247985</v>
+        <f t="shared" si="4"/>
+        <v>3611</v>
       </c>
       <c r="AB9">
-        <v>262708</v>
+        <f t="shared" si="4"/>
+        <v>3701</v>
       </c>
       <c r="AC9">
-        <v>277683</v>
+        <f t="shared" si="4"/>
+        <v>3793.5</v>
       </c>
       <c r="AD9">
-        <v>293502</v>
+        <f t="shared" si="4"/>
+        <v>3888.5</v>
       </c>
       <c r="AE9">
-        <v>310230</v>
+        <f t="shared" si="4"/>
+        <v>3986</v>
       </c>
       <c r="AF9">
-        <v>329003</v>
+        <f t="shared" si="4"/>
+        <v>4085.5</v>
       </c>
       <c r="AG9">
-        <v>347765</v>
+        <f t="shared" si="4"/>
+        <v>4187.5</v>
       </c>
       <c r="AH9">
-        <v>367633</v>
+        <f t="shared" si="4"/>
+        <v>4292.5</v>
       </c>
       <c r="AI9">
-        <v>388658</v>
+        <f t="shared" si="4"/>
+        <v>4399.5</v>
       </c>
       <c r="AJ9">
-        <v>409000</v>
+        <f t="shared" si="4"/>
+        <v>5178</v>
       </c>
       <c r="AK9">
-        <v>431751</v>
+        <f t="shared" si="4"/>
+        <v>5307.5</v>
       </c>
       <c r="AL9">
-        <v>454372</v>
+        <f t="shared" si="4"/>
+        <v>5440</v>
       </c>
       <c r="AM9">
-        <v>478179</v>
+        <f t="shared" si="4"/>
+        <v>5576</v>
       </c>
       <c r="AN9">
-        <v>503224</v>
+        <f t="shared" si="4"/>
+        <v>5715.5</v>
       </c>
       <c r="AO9">
-        <v>529869</v>
+        <f t="shared" si="4"/>
+        <v>5858.5</v>
       </c>
       <c r="AP9">
-        <v>543116</v>
+        <f t="shared" si="4"/>
+        <v>6005</v>
       </c>
       <c r="AQ9">
-        <v>556694</v>
+        <f t="shared" si="4"/>
+        <v>6155</v>
       </c>
       <c r="AR9">
-        <v>570611</v>
+        <f t="shared" si="4"/>
+        <v>6309</v>
       </c>
       <c r="AS9">
-        <v>584877</v>
+        <f t="shared" si="4"/>
+        <v>6466.5</v>
       </c>
       <c r="AT9">
-        <v>599499</v>
+        <f t="shared" si="4"/>
+        <v>6628</v>
       </c>
       <c r="AU9">
-        <v>614486</v>
+        <f t="shared" si="4"/>
+        <v>6794</v>
       </c>
       <c r="AV9">
-        <v>629848</v>
+        <f t="shared" si="4"/>
+        <v>6963.5</v>
       </c>
       <c r="AW9">
-        <v>645594</v>
+        <f t="shared" si="4"/>
+        <v>7138</v>
       </c>
       <c r="AX9">
-        <v>661734</v>
+        <f t="shared" si="4"/>
+        <v>7316</v>
       </c>
       <c r="AY9">
-        <v>678278</v>
+        <f t="shared" si="4"/>
+        <v>7499</v>
       </c>
       <c r="AZ9">
-        <v>695235</v>
+        <f t="shared" si="4"/>
+        <v>7686.5</v>
       </c>
       <c r="BA9">
-        <v>712615</v>
+        <f t="shared" si="4"/>
+        <v>7879</v>
       </c>
       <c r="BB9">
-        <v>730431</v>
+        <f t="shared" si="4"/>
+        <v>8076</v>
       </c>
       <c r="BC9">
-        <v>748692</v>
+        <f t="shared" si="4"/>
+        <v>8277.5</v>
       </c>
       <c r="BD9">
-        <v>767409</v>
+        <f t="shared" si="4"/>
+        <v>8484.5</v>
       </c>
       <c r="BE9">
-        <v>786594</v>
+        <f t="shared" si="4"/>
+        <v>8696.5</v>
       </c>
       <c r="BF9">
-        <v>806259</v>
+        <f t="shared" si="4"/>
+        <v>8914</v>
       </c>
       <c r="BG9">
-        <v>826415</v>
+        <f t="shared" si="4"/>
+        <v>9137</v>
       </c>
       <c r="BH9">
-        <v>847076</v>
+        <f t="shared" si="4"/>
+        <v>9365.5</v>
       </c>
       <c r="BI9">
-        <v>868253</v>
+        <f t="shared" si="4"/>
+        <v>9599.5</v>
       </c>
       <c r="BJ9">
-        <v>889959</v>
+        <f t="shared" si="4"/>
+        <v>9839.5</v>
       </c>
       <c r="BK9">
-        <v>912208</v>
+        <f t="shared" si="4"/>
+        <v>10085.5</v>
       </c>
       <c r="BL9">
-        <v>935013</v>
+        <f t="shared" si="4"/>
+        <v>10337.5</v>
       </c>
       <c r="BM9">
-        <v>958389</v>
+        <f t="shared" si="4"/>
+        <v>10596</v>
       </c>
       <c r="BN9">
-        <v>982348</v>
+        <f t="shared" si="4"/>
+        <v>10861</v>
       </c>
       <c r="BO9">
-        <v>1006907</v>
+        <f t="shared" si="4"/>
+        <v>11132.5</v>
       </c>
       <c r="BP9">
-        <v>1032080</v>
+        <f t="shared" si="4"/>
+        <v>11411</v>
       </c>
       <c r="BQ9">
-        <v>1057882</v>
+        <f t="shared" si="4"/>
+        <v>11696</v>
       </c>
       <c r="BR9">
-        <v>1084329</v>
+        <f t="shared" ref="BR9:DI9" si="5">BR8*0.5</f>
+        <v>11988.5</v>
       </c>
       <c r="BS9">
-        <v>1111437</v>
+        <f t="shared" si="5"/>
+        <v>12288</v>
       </c>
       <c r="BT9">
-        <v>1139223</v>
+        <f t="shared" si="5"/>
+        <v>12595.5</v>
       </c>
       <c r="BU9">
-        <v>1167703</v>
+        <f t="shared" si="5"/>
+        <v>12910.5</v>
       </c>
       <c r="BV9">
-        <v>1196896</v>
+        <f t="shared" si="5"/>
+        <v>13233</v>
       </c>
       <c r="BW9">
-        <v>1226818</v>
+        <f t="shared" si="5"/>
+        <v>13564</v>
       </c>
       <c r="BX9">
-        <v>1257489</v>
+        <f t="shared" si="5"/>
+        <v>13903</v>
       </c>
       <c r="BY9">
-        <v>1288926</v>
+        <f t="shared" si="5"/>
+        <v>14250.5</v>
       </c>
       <c r="BZ9">
-        <v>1321149</v>
+        <f t="shared" si="5"/>
+        <v>14607</v>
       </c>
       <c r="CA9">
-        <v>1354178</v>
+        <f t="shared" si="5"/>
+        <v>14972</v>
       </c>
       <c r="CB9">
-        <v>1388032</v>
+        <f t="shared" si="5"/>
+        <v>15346.5</v>
       </c>
       <c r="CC9">
-        <v>1422733</v>
+        <f t="shared" si="5"/>
+        <v>15730</v>
       </c>
       <c r="CD9">
-        <v>1458302</v>
+        <f t="shared" si="5"/>
+        <v>16123</v>
       </c>
       <c r="CE9">
-        <v>1494759</v>
+        <f t="shared" si="5"/>
+        <v>16526.5</v>
       </c>
       <c r="CF9">
-        <v>1532128</v>
+        <f t="shared" si="5"/>
+        <v>16939.5</v>
       </c>
       <c r="CG9">
-        <v>1570431</v>
+        <f t="shared" si="5"/>
+        <v>17363</v>
       </c>
       <c r="CH9">
-        <v>1609692</v>
+        <f t="shared" si="5"/>
+        <v>17797</v>
       </c>
       <c r="CI9">
-        <v>1649934</v>
+        <f t="shared" si="5"/>
+        <v>18242</v>
       </c>
       <c r="CJ9">
-        <v>1691183</v>
+        <f t="shared" si="5"/>
+        <v>18698</v>
       </c>
       <c r="CK9">
-        <v>1733462</v>
+        <f t="shared" si="5"/>
+        <v>19165.5</v>
       </c>
       <c r="CL9">
-        <v>1776799</v>
+        <f t="shared" si="5"/>
+        <v>19644.5</v>
       </c>
       <c r="CM9">
-        <v>1821219</v>
+        <f t="shared" si="5"/>
+        <v>20135.5</v>
       </c>
       <c r="CN9">
-        <v>1866749</v>
+        <f t="shared" si="5"/>
+        <v>20639</v>
       </c>
       <c r="CO9">
-        <v>1913418</v>
+        <f t="shared" si="5"/>
+        <v>21155</v>
       </c>
       <c r="CP9">
-        <v>1961254</v>
+        <f t="shared" si="5"/>
+        <v>21684</v>
       </c>
       <c r="CQ9">
-        <v>2010285</v>
+        <f t="shared" si="5"/>
+        <v>22226</v>
       </c>
       <c r="CR9">
-        <v>2060542</v>
+        <f t="shared" si="5"/>
+        <v>22781.5</v>
       </c>
       <c r="CS9">
-        <v>2112056</v>
+        <f t="shared" si="5"/>
+        <v>23351</v>
       </c>
       <c r="CT9">
-        <v>2164857</v>
+        <f t="shared" si="5"/>
+        <v>23935</v>
       </c>
       <c r="CU9">
-        <v>2218978</v>
+        <f t="shared" si="5"/>
+        <v>24533.5</v>
       </c>
       <c r="CV9">
-        <v>2274453</v>
+        <f t="shared" si="5"/>
+        <v>25146.5</v>
       </c>
       <c r="CW9">
-        <v>2331314</v>
+        <f t="shared" si="5"/>
+        <v>25775.5</v>
       </c>
       <c r="CX9">
-        <v>2389597</v>
+        <f t="shared" si="5"/>
+        <v>26420</v>
       </c>
       <c r="CY9">
-        <v>2449337</v>
+        <f t="shared" si="5"/>
+        <v>27080.5</v>
       </c>
       <c r="CZ9">
-        <v>2510570</v>
+        <f t="shared" si="5"/>
+        <v>27757.5</v>
       </c>
       <c r="DA9">
-        <v>2573335</v>
+        <f t="shared" si="5"/>
+        <v>28451</v>
       </c>
       <c r="DB9">
-        <v>2637668</v>
+        <f t="shared" si="5"/>
+        <v>29162.5</v>
       </c>
       <c r="DC9">
-        <v>2703610</v>
+        <f t="shared" si="5"/>
+        <v>29891.5</v>
       </c>
       <c r="DD9">
-        <v>2771200</v>
+        <f t="shared" si="5"/>
+        <v>30639</v>
       </c>
       <c r="DE9">
-        <v>2840480</v>
+        <f t="shared" si="5"/>
+        <v>31405</v>
       </c>
       <c r="DF9">
-        <v>2911492</v>
+        <f t="shared" si="5"/>
+        <v>32190</v>
       </c>
       <c r="DG9">
-        <v>2984279</v>
+        <f t="shared" si="5"/>
+        <v>32994.5</v>
       </c>
       <c r="DH9">
-        <v>3058886</v>
+        <f t="shared" si="5"/>
+        <v>33819.5</v>
       </c>
       <c r="DI9">
-        <v>3135358</v>
+        <f t="shared" si="5"/>
+        <v>34665</v>
       </c>
     </row>
     <row r="10" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -3563,324 +3887,324 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>26529</v>
+        <v>20457</v>
       </c>
       <c r="L10">
-        <v>27192</v>
+        <v>20968</v>
       </c>
       <c r="M10">
-        <v>27872</v>
+        <v>21493</v>
       </c>
       <c r="N10">
-        <v>28569</v>
+        <v>22030</v>
       </c>
       <c r="O10">
-        <v>29283</v>
+        <v>22581</v>
       </c>
       <c r="P10">
-        <v>30015</v>
+        <v>23145</v>
       </c>
       <c r="Q10">
-        <v>30766</v>
+        <v>23724</v>
       </c>
       <c r="R10">
-        <v>38811</v>
+        <v>24317</v>
       </c>
       <c r="S10">
-        <v>39781</v>
+        <v>24925</v>
       </c>
       <c r="T10">
-        <v>40775</v>
+        <v>25548</v>
       </c>
       <c r="U10">
-        <v>41795</v>
+        <v>26187</v>
       </c>
       <c r="V10">
-        <v>42840</v>
+        <v>26841</v>
       </c>
       <c r="W10">
-        <v>54130</v>
+        <v>27512</v>
       </c>
       <c r="X10">
-        <v>55483</v>
+        <v>28200</v>
       </c>
       <c r="Y10">
-        <v>56870</v>
+        <v>28905</v>
       </c>
       <c r="Z10">
-        <v>58292</v>
+        <v>29628</v>
       </c>
       <c r="AA10">
-        <v>59749</v>
+        <v>30369</v>
       </c>
       <c r="AB10">
-        <v>61243</v>
+        <v>31128</v>
       </c>
       <c r="AC10">
-        <v>71231</v>
+        <v>31906</v>
       </c>
       <c r="AD10">
-        <v>73012</v>
+        <v>32704</v>
       </c>
       <c r="AE10">
-        <v>86144</v>
+        <v>33521</v>
       </c>
       <c r="AF10">
-        <v>88298</v>
+        <v>34359</v>
       </c>
       <c r="AG10">
-        <v>90505</v>
+        <v>35218</v>
       </c>
       <c r="AH10">
-        <v>92768</v>
+        <v>36099</v>
       </c>
       <c r="AI10">
-        <v>95087</v>
+        <v>37001</v>
       </c>
       <c r="AJ10">
-        <v>97464</v>
+        <v>37926</v>
       </c>
       <c r="AK10">
-        <v>99901</v>
+        <v>38874</v>
       </c>
       <c r="AL10">
-        <v>102398</v>
+        <v>39846</v>
       </c>
       <c r="AM10">
-        <v>114358</v>
+        <v>40842</v>
       </c>
       <c r="AN10">
-        <v>117217</v>
+        <v>41863</v>
       </c>
       <c r="AO10">
-        <v>120148</v>
+        <v>42910</v>
       </c>
       <c r="AP10">
-        <v>123151</v>
+        <v>43983</v>
       </c>
       <c r="AQ10">
-        <v>126230</v>
+        <v>45082</v>
       </c>
       <c r="AR10">
-        <v>129386</v>
+        <v>46209</v>
       </c>
       <c r="AS10">
-        <v>132621</v>
+        <v>47365</v>
       </c>
       <c r="AT10">
-        <v>135936</v>
+        <v>48549</v>
       </c>
       <c r="AU10">
-        <v>139335</v>
+        <v>49762</v>
       </c>
       <c r="AV10">
-        <v>142818</v>
+        <v>51006</v>
       </c>
       <c r="AW10">
-        <v>146388</v>
+        <v>52282</v>
       </c>
       <c r="AX10">
-        <v>150048</v>
+        <v>53589</v>
       </c>
       <c r="AY10">
-        <v>153799</v>
+        <v>54928</v>
       </c>
       <c r="AZ10">
-        <v>157644</v>
+        <v>56302</v>
       </c>
       <c r="BA10">
-        <v>161585</v>
+        <v>57709</v>
       </c>
       <c r="BB10">
-        <v>165625</v>
+        <v>59152</v>
       </c>
       <c r="BC10">
-        <v>169766</v>
+        <v>60631</v>
       </c>
       <c r="BD10">
-        <v>174010</v>
+        <v>62146</v>
       </c>
       <c r="BE10">
-        <v>178360</v>
+        <v>63700</v>
       </c>
       <c r="BF10">
-        <v>182819</v>
+        <v>65293</v>
       </c>
       <c r="BG10">
-        <v>187390</v>
+        <v>66925</v>
       </c>
       <c r="BH10">
-        <v>192074</v>
+        <v>68598</v>
       </c>
       <c r="BI10">
-        <v>196876</v>
+        <v>70313</v>
       </c>
       <c r="BJ10">
-        <v>201798</v>
+        <v>72071</v>
       </c>
       <c r="BK10">
-        <v>206843</v>
+        <v>73872</v>
       </c>
       <c r="BL10">
-        <v>212014</v>
+        <v>75719</v>
       </c>
       <c r="BM10">
-        <v>217314</v>
+        <v>77612</v>
       </c>
       <c r="BN10">
-        <v>222747</v>
+        <v>79553</v>
       </c>
       <c r="BO10">
-        <v>228316</v>
+        <v>81541</v>
       </c>
       <c r="BP10">
-        <v>234024</v>
+        <v>83580</v>
       </c>
       <c r="BQ10">
-        <v>239874</v>
+        <v>85669</v>
       </c>
       <c r="BR10">
-        <v>245871</v>
+        <v>87811</v>
       </c>
       <c r="BS10">
-        <v>252018</v>
+        <v>90006</v>
       </c>
       <c r="BT10">
-        <v>258319</v>
+        <v>92257</v>
       </c>
       <c r="BU10">
-        <v>264777</v>
+        <v>94563</v>
       </c>
       <c r="BV10">
-        <v>271396</v>
+        <v>96927</v>
       </c>
       <c r="BW10">
-        <v>278181</v>
+        <v>99350</v>
       </c>
       <c r="BX10">
-        <v>285135</v>
+        <v>101834</v>
       </c>
       <c r="BY10">
-        <v>292264</v>
+        <v>104380</v>
       </c>
       <c r="BZ10">
-        <v>299570</v>
+        <v>106989</v>
       </c>
       <c r="CA10">
-        <v>307060</v>
+        <v>109664</v>
       </c>
       <c r="CB10">
-        <v>314736</v>
+        <v>112406</v>
       </c>
       <c r="CC10">
-        <v>322604</v>
+        <v>115216</v>
       </c>
       <c r="CD10">
-        <v>330670</v>
+        <v>118096</v>
       </c>
       <c r="CE10">
-        <v>338936</v>
+        <v>121049</v>
       </c>
       <c r="CF10">
-        <v>347410</v>
+        <v>124075</v>
       </c>
       <c r="CG10">
-        <v>356095</v>
+        <v>127177</v>
       </c>
       <c r="CH10">
-        <v>364997</v>
+        <v>130356</v>
       </c>
       <c r="CI10">
-        <v>374122</v>
+        <v>133615</v>
       </c>
       <c r="CJ10">
-        <v>383475</v>
+        <v>136955</v>
       </c>
       <c r="CK10">
-        <v>393062</v>
+        <v>140379</v>
       </c>
       <c r="CL10">
-        <v>402889</v>
+        <v>143889</v>
       </c>
       <c r="CM10">
-        <v>412961</v>
+        <v>147486</v>
       </c>
       <c r="CN10">
-        <v>423285</v>
+        <v>151173</v>
       </c>
       <c r="CO10">
-        <v>433867</v>
+        <v>154953</v>
       </c>
       <c r="CP10">
-        <v>444714</v>
+        <v>158826</v>
       </c>
       <c r="CQ10">
-        <v>455832</v>
+        <v>162797</v>
       </c>
       <c r="CR10">
-        <v>467227</v>
+        <v>166867</v>
       </c>
       <c r="CS10">
-        <v>478908</v>
+        <v>171039</v>
       </c>
       <c r="CT10">
-        <v>490881</v>
+        <v>175315</v>
       </c>
       <c r="CU10">
-        <v>503153</v>
+        <v>179697</v>
       </c>
       <c r="CV10">
-        <v>515732</v>
+        <v>184190</v>
       </c>
       <c r="CW10">
-        <v>528625</v>
+        <v>188795</v>
       </c>
       <c r="CX10">
-        <v>541841</v>
+        <v>193515</v>
       </c>
       <c r="CY10">
-        <v>555387</v>
+        <v>198352</v>
       </c>
       <c r="CZ10">
-        <v>569271</v>
+        <v>203311</v>
       </c>
       <c r="DA10">
-        <v>583503</v>
+        <v>208394</v>
       </c>
       <c r="DB10">
-        <v>598091</v>
+        <v>213604</v>
       </c>
       <c r="DC10">
-        <v>613043</v>
+        <v>218944</v>
       </c>
       <c r="DD10">
-        <v>628369</v>
+        <v>224417</v>
       </c>
       <c r="DE10">
-        <v>644078</v>
+        <v>230028</v>
       </c>
       <c r="DF10">
-        <v>660180</v>
+        <v>235779</v>
       </c>
       <c r="DG10">
-        <v>676685</v>
+        <v>241673</v>
       </c>
       <c r="DH10">
-        <v>693602</v>
+        <v>247715</v>
       </c>
       <c r="DI10">
-        <v>710942</v>
+        <v>253908</v>
       </c>
     </row>
     <row r="11" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
@@ -3904,327 +4228,327 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
-        <v>50144</v>
-      </c>
-      <c r="M11" s="1">
-        <v>51398</v>
-      </c>
-      <c r="N11" s="1">
-        <v>52683</v>
-      </c>
-      <c r="O11" s="1">
-        <v>54000</v>
-      </c>
-      <c r="P11" s="1">
-        <v>55350</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>56734</v>
-      </c>
-      <c r="R11" s="1">
-        <v>58152</v>
-      </c>
-      <c r="S11" s="1">
-        <v>59606</v>
-      </c>
-      <c r="T11" s="1">
-        <v>61096</v>
-      </c>
-      <c r="U11" s="1">
-        <v>62624</v>
-      </c>
-      <c r="V11" s="1">
-        <v>64189</v>
-      </c>
-      <c r="W11" s="1">
-        <v>65794</v>
-      </c>
-      <c r="X11" s="1">
-        <v>67439</v>
-      </c>
-      <c r="Y11" s="1">
-        <v>69125</v>
-      </c>
-      <c r="Z11" s="1">
-        <v>70853</v>
-      </c>
-      <c r="AA11" s="1">
-        <v>72624</v>
-      </c>
-      <c r="AB11" s="1">
-        <v>74440</v>
-      </c>
-      <c r="AC11" s="1">
-        <v>76301</v>
-      </c>
-      <c r="AD11" s="1">
-        <v>78208</v>
-      </c>
-      <c r="AE11" s="1">
-        <v>80163</v>
-      </c>
-      <c r="AF11" s="1">
-        <v>82167</v>
-      </c>
-      <c r="AG11" s="1">
-        <v>84222</v>
-      </c>
-      <c r="AH11" s="1">
-        <v>86327</v>
-      </c>
-      <c r="AI11" s="1">
-        <v>88485</v>
-      </c>
-      <c r="AJ11" s="1">
-        <v>90698</v>
-      </c>
-      <c r="AK11" s="1">
-        <v>92965</v>
-      </c>
-      <c r="AL11" s="1">
-        <v>95289</v>
-      </c>
-      <c r="AM11" s="1">
-        <v>97671</v>
-      </c>
-      <c r="AN11" s="1">
-        <v>100113</v>
-      </c>
-      <c r="AO11" s="1">
-        <v>102616</v>
-      </c>
-      <c r="AP11" s="1">
-        <v>105181</v>
-      </c>
-      <c r="AQ11" s="1">
-        <v>107811</v>
-      </c>
-      <c r="AR11" s="1">
-        <v>110506</v>
-      </c>
-      <c r="AS11" s="1">
-        <v>113269</v>
-      </c>
-      <c r="AT11" s="1">
-        <v>116101</v>
-      </c>
-      <c r="AU11" s="1">
-        <v>119003</v>
-      </c>
-      <c r="AV11" s="1">
-        <v>121978</v>
-      </c>
-      <c r="AW11" s="1">
-        <v>125028</v>
-      </c>
-      <c r="AX11" s="1">
-        <v>128153</v>
-      </c>
-      <c r="AY11" s="1">
-        <v>131357</v>
-      </c>
-      <c r="AZ11" s="1">
-        <v>134641</v>
-      </c>
-      <c r="BA11" s="1">
-        <v>138007</v>
-      </c>
-      <c r="BB11" s="1">
-        <v>141457</v>
-      </c>
-      <c r="BC11" s="1">
-        <v>144994</v>
-      </c>
-      <c r="BD11" s="1">
-        <v>148618</v>
-      </c>
-      <c r="BE11" s="1">
-        <v>152334</v>
-      </c>
-      <c r="BF11" s="1">
-        <v>156142</v>
-      </c>
-      <c r="BG11" s="1">
-        <v>160046</v>
-      </c>
-      <c r="BH11" s="1">
-        <v>164047</v>
-      </c>
-      <c r="BI11" s="1">
-        <v>168148</v>
-      </c>
-      <c r="BJ11" s="1">
-        <v>172352</v>
-      </c>
-      <c r="BK11" s="1">
-        <v>176661</v>
-      </c>
-      <c r="BL11" s="1">
-        <v>181077</v>
-      </c>
-      <c r="BM11" s="1">
-        <v>185604</v>
-      </c>
-      <c r="BN11" s="1">
-        <v>190244</v>
-      </c>
-      <c r="BO11" s="1">
-        <v>195000</v>
-      </c>
-      <c r="BP11" s="1">
-        <v>199875</v>
-      </c>
-      <c r="BQ11" s="1">
-        <v>204872</v>
-      </c>
-      <c r="BR11" s="1">
-        <v>209994</v>
-      </c>
-      <c r="BS11" s="1">
-        <v>215244</v>
-      </c>
-      <c r="BT11" s="1">
-        <v>220625</v>
-      </c>
-      <c r="BU11" s="1">
-        <v>226141</v>
-      </c>
-      <c r="BV11" s="1">
-        <v>231794</v>
-      </c>
-      <c r="BW11" s="1">
-        <v>237589</v>
-      </c>
-      <c r="BX11" s="1">
-        <v>243529</v>
-      </c>
-      <c r="BY11" s="1">
-        <v>249617</v>
-      </c>
-      <c r="BZ11" s="1">
-        <v>255857</v>
-      </c>
-      <c r="CA11" s="1">
-        <v>262254</v>
-      </c>
-      <c r="CB11" s="1">
-        <v>268810</v>
-      </c>
-      <c r="CC11" s="1">
-        <v>275530</v>
-      </c>
-      <c r="CD11" s="1">
-        <v>282419</v>
-      </c>
-      <c r="CE11" s="1">
-        <v>289479</v>
-      </c>
-      <c r="CF11" s="1">
-        <v>296716</v>
-      </c>
-      <c r="CG11" s="1">
-        <v>304134</v>
-      </c>
-      <c r="CH11" s="1">
-        <v>311737</v>
-      </c>
-      <c r="CI11" s="1">
-        <v>319531</v>
-      </c>
-      <c r="CJ11" s="1">
-        <v>327519</v>
-      </c>
-      <c r="CK11" s="1">
-        <v>335707</v>
-      </c>
-      <c r="CL11" s="1">
-        <v>344100</v>
-      </c>
-      <c r="CM11" s="1">
-        <v>352702</v>
-      </c>
-      <c r="CN11" s="1">
-        <v>361520</v>
-      </c>
-      <c r="CO11" s="1">
-        <v>370558</v>
-      </c>
-      <c r="CP11" s="1">
-        <v>379822</v>
-      </c>
-      <c r="CQ11" s="1">
-        <v>389317</v>
-      </c>
-      <c r="CR11" s="1">
-        <v>399050</v>
-      </c>
-      <c r="CS11" s="1">
-        <v>409026</v>
-      </c>
-      <c r="CT11" s="1">
-        <v>419252</v>
-      </c>
-      <c r="CU11" s="1">
-        <v>429733</v>
-      </c>
-      <c r="CV11" s="1">
-        <v>440477</v>
-      </c>
-      <c r="CW11" s="1">
-        <v>451489</v>
-      </c>
-      <c r="CX11" s="1">
-        <v>462776</v>
-      </c>
-      <c r="CY11" s="1">
-        <v>474345</v>
-      </c>
-      <c r="CZ11" s="1">
-        <v>486204</v>
-      </c>
-      <c r="DA11" s="1">
-        <v>498359</v>
-      </c>
-      <c r="DB11" s="1">
-        <v>510818</v>
-      </c>
-      <c r="DC11" s="1">
-        <v>523588</v>
-      </c>
-      <c r="DD11" s="1">
-        <v>536678</v>
-      </c>
-      <c r="DE11" s="1">
-        <v>550095</v>
-      </c>
-      <c r="DF11" s="1">
-        <v>563847</v>
-      </c>
-      <c r="DG11" s="1">
-        <v>577943</v>
-      </c>
-      <c r="DH11" s="1">
-        <v>592392</v>
-      </c>
-      <c r="DI11" s="1">
-        <v>607202</v>
+        <v>21805</v>
+      </c>
+      <c r="L11">
+        <v>22350</v>
+      </c>
+      <c r="M11">
+        <v>22908</v>
+      </c>
+      <c r="N11">
+        <v>23481</v>
+      </c>
+      <c r="O11">
+        <v>24068</v>
+      </c>
+      <c r="P11">
+        <v>24670</v>
+      </c>
+      <c r="Q11">
+        <v>25287</v>
+      </c>
+      <c r="R11">
+        <v>31902</v>
+      </c>
+      <c r="S11">
+        <v>32699</v>
+      </c>
+      <c r="T11">
+        <v>33517</v>
+      </c>
+      <c r="U11">
+        <v>34354</v>
+      </c>
+      <c r="V11">
+        <v>35213</v>
+      </c>
+      <c r="W11">
+        <v>44500</v>
+      </c>
+      <c r="X11">
+        <v>45613</v>
+      </c>
+      <c r="Y11">
+        <v>46753</v>
+      </c>
+      <c r="Z11">
+        <v>47922</v>
+      </c>
+      <c r="AA11">
+        <v>49120</v>
+      </c>
+      <c r="AB11">
+        <v>50348</v>
+      </c>
+      <c r="AC11">
+        <v>58570</v>
+      </c>
+      <c r="AD11">
+        <v>60034</v>
+      </c>
+      <c r="AE11">
+        <v>70847</v>
+      </c>
+      <c r="AF11">
+        <v>72618</v>
+      </c>
+      <c r="AG11">
+        <v>74433</v>
+      </c>
+      <c r="AH11">
+        <v>76294</v>
+      </c>
+      <c r="AI11">
+        <v>78202</v>
+      </c>
+      <c r="AJ11">
+        <v>80157</v>
+      </c>
+      <c r="AK11">
+        <v>82160</v>
+      </c>
+      <c r="AL11">
+        <v>84214</v>
+      </c>
+      <c r="AM11">
+        <v>94099</v>
+      </c>
+      <c r="AN11">
+        <v>96452</v>
+      </c>
+      <c r="AO11">
+        <v>98863</v>
+      </c>
+      <c r="AP11">
+        <v>101335</v>
+      </c>
+      <c r="AQ11">
+        <v>103868</v>
+      </c>
+      <c r="AR11">
+        <v>106465</v>
+      </c>
+      <c r="AS11">
+        <v>109126</v>
+      </c>
+      <c r="AT11">
+        <v>111855</v>
+      </c>
+      <c r="AU11">
+        <v>114651</v>
+      </c>
+      <c r="AV11">
+        <v>117517</v>
+      </c>
+      <c r="AW11">
+        <v>120455</v>
+      </c>
+      <c r="AX11">
+        <v>123466</v>
+      </c>
+      <c r="AY11">
+        <v>126553</v>
+      </c>
+      <c r="AZ11">
+        <v>129717</v>
+      </c>
+      <c r="BA11">
+        <v>132960</v>
+      </c>
+      <c r="BB11">
+        <v>136284</v>
+      </c>
+      <c r="BC11">
+        <v>139691</v>
+      </c>
+      <c r="BD11">
+        <v>143183</v>
+      </c>
+      <c r="BE11">
+        <v>146763</v>
+      </c>
+      <c r="BF11">
+        <v>150432</v>
+      </c>
+      <c r="BG11">
+        <v>154193</v>
+      </c>
+      <c r="BH11">
+        <v>158048</v>
+      </c>
+      <c r="BI11">
+        <v>161999</v>
+      </c>
+      <c r="BJ11">
+        <v>166049</v>
+      </c>
+      <c r="BK11">
+        <v>170200</v>
+      </c>
+      <c r="BL11">
+        <v>174455</v>
+      </c>
+      <c r="BM11">
+        <v>178816</v>
+      </c>
+      <c r="BN11">
+        <v>183287</v>
+      </c>
+      <c r="BO11">
+        <v>187869</v>
+      </c>
+      <c r="BP11">
+        <v>192566</v>
+      </c>
+      <c r="BQ11">
+        <v>197380</v>
+      </c>
+      <c r="BR11">
+        <v>202314</v>
+      </c>
+      <c r="BS11">
+        <v>207372</v>
+      </c>
+      <c r="BT11">
+        <v>212556</v>
+      </c>
+      <c r="BU11">
+        <v>217870</v>
+      </c>
+      <c r="BV11">
+        <v>223317</v>
+      </c>
+      <c r="BW11">
+        <v>228900</v>
+      </c>
+      <c r="BX11">
+        <v>234622</v>
+      </c>
+      <c r="BY11">
+        <v>240488</v>
+      </c>
+      <c r="BZ11">
+        <v>246500</v>
+      </c>
+      <c r="CA11">
+        <v>252663</v>
+      </c>
+      <c r="CB11">
+        <v>258979</v>
+      </c>
+      <c r="CC11">
+        <v>265454</v>
+      </c>
+      <c r="CD11">
+        <v>272090</v>
+      </c>
+      <c r="CE11">
+        <v>278892</v>
+      </c>
+      <c r="CF11">
+        <v>285865</v>
+      </c>
+      <c r="CG11">
+        <v>293011</v>
+      </c>
+      <c r="CH11">
+        <v>300337</v>
+      </c>
+      <c r="CI11">
+        <v>307845</v>
+      </c>
+      <c r="CJ11">
+        <v>315541</v>
+      </c>
+      <c r="CK11">
+        <v>323430</v>
+      </c>
+      <c r="CL11">
+        <v>331515</v>
+      </c>
+      <c r="CM11">
+        <v>339803</v>
+      </c>
+      <c r="CN11">
+        <v>348298</v>
+      </c>
+      <c r="CO11">
+        <v>357006</v>
+      </c>
+      <c r="CP11">
+        <v>365931</v>
+      </c>
+      <c r="CQ11">
+        <v>375079</v>
+      </c>
+      <c r="CR11">
+        <v>384456</v>
+      </c>
+      <c r="CS11">
+        <v>394068</v>
+      </c>
+      <c r="CT11">
+        <v>403919</v>
+      </c>
+      <c r="CU11">
+        <v>414017</v>
+      </c>
+      <c r="CV11">
+        <v>424368</v>
+      </c>
+      <c r="CW11">
+        <v>434977</v>
+      </c>
+      <c r="CX11">
+        <v>445851</v>
+      </c>
+      <c r="CY11">
+        <v>456998</v>
+      </c>
+      <c r="CZ11">
+        <v>468422</v>
+      </c>
+      <c r="DA11">
+        <v>480133</v>
+      </c>
+      <c r="DB11">
+        <v>492136</v>
+      </c>
+      <c r="DC11">
+        <v>504440</v>
+      </c>
+      <c r="DD11">
+        <v>517051</v>
+      </c>
+      <c r="DE11">
+        <v>529977</v>
+      </c>
+      <c r="DF11">
+        <v>543226</v>
+      </c>
+      <c r="DG11">
+        <v>556807</v>
+      </c>
+      <c r="DH11">
+        <v>570727</v>
+      </c>
+      <c r="DI11">
+        <v>584996</v>
       </c>
     </row>
     <row r="12" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -4244,654 +4568,1677 @@
       <c r="J12">
         <v>0</v>
       </c>
-      <c r="K12" s="1">
-        <v>62560</v>
-      </c>
-      <c r="L12" s="1">
-        <v>67058</v>
-      </c>
-      <c r="M12" s="1">
-        <v>71932</v>
-      </c>
-      <c r="N12" s="1">
-        <v>77212</v>
-      </c>
-      <c r="O12" s="1">
-        <v>80351</v>
-      </c>
-      <c r="P12" s="1">
-        <v>83623</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>87034</v>
-      </c>
-      <c r="R12" s="1">
-        <v>90591</v>
-      </c>
-      <c r="S12" s="1">
-        <v>94300</v>
-      </c>
-      <c r="T12" s="1">
-        <v>98166</v>
-      </c>
-      <c r="U12" s="1">
-        <v>102199</v>
-      </c>
-      <c r="V12" s="1">
-        <v>106404</v>
-      </c>
-      <c r="W12" s="1">
-        <v>110789</v>
-      </c>
-      <c r="X12" s="1">
-        <v>115362</v>
-      </c>
-      <c r="Y12" s="1">
-        <v>120131</v>
-      </c>
-      <c r="Z12" s="1">
-        <v>125106</v>
-      </c>
-      <c r="AA12" s="1">
-        <v>130294</v>
-      </c>
-      <c r="AB12" s="1">
-        <v>135706</v>
-      </c>
-      <c r="AC12" s="1">
-        <v>141352</v>
-      </c>
-      <c r="AD12" s="1">
-        <v>147241</v>
-      </c>
-      <c r="AE12" s="1">
-        <v>153384</v>
-      </c>
-      <c r="AF12" s="1">
-        <v>159794</v>
-      </c>
-      <c r="AG12" s="1">
-        <v>166480</v>
-      </c>
-      <c r="AH12" s="1">
-        <v>173456</v>
-      </c>
-      <c r="AI12" s="1">
-        <v>180735</v>
-      </c>
-      <c r="AJ12" s="1">
-        <v>188329</v>
-      </c>
-      <c r="AK12" s="1">
-        <v>196253</v>
-      </c>
-      <c r="AL12" s="1">
-        <v>204522</v>
-      </c>
-      <c r="AM12" s="1">
-        <v>213150</v>
-      </c>
-      <c r="AN12" s="1">
-        <v>222154</v>
-      </c>
-      <c r="AO12" s="1">
-        <v>231550</v>
-      </c>
-      <c r="AP12" s="1">
-        <v>237339</v>
-      </c>
-      <c r="AQ12" s="1">
-        <v>243272</v>
-      </c>
-      <c r="AR12" s="1">
-        <v>249354</v>
-      </c>
-      <c r="AS12" s="1">
-        <v>255588</v>
-      </c>
-      <c r="AT12" s="1">
-        <v>261978</v>
-      </c>
-      <c r="AU12" s="1">
-        <v>268527</v>
-      </c>
-      <c r="AV12" s="1">
-        <v>275240</v>
-      </c>
-      <c r="AW12" s="1">
-        <v>282122</v>
-      </c>
-      <c r="AX12" s="1">
-        <v>289175</v>
-      </c>
-      <c r="AY12" s="1">
-        <v>296404</v>
-      </c>
-      <c r="AZ12" s="1">
-        <v>303814</v>
-      </c>
-      <c r="BA12" s="1">
-        <v>311409</v>
-      </c>
-      <c r="BB12" s="1">
-        <v>319195</v>
-      </c>
-      <c r="BC12" s="1">
-        <v>327174</v>
-      </c>
-      <c r="BD12" s="1">
-        <v>335354</v>
-      </c>
-      <c r="BE12" s="1">
-        <v>343738</v>
-      </c>
-      <c r="BF12" s="1">
-        <v>352331</v>
-      </c>
-      <c r="BG12" s="1">
-        <v>361139</v>
-      </c>
-      <c r="BH12" s="1">
-        <v>370168</v>
-      </c>
-      <c r="BI12" s="1">
-        <v>379422</v>
-      </c>
-      <c r="BJ12" s="1">
-        <v>388908</v>
-      </c>
-      <c r="BK12" s="1">
-        <v>398630</v>
-      </c>
-      <c r="BL12" s="1">
-        <v>408596</v>
-      </c>
-      <c r="BM12" s="1">
-        <v>418811</v>
-      </c>
-      <c r="BN12" s="1">
-        <v>429281</v>
-      </c>
-      <c r="BO12" s="1">
-        <v>440013</v>
-      </c>
-      <c r="BP12" s="1">
-        <v>451014</v>
-      </c>
-      <c r="BQ12" s="1">
-        <v>462289</v>
-      </c>
-      <c r="BR12" s="1">
-        <v>473846</v>
-      </c>
-      <c r="BS12" s="1">
-        <v>485692</v>
-      </c>
-      <c r="BT12" s="1">
-        <v>497835</v>
-      </c>
-      <c r="BU12" s="1">
-        <v>510280</v>
-      </c>
-      <c r="BV12" s="1">
-        <v>523037</v>
-      </c>
-      <c r="BW12" s="1">
-        <v>536113</v>
-      </c>
-      <c r="BX12" s="1">
-        <v>549516</v>
-      </c>
-      <c r="BY12" s="1">
-        <v>563254</v>
-      </c>
-      <c r="BZ12" s="1">
-        <v>577336</v>
-      </c>
-      <c r="CA12" s="1">
-        <v>591769</v>
-      </c>
-      <c r="CB12" s="1">
-        <v>606563</v>
-      </c>
-      <c r="CC12" s="1">
-        <v>621727</v>
-      </c>
-      <c r="CD12" s="1">
-        <v>637270</v>
-      </c>
-      <c r="CE12" s="1">
-        <v>653202</v>
-      </c>
-      <c r="CF12" s="1">
-        <v>669532</v>
-      </c>
-      <c r="CG12" s="1">
-        <v>686271</v>
-      </c>
-      <c r="CH12" s="1">
-        <v>703427</v>
-      </c>
-      <c r="CI12" s="1">
-        <v>721013</v>
-      </c>
-      <c r="CJ12" s="1">
-        <v>739038</v>
-      </c>
-      <c r="CK12" s="1">
-        <v>757514</v>
-      </c>
-      <c r="CL12" s="1">
-        <v>776452</v>
-      </c>
-      <c r="CM12" s="1">
-        <v>795863</v>
-      </c>
-      <c r="CN12" s="1">
-        <v>815760</v>
-      </c>
-      <c r="CO12" s="1">
-        <v>836154</v>
-      </c>
-      <c r="CP12" s="1">
-        <v>857058</v>
-      </c>
-      <c r="CQ12" s="1">
-        <v>878484</v>
-      </c>
-      <c r="CR12" s="1">
-        <v>900446</v>
-      </c>
-      <c r="CS12" s="1">
-        <v>922958</v>
-      </c>
-      <c r="CT12" s="1">
-        <v>946031</v>
-      </c>
-      <c r="CU12" s="1">
-        <v>969682</v>
-      </c>
-      <c r="CV12" s="1">
-        <v>993924</v>
-      </c>
-      <c r="CW12" s="1">
-        <v>1018772</v>
-      </c>
-      <c r="CX12" s="1">
-        <v>1044242</v>
-      </c>
-      <c r="CY12" s="1">
-        <v>1070348</v>
-      </c>
-      <c r="CZ12" s="1">
-        <v>1097106</v>
-      </c>
-      <c r="DA12" s="1">
-        <v>1124534</v>
-      </c>
-      <c r="DB12" s="1">
-        <v>1152648</v>
-      </c>
-      <c r="DC12" s="1">
-        <v>1181464</v>
-      </c>
-      <c r="DD12" s="1">
-        <v>1211000</v>
-      </c>
-      <c r="DE12" s="1">
-        <v>1241275</v>
-      </c>
-      <c r="DF12" s="1">
-        <v>1272307</v>
-      </c>
-      <c r="DG12" s="1">
-        <v>1304115</v>
-      </c>
-      <c r="DH12" s="1">
-        <v>1336718</v>
-      </c>
-      <c r="DI12" s="1">
-        <v>1370136</v>
+      <c r="K12">
+        <v>79669</v>
+      </c>
+      <c r="L12">
+        <v>86520</v>
+      </c>
+      <c r="M12">
+        <v>93220</v>
+      </c>
+      <c r="N12">
+        <v>100481</v>
+      </c>
+      <c r="O12">
+        <v>110986</v>
+      </c>
+      <c r="P12">
+        <v>119143</v>
+      </c>
+      <c r="Q12">
+        <v>129031</v>
+      </c>
+      <c r="R12">
+        <v>137854</v>
+      </c>
+      <c r="S12">
+        <v>147294</v>
+      </c>
+      <c r="T12">
+        <v>157404</v>
+      </c>
+      <c r="U12">
+        <v>168218</v>
+      </c>
+      <c r="V12">
+        <v>181903</v>
+      </c>
+      <c r="W12">
+        <v>194443</v>
+      </c>
+      <c r="X12">
+        <v>206869</v>
+      </c>
+      <c r="Y12">
+        <v>220138</v>
+      </c>
+      <c r="Z12">
+        <v>233190</v>
+      </c>
+      <c r="AA12">
+        <v>247985</v>
+      </c>
+      <c r="AB12">
+        <v>262708</v>
+      </c>
+      <c r="AC12">
+        <v>277683</v>
+      </c>
+      <c r="AD12">
+        <v>293502</v>
+      </c>
+      <c r="AE12">
+        <v>310230</v>
+      </c>
+      <c r="AF12">
+        <v>329003</v>
+      </c>
+      <c r="AG12">
+        <v>347765</v>
+      </c>
+      <c r="AH12">
+        <v>367633</v>
+      </c>
+      <c r="AI12">
+        <v>388658</v>
+      </c>
+      <c r="AJ12">
+        <v>409000</v>
+      </c>
+      <c r="AK12">
+        <v>431751</v>
+      </c>
+      <c r="AL12">
+        <v>454372</v>
+      </c>
+      <c r="AM12">
+        <v>478179</v>
+      </c>
+      <c r="AN12">
+        <v>503224</v>
+      </c>
+      <c r="AO12">
+        <v>529869</v>
+      </c>
+      <c r="AP12">
+        <v>543116</v>
+      </c>
+      <c r="AQ12">
+        <v>556694</v>
+      </c>
+      <c r="AR12">
+        <v>570611</v>
+      </c>
+      <c r="AS12">
+        <v>584877</v>
+      </c>
+      <c r="AT12">
+        <v>599499</v>
+      </c>
+      <c r="AU12">
+        <v>614486</v>
+      </c>
+      <c r="AV12">
+        <v>629848</v>
+      </c>
+      <c r="AW12">
+        <v>645594</v>
+      </c>
+      <c r="AX12">
+        <v>661734</v>
+      </c>
+      <c r="AY12">
+        <v>678278</v>
+      </c>
+      <c r="AZ12">
+        <v>695235</v>
+      </c>
+      <c r="BA12">
+        <v>712615</v>
+      </c>
+      <c r="BB12">
+        <v>730431</v>
+      </c>
+      <c r="BC12">
+        <v>748692</v>
+      </c>
+      <c r="BD12">
+        <v>767409</v>
+      </c>
+      <c r="BE12">
+        <v>786594</v>
+      </c>
+      <c r="BF12">
+        <v>806259</v>
+      </c>
+      <c r="BG12">
+        <v>826415</v>
+      </c>
+      <c r="BH12">
+        <v>847076</v>
+      </c>
+      <c r="BI12">
+        <v>868253</v>
+      </c>
+      <c r="BJ12">
+        <v>889959</v>
+      </c>
+      <c r="BK12">
+        <v>912208</v>
+      </c>
+      <c r="BL12">
+        <v>935013</v>
+      </c>
+      <c r="BM12">
+        <v>958389</v>
+      </c>
+      <c r="BN12">
+        <v>982348</v>
+      </c>
+      <c r="BO12">
+        <v>1006907</v>
+      </c>
+      <c r="BP12">
+        <v>1032080</v>
+      </c>
+      <c r="BQ12">
+        <v>1057882</v>
+      </c>
+      <c r="BR12">
+        <v>1084329</v>
+      </c>
+      <c r="BS12">
+        <v>1111437</v>
+      </c>
+      <c r="BT12">
+        <v>1139223</v>
+      </c>
+      <c r="BU12">
+        <v>1167703</v>
+      </c>
+      <c r="BV12">
+        <v>1196896</v>
+      </c>
+      <c r="BW12">
+        <v>1226818</v>
+      </c>
+      <c r="BX12">
+        <v>1257489</v>
+      </c>
+      <c r="BY12">
+        <v>1288926</v>
+      </c>
+      <c r="BZ12">
+        <v>1321149</v>
+      </c>
+      <c r="CA12">
+        <v>1354178</v>
+      </c>
+      <c r="CB12">
+        <v>1388032</v>
+      </c>
+      <c r="CC12">
+        <v>1422733</v>
+      </c>
+      <c r="CD12">
+        <v>1458302</v>
+      </c>
+      <c r="CE12">
+        <v>1494759</v>
+      </c>
+      <c r="CF12">
+        <v>1532128</v>
+      </c>
+      <c r="CG12">
+        <v>1570431</v>
+      </c>
+      <c r="CH12">
+        <v>1609692</v>
+      </c>
+      <c r="CI12">
+        <v>1649934</v>
+      </c>
+      <c r="CJ12">
+        <v>1691183</v>
+      </c>
+      <c r="CK12">
+        <v>1733462</v>
+      </c>
+      <c r="CL12">
+        <v>1776799</v>
+      </c>
+      <c r="CM12">
+        <v>1821219</v>
+      </c>
+      <c r="CN12">
+        <v>1866749</v>
+      </c>
+      <c r="CO12">
+        <v>1913418</v>
+      </c>
+      <c r="CP12">
+        <v>1961254</v>
+      </c>
+      <c r="CQ12">
+        <v>2010285</v>
+      </c>
+      <c r="CR12">
+        <v>2060542</v>
+      </c>
+      <c r="CS12">
+        <v>2112056</v>
+      </c>
+      <c r="CT12">
+        <v>2164857</v>
+      </c>
+      <c r="CU12">
+        <v>2218978</v>
+      </c>
+      <c r="CV12">
+        <v>2274453</v>
+      </c>
+      <c r="CW12">
+        <v>2331314</v>
+      </c>
+      <c r="CX12">
+        <v>2389597</v>
+      </c>
+      <c r="CY12">
+        <v>2449337</v>
+      </c>
+      <c r="CZ12">
+        <v>2510570</v>
+      </c>
+      <c r="DA12">
+        <v>2573335</v>
+      </c>
+      <c r="DB12">
+        <v>2637668</v>
+      </c>
+      <c r="DC12">
+        <v>2703610</v>
+      </c>
+      <c r="DD12">
+        <v>2771200</v>
+      </c>
+      <c r="DE12">
+        <v>2840480</v>
+      </c>
+      <c r="DF12">
+        <v>2911492</v>
+      </c>
+      <c r="DG12">
+        <v>2984279</v>
+      </c>
+      <c r="DH12">
+        <v>3058886</v>
+      </c>
+      <c r="DI12">
+        <v>3135358</v>
       </c>
     </row>
     <row r="13" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>26529</v>
+      </c>
+      <c r="L13">
+        <v>27192</v>
+      </c>
+      <c r="M13">
+        <v>27872</v>
+      </c>
+      <c r="N13">
+        <v>28569</v>
+      </c>
+      <c r="O13">
+        <v>29283</v>
+      </c>
+      <c r="P13">
+        <v>30015</v>
+      </c>
+      <c r="Q13">
+        <v>30766</v>
+      </c>
+      <c r="R13">
+        <v>38811</v>
+      </c>
+      <c r="S13">
+        <v>39781</v>
+      </c>
+      <c r="T13">
+        <v>40775</v>
+      </c>
+      <c r="U13">
+        <v>41795</v>
+      </c>
+      <c r="V13">
+        <v>42840</v>
+      </c>
+      <c r="W13">
+        <v>54130</v>
+      </c>
+      <c r="X13">
+        <v>55483</v>
+      </c>
+      <c r="Y13">
+        <v>56870</v>
+      </c>
+      <c r="Z13">
+        <v>58292</v>
+      </c>
+      <c r="AA13">
+        <v>59749</v>
+      </c>
+      <c r="AB13">
+        <v>61243</v>
+      </c>
+      <c r="AC13">
+        <v>71231</v>
+      </c>
+      <c r="AD13">
+        <v>73012</v>
+      </c>
+      <c r="AE13">
+        <v>86144</v>
+      </c>
+      <c r="AF13">
+        <v>88298</v>
+      </c>
+      <c r="AG13">
+        <v>90505</v>
+      </c>
+      <c r="AH13">
+        <v>92768</v>
+      </c>
+      <c r="AI13">
+        <v>95087</v>
+      </c>
+      <c r="AJ13">
+        <v>97464</v>
+      </c>
+      <c r="AK13">
+        <v>99901</v>
+      </c>
+      <c r="AL13">
+        <v>102398</v>
+      </c>
+      <c r="AM13">
+        <v>114358</v>
+      </c>
+      <c r="AN13">
+        <v>117217</v>
+      </c>
+      <c r="AO13">
+        <v>120148</v>
+      </c>
+      <c r="AP13">
+        <v>123151</v>
+      </c>
+      <c r="AQ13">
+        <v>126230</v>
+      </c>
+      <c r="AR13">
+        <v>129386</v>
+      </c>
+      <c r="AS13">
+        <v>132621</v>
+      </c>
+      <c r="AT13">
+        <v>135936</v>
+      </c>
+      <c r="AU13">
+        <v>139335</v>
+      </c>
+      <c r="AV13">
+        <v>142818</v>
+      </c>
+      <c r="AW13">
+        <v>146388</v>
+      </c>
+      <c r="AX13">
+        <v>150048</v>
+      </c>
+      <c r="AY13">
+        <v>153799</v>
+      </c>
+      <c r="AZ13">
+        <v>157644</v>
+      </c>
+      <c r="BA13">
+        <v>161585</v>
+      </c>
+      <c r="BB13">
+        <v>165625</v>
+      </c>
+      <c r="BC13">
+        <v>169766</v>
+      </c>
+      <c r="BD13">
+        <v>174010</v>
+      </c>
+      <c r="BE13">
+        <v>178360</v>
+      </c>
+      <c r="BF13">
+        <v>182819</v>
+      </c>
+      <c r="BG13">
+        <v>187390</v>
+      </c>
+      <c r="BH13">
+        <v>192074</v>
+      </c>
+      <c r="BI13">
+        <v>196876</v>
+      </c>
+      <c r="BJ13">
+        <v>201798</v>
+      </c>
+      <c r="BK13">
+        <v>206843</v>
+      </c>
+      <c r="BL13">
+        <v>212014</v>
+      </c>
+      <c r="BM13">
+        <v>217314</v>
+      </c>
+      <c r="BN13">
+        <v>222747</v>
+      </c>
+      <c r="BO13">
+        <v>228316</v>
+      </c>
+      <c r="BP13">
+        <v>234024</v>
+      </c>
+      <c r="BQ13">
+        <v>239874</v>
+      </c>
+      <c r="BR13">
+        <v>245871</v>
+      </c>
+      <c r="BS13">
+        <v>252018</v>
+      </c>
+      <c r="BT13">
+        <v>258319</v>
+      </c>
+      <c r="BU13">
+        <v>264777</v>
+      </c>
+      <c r="BV13">
+        <v>271396</v>
+      </c>
+      <c r="BW13">
+        <v>278181</v>
+      </c>
+      <c r="BX13">
+        <v>285135</v>
+      </c>
+      <c r="BY13">
+        <v>292264</v>
+      </c>
+      <c r="BZ13">
+        <v>299570</v>
+      </c>
+      <c r="CA13">
+        <v>307060</v>
+      </c>
+      <c r="CB13">
+        <v>314736</v>
+      </c>
+      <c r="CC13">
+        <v>322604</v>
+      </c>
+      <c r="CD13">
+        <v>330670</v>
+      </c>
+      <c r="CE13">
+        <v>338936</v>
+      </c>
+      <c r="CF13">
+        <v>347410</v>
+      </c>
+      <c r="CG13">
+        <v>356095</v>
+      </c>
+      <c r="CH13">
+        <v>364997</v>
+      </c>
+      <c r="CI13">
+        <v>374122</v>
+      </c>
+      <c r="CJ13">
+        <v>383475</v>
+      </c>
+      <c r="CK13">
+        <v>393062</v>
+      </c>
+      <c r="CL13">
+        <v>402889</v>
+      </c>
+      <c r="CM13">
+        <v>412961</v>
+      </c>
+      <c r="CN13">
+        <v>423285</v>
+      </c>
+      <c r="CO13">
+        <v>433867</v>
+      </c>
+      <c r="CP13">
+        <v>444714</v>
+      </c>
+      <c r="CQ13">
+        <v>455832</v>
+      </c>
+      <c r="CR13">
+        <v>467227</v>
+      </c>
+      <c r="CS13">
+        <v>478908</v>
+      </c>
+      <c r="CT13">
+        <v>490881</v>
+      </c>
+      <c r="CU13">
+        <v>503153</v>
+      </c>
+      <c r="CV13">
+        <v>515732</v>
+      </c>
+      <c r="CW13">
+        <v>528625</v>
+      </c>
+      <c r="CX13">
+        <v>541841</v>
+      </c>
+      <c r="CY13">
+        <v>555387</v>
+      </c>
+      <c r="CZ13">
+        <v>569271</v>
+      </c>
+      <c r="DA13">
+        <v>583503</v>
+      </c>
+      <c r="DB13">
+        <v>598091</v>
+      </c>
+      <c r="DC13">
+        <v>613043</v>
+      </c>
+      <c r="DD13">
+        <v>628369</v>
+      </c>
+      <c r="DE13">
+        <v>644078</v>
+      </c>
+      <c r="DF13">
+        <v>660180</v>
+      </c>
+      <c r="DG13">
+        <v>676685</v>
+      </c>
+      <c r="DH13">
+        <v>693602</v>
+      </c>
+      <c r="DI13">
+        <v>710942</v>
+      </c>
+    </row>
+    <row r="14" spans="1:113" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>50144</v>
+      </c>
+      <c r="M14" s="1">
+        <v>51398</v>
+      </c>
+      <c r="N14" s="1">
+        <v>52683</v>
+      </c>
+      <c r="O14" s="1">
+        <v>54000</v>
+      </c>
+      <c r="P14" s="1">
+        <v>55350</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>56734</v>
+      </c>
+      <c r="R14" s="1">
+        <v>58152</v>
+      </c>
+      <c r="S14" s="1">
+        <v>59606</v>
+      </c>
+      <c r="T14" s="1">
+        <v>61096</v>
+      </c>
+      <c r="U14" s="1">
+        <v>62624</v>
+      </c>
+      <c r="V14" s="1">
+        <v>64189</v>
+      </c>
+      <c r="W14" s="1">
+        <v>65794</v>
+      </c>
+      <c r="X14" s="1">
+        <v>67439</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>69125</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>70853</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>72624</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>74440</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>76301</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>78208</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>80163</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>82167</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>84222</v>
+      </c>
+      <c r="AH14" s="1">
+        <v>86327</v>
+      </c>
+      <c r="AI14" s="1">
+        <v>88485</v>
+      </c>
+      <c r="AJ14" s="1">
+        <v>90698</v>
+      </c>
+      <c r="AK14" s="1">
+        <v>92965</v>
+      </c>
+      <c r="AL14" s="1">
+        <v>95289</v>
+      </c>
+      <c r="AM14" s="1">
+        <v>97671</v>
+      </c>
+      <c r="AN14" s="1">
+        <v>100113</v>
+      </c>
+      <c r="AO14" s="1">
+        <v>102616</v>
+      </c>
+      <c r="AP14" s="1">
+        <v>105181</v>
+      </c>
+      <c r="AQ14" s="1">
+        <v>107811</v>
+      </c>
+      <c r="AR14" s="1">
+        <v>110506</v>
+      </c>
+      <c r="AS14" s="1">
+        <v>113269</v>
+      </c>
+      <c r="AT14" s="1">
+        <v>116101</v>
+      </c>
+      <c r="AU14" s="1">
+        <v>119003</v>
+      </c>
+      <c r="AV14" s="1">
+        <v>121978</v>
+      </c>
+      <c r="AW14" s="1">
+        <v>125028</v>
+      </c>
+      <c r="AX14" s="1">
+        <v>128153</v>
+      </c>
+      <c r="AY14" s="1">
+        <v>131357</v>
+      </c>
+      <c r="AZ14" s="1">
+        <v>134641</v>
+      </c>
+      <c r="BA14" s="1">
+        <v>138007</v>
+      </c>
+      <c r="BB14" s="1">
+        <v>141457</v>
+      </c>
+      <c r="BC14" s="1">
+        <v>144994</v>
+      </c>
+      <c r="BD14" s="1">
+        <v>148618</v>
+      </c>
+      <c r="BE14" s="1">
+        <v>152334</v>
+      </c>
+      <c r="BF14" s="1">
+        <v>156142</v>
+      </c>
+      <c r="BG14" s="1">
+        <v>160046</v>
+      </c>
+      <c r="BH14" s="1">
+        <v>164047</v>
+      </c>
+      <c r="BI14" s="1">
+        <v>168148</v>
+      </c>
+      <c r="BJ14" s="1">
+        <v>172352</v>
+      </c>
+      <c r="BK14" s="1">
+        <v>176661</v>
+      </c>
+      <c r="BL14" s="1">
+        <v>181077</v>
+      </c>
+      <c r="BM14" s="1">
+        <v>185604</v>
+      </c>
+      <c r="BN14" s="1">
+        <v>190244</v>
+      </c>
+      <c r="BO14" s="1">
+        <v>195000</v>
+      </c>
+      <c r="BP14" s="1">
+        <v>199875</v>
+      </c>
+      <c r="BQ14" s="1">
+        <v>204872</v>
+      </c>
+      <c r="BR14" s="1">
+        <v>209994</v>
+      </c>
+      <c r="BS14" s="1">
+        <v>215244</v>
+      </c>
+      <c r="BT14" s="1">
+        <v>220625</v>
+      </c>
+      <c r="BU14" s="1">
+        <v>226141</v>
+      </c>
+      <c r="BV14" s="1">
+        <v>231794</v>
+      </c>
+      <c r="BW14" s="1">
+        <v>237589</v>
+      </c>
+      <c r="BX14" s="1">
+        <v>243529</v>
+      </c>
+      <c r="BY14" s="1">
+        <v>249617</v>
+      </c>
+      <c r="BZ14" s="1">
+        <v>255857</v>
+      </c>
+      <c r="CA14" s="1">
+        <v>262254</v>
+      </c>
+      <c r="CB14" s="1">
+        <v>268810</v>
+      </c>
+      <c r="CC14" s="1">
+        <v>275530</v>
+      </c>
+      <c r="CD14" s="1">
+        <v>282419</v>
+      </c>
+      <c r="CE14" s="1">
+        <v>289479</v>
+      </c>
+      <c r="CF14" s="1">
+        <v>296716</v>
+      </c>
+      <c r="CG14" s="1">
+        <v>304134</v>
+      </c>
+      <c r="CH14" s="1">
+        <v>311737</v>
+      </c>
+      <c r="CI14" s="1">
+        <v>319531</v>
+      </c>
+      <c r="CJ14" s="1">
+        <v>327519</v>
+      </c>
+      <c r="CK14" s="1">
+        <v>335707</v>
+      </c>
+      <c r="CL14" s="1">
+        <v>344100</v>
+      </c>
+      <c r="CM14" s="1">
+        <v>352702</v>
+      </c>
+      <c r="CN14" s="1">
+        <v>361520</v>
+      </c>
+      <c r="CO14" s="1">
+        <v>370558</v>
+      </c>
+      <c r="CP14" s="1">
+        <v>379822</v>
+      </c>
+      <c r="CQ14" s="1">
+        <v>389317</v>
+      </c>
+      <c r="CR14" s="1">
+        <v>399050</v>
+      </c>
+      <c r="CS14" s="1">
+        <v>409026</v>
+      </c>
+      <c r="CT14" s="1">
+        <v>419252</v>
+      </c>
+      <c r="CU14" s="1">
+        <v>429733</v>
+      </c>
+      <c r="CV14" s="1">
+        <v>440477</v>
+      </c>
+      <c r="CW14" s="1">
+        <v>451489</v>
+      </c>
+      <c r="CX14" s="1">
+        <v>462776</v>
+      </c>
+      <c r="CY14" s="1">
+        <v>474345</v>
+      </c>
+      <c r="CZ14" s="1">
+        <v>486204</v>
+      </c>
+      <c r="DA14" s="1">
+        <v>498359</v>
+      </c>
+      <c r="DB14" s="1">
+        <v>510818</v>
+      </c>
+      <c r="DC14" s="1">
+        <v>523588</v>
+      </c>
+      <c r="DD14" s="1">
+        <v>536678</v>
+      </c>
+      <c r="DE14" s="1">
+        <v>550095</v>
+      </c>
+      <c r="DF14" s="1">
+        <v>563847</v>
+      </c>
+      <c r="DG14" s="1">
+        <v>577943</v>
+      </c>
+      <c r="DH14" s="1">
+        <v>592392</v>
+      </c>
+      <c r="DI14" s="1">
+        <v>607202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:113" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13" s="1">
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>62560</v>
+      </c>
+      <c r="L15" s="1">
+        <v>67058</v>
+      </c>
+      <c r="M15" s="1">
+        <v>71932</v>
+      </c>
+      <c r="N15" s="1">
+        <v>77212</v>
+      </c>
+      <c r="O15" s="1">
+        <v>80351</v>
+      </c>
+      <c r="P15" s="1">
+        <v>83623</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>87034</v>
+      </c>
+      <c r="R15" s="1">
+        <v>90591</v>
+      </c>
+      <c r="S15" s="1">
+        <v>94300</v>
+      </c>
+      <c r="T15" s="1">
+        <v>98166</v>
+      </c>
+      <c r="U15" s="1">
+        <v>102199</v>
+      </c>
+      <c r="V15" s="1">
+        <v>106404</v>
+      </c>
+      <c r="W15" s="1">
+        <v>110789</v>
+      </c>
+      <c r="X15" s="1">
+        <v>115362</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>120131</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>125106</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>130294</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>135706</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>141352</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>147241</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>153384</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>159794</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>166480</v>
+      </c>
+      <c r="AH15" s="1">
+        <v>173456</v>
+      </c>
+      <c r="AI15" s="1">
+        <v>180735</v>
+      </c>
+      <c r="AJ15" s="1">
+        <v>188329</v>
+      </c>
+      <c r="AK15" s="1">
+        <v>196253</v>
+      </c>
+      <c r="AL15" s="1">
+        <v>204522</v>
+      </c>
+      <c r="AM15" s="1">
+        <v>213150</v>
+      </c>
+      <c r="AN15" s="1">
+        <v>222154</v>
+      </c>
+      <c r="AO15" s="1">
+        <v>231550</v>
+      </c>
+      <c r="AP15" s="1">
+        <v>237339</v>
+      </c>
+      <c r="AQ15" s="1">
+        <v>243272</v>
+      </c>
+      <c r="AR15" s="1">
+        <v>249354</v>
+      </c>
+      <c r="AS15" s="1">
+        <v>255588</v>
+      </c>
+      <c r="AT15" s="1">
+        <v>261978</v>
+      </c>
+      <c r="AU15" s="1">
+        <v>268527</v>
+      </c>
+      <c r="AV15" s="1">
+        <v>275240</v>
+      </c>
+      <c r="AW15" s="1">
+        <v>282122</v>
+      </c>
+      <c r="AX15" s="1">
+        <v>289175</v>
+      </c>
+      <c r="AY15" s="1">
+        <v>296404</v>
+      </c>
+      <c r="AZ15" s="1">
+        <v>303814</v>
+      </c>
+      <c r="BA15" s="1">
+        <v>311409</v>
+      </c>
+      <c r="BB15" s="1">
+        <v>319195</v>
+      </c>
+      <c r="BC15" s="1">
+        <v>327174</v>
+      </c>
+      <c r="BD15" s="1">
+        <v>335354</v>
+      </c>
+      <c r="BE15" s="1">
+        <v>343738</v>
+      </c>
+      <c r="BF15" s="1">
+        <v>352331</v>
+      </c>
+      <c r="BG15" s="1">
+        <v>361139</v>
+      </c>
+      <c r="BH15" s="1">
+        <v>370168</v>
+      </c>
+      <c r="BI15" s="1">
+        <v>379422</v>
+      </c>
+      <c r="BJ15" s="1">
+        <v>388908</v>
+      </c>
+      <c r="BK15" s="1">
+        <v>398630</v>
+      </c>
+      <c r="BL15" s="1">
+        <v>408596</v>
+      </c>
+      <c r="BM15" s="1">
+        <v>418811</v>
+      </c>
+      <c r="BN15" s="1">
+        <v>429281</v>
+      </c>
+      <c r="BO15" s="1">
+        <v>440013</v>
+      </c>
+      <c r="BP15" s="1">
+        <v>451014</v>
+      </c>
+      <c r="BQ15" s="1">
+        <v>462289</v>
+      </c>
+      <c r="BR15" s="1">
+        <v>473846</v>
+      </c>
+      <c r="BS15" s="1">
+        <v>485692</v>
+      </c>
+      <c r="BT15" s="1">
+        <v>497835</v>
+      </c>
+      <c r="BU15" s="1">
+        <v>510280</v>
+      </c>
+      <c r="BV15" s="1">
+        <v>523037</v>
+      </c>
+      <c r="BW15" s="1">
+        <v>536113</v>
+      </c>
+      <c r="BX15" s="1">
+        <v>549516</v>
+      </c>
+      <c r="BY15" s="1">
+        <v>563254</v>
+      </c>
+      <c r="BZ15" s="1">
+        <v>577336</v>
+      </c>
+      <c r="CA15" s="1">
+        <v>591769</v>
+      </c>
+      <c r="CB15" s="1">
+        <v>606563</v>
+      </c>
+      <c r="CC15" s="1">
+        <v>621727</v>
+      </c>
+      <c r="CD15" s="1">
+        <v>637270</v>
+      </c>
+      <c r="CE15" s="1">
+        <v>653202</v>
+      </c>
+      <c r="CF15" s="1">
+        <v>669532</v>
+      </c>
+      <c r="CG15" s="1">
+        <v>686271</v>
+      </c>
+      <c r="CH15" s="1">
+        <v>703427</v>
+      </c>
+      <c r="CI15" s="1">
+        <v>721013</v>
+      </c>
+      <c r="CJ15" s="1">
+        <v>739038</v>
+      </c>
+      <c r="CK15" s="1">
+        <v>757514</v>
+      </c>
+      <c r="CL15" s="1">
+        <v>776452</v>
+      </c>
+      <c r="CM15" s="1">
+        <v>795863</v>
+      </c>
+      <c r="CN15" s="1">
+        <v>815760</v>
+      </c>
+      <c r="CO15" s="1">
+        <v>836154</v>
+      </c>
+      <c r="CP15" s="1">
+        <v>857058</v>
+      </c>
+      <c r="CQ15" s="1">
+        <v>878484</v>
+      </c>
+      <c r="CR15" s="1">
+        <v>900446</v>
+      </c>
+      <c r="CS15" s="1">
+        <v>922958</v>
+      </c>
+      <c r="CT15" s="1">
+        <v>946031</v>
+      </c>
+      <c r="CU15" s="1">
+        <v>969682</v>
+      </c>
+      <c r="CV15" s="1">
+        <v>993924</v>
+      </c>
+      <c r="CW15" s="1">
+        <v>1018772</v>
+      </c>
+      <c r="CX15" s="1">
+        <v>1044242</v>
+      </c>
+      <c r="CY15" s="1">
+        <v>1070348</v>
+      </c>
+      <c r="CZ15" s="1">
+        <v>1097106</v>
+      </c>
+      <c r="DA15" s="1">
+        <v>1124534</v>
+      </c>
+      <c r="DB15" s="1">
+        <v>1152648</v>
+      </c>
+      <c r="DC15" s="1">
+        <v>1181464</v>
+      </c>
+      <c r="DD15" s="1">
+        <v>1211000</v>
+      </c>
+      <c r="DE15" s="1">
+        <v>1241275</v>
+      </c>
+      <c r="DF15" s="1">
+        <v>1272307</v>
+      </c>
+      <c r="DG15" s="1">
+        <v>1304115</v>
+      </c>
+      <c r="DH15" s="1">
+        <v>1336718</v>
+      </c>
+      <c r="DI15" s="1">
+        <v>1370136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:113" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
         <v>98640</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M16" s="1">
         <v>101106</v>
       </c>
-      <c r="N13" s="1">
+      <c r="N16" s="1">
         <v>103633</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O16" s="1">
         <v>106224</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P16" s="1">
         <v>108880</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="Q16" s="1">
         <v>111602</v>
       </c>
-      <c r="R13" s="1">
+      <c r="R16" s="1">
         <v>114392</v>
       </c>
-      <c r="S13" s="1">
+      <c r="S16" s="1">
         <v>117251</v>
       </c>
-      <c r="T13" s="1">
+      <c r="T16" s="1">
         <v>120183</v>
       </c>
-      <c r="U13" s="1">
+      <c r="U16" s="1">
         <v>123187</v>
       </c>
-      <c r="V13" s="1">
+      <c r="V16" s="1">
         <v>126267</v>
       </c>
-      <c r="W13" s="1">
+      <c r="W16" s="1">
         <v>129424</v>
       </c>
-      <c r="X13" s="1">
+      <c r="X16" s="1">
         <v>132659</v>
       </c>
-      <c r="Y13" s="1">
+      <c r="Y16" s="1">
         <v>135976</v>
       </c>
-      <c r="Z13" s="1">
+      <c r="Z16" s="1">
         <v>139375</v>
       </c>
-      <c r="AA13" s="1">
+      <c r="AA16" s="1">
         <v>142859</v>
       </c>
-      <c r="AB13" s="1">
+      <c r="AB16" s="1">
         <v>146431</v>
       </c>
-      <c r="AC13" s="1">
+      <c r="AC16" s="1">
         <v>150092</v>
       </c>
-      <c r="AD13" s="1">
+      <c r="AD16" s="1">
         <v>153844</v>
       </c>
-      <c r="AE13" s="1">
+      <c r="AE16" s="1">
         <v>157690</v>
       </c>
-      <c r="AF13" s="1">
+      <c r="AF16" s="1">
         <v>161632</v>
       </c>
-      <c r="AG13" s="1">
+      <c r="AG16" s="1">
         <v>165673</v>
       </c>
-      <c r="AH13" s="1">
+      <c r="AH16" s="1">
         <v>169815</v>
       </c>
-      <c r="AI13" s="1">
+      <c r="AI16" s="1">
         <v>174060</v>
       </c>
-      <c r="AJ13" s="1">
+      <c r="AJ16" s="1">
         <v>178412</v>
       </c>
-      <c r="AK13" s="1">
+      <c r="AK16" s="1">
         <v>182872</v>
       </c>
-      <c r="AL13" s="1">
+      <c r="AL16" s="1">
         <v>187444</v>
       </c>
-      <c r="AM13" s="1">
+      <c r="AM16" s="1">
         <v>192130</v>
       </c>
-      <c r="AN13" s="1">
+      <c r="AN16" s="1">
         <v>196933</v>
       </c>
-      <c r="AO13" s="1">
+      <c r="AO16" s="1">
         <v>201857</v>
       </c>
-      <c r="AP13" s="1">
+      <c r="AP16" s="1">
         <v>206903</v>
       </c>
-      <c r="AQ13" s="1">
+      <c r="AQ16" s="1">
         <v>212076</v>
       </c>
-      <c r="AR13" s="1">
+      <c r="AR16" s="1">
         <v>217378</v>
       </c>
-      <c r="AS13" s="1">
+      <c r="AS16" s="1">
         <v>222812</v>
       </c>
-      <c r="AT13" s="1">
+      <c r="AT16" s="1">
         <v>228382</v>
       </c>
-      <c r="AU13" s="1">
+      <c r="AU16" s="1">
         <v>234092</v>
       </c>
-      <c r="AV13" s="1">
+      <c r="AV16" s="1">
         <v>239944</v>
       </c>
-      <c r="AW13" s="1">
+      <c r="AW16" s="1">
         <v>245943</v>
       </c>
-      <c r="AX13" s="1">
+      <c r="AX16" s="1">
         <v>252091</v>
       </c>
-      <c r="AY13" s="1">
+      <c r="AY16" s="1">
         <v>258394</v>
       </c>
-      <c r="AZ13" s="1">
+      <c r="AZ16" s="1">
         <v>264853</v>
       </c>
-      <c r="BA13" s="1">
+      <c r="BA16" s="1">
         <v>271475</v>
       </c>
-      <c r="BB13" s="1">
+      <c r="BB16" s="1">
         <v>278262</v>
       </c>
-      <c r="BC13" s="1">
+      <c r="BC16" s="1">
         <v>285218</v>
       </c>
-      <c r="BD13" s="1">
+      <c r="BD16" s="1">
         <v>292349</v>
       </c>
-      <c r="BE13" s="1">
+      <c r="BE16" s="1">
         <v>299657</v>
       </c>
-      <c r="BF13" s="1">
+      <c r="BF16" s="1">
         <v>307149</v>
       </c>
-      <c r="BG13" s="1">
+      <c r="BG16" s="1">
         <v>314828</v>
       </c>
-      <c r="BH13" s="1">
+      <c r="BH16" s="1">
         <v>322698</v>
       </c>
-      <c r="BI13" s="1">
+      <c r="BI16" s="1">
         <v>330766</v>
       </c>
-      <c r="BJ13" s="1">
+      <c r="BJ16" s="1">
         <v>339035</v>
       </c>
-      <c r="BK13" s="1">
+      <c r="BK16" s="1">
         <v>347511</v>
       </c>
-      <c r="BL13" s="1">
+      <c r="BL16" s="1">
         <v>356199</v>
       </c>
-      <c r="BM13" s="1">
+      <c r="BM16" s="1">
         <v>365103</v>
       </c>
-      <c r="BN13" s="1">
+      <c r="BN16" s="1">
         <v>374231</v>
       </c>
-      <c r="BO13" s="1">
+      <c r="BO16" s="1">
         <v>383587</v>
       </c>
-      <c r="BP13" s="1">
+      <c r="BP16" s="1">
         <v>393177</v>
       </c>
-      <c r="BQ13" s="1">
+      <c r="BQ16" s="1">
         <v>403006</v>
       </c>
-      <c r="BR13" s="1">
+      <c r="BR16" s="1">
         <v>413081</v>
       </c>
-      <c r="BS13" s="1">
+      <c r="BS16" s="1">
         <v>423408</v>
       </c>
-      <c r="BT13" s="1">
+      <c r="BT16" s="1">
         <v>433993</v>
       </c>
-      <c r="BU13" s="1">
+      <c r="BU16" s="1">
         <v>444843</v>
       </c>
-      <c r="BV13" s="1">
+      <c r="BV16" s="1">
         <v>455964</v>
       </c>
-      <c r="BW13" s="1">
+      <c r="BW16" s="1">
         <v>467363</v>
       </c>
-      <c r="BX13" s="1">
+      <c r="BX16" s="1">
         <v>479047</v>
       </c>
-      <c r="BY13" s="1">
+      <c r="BY16" s="1">
         <v>491024</v>
       </c>
-      <c r="BZ13" s="1">
+      <c r="BZ16" s="1">
         <v>503299</v>
       </c>
-      <c r="CA13" s="1">
+      <c r="CA16" s="1">
         <v>515882</v>
       </c>
-      <c r="CB13" s="1">
+      <c r="CB16" s="1">
         <v>528779</v>
       </c>
-      <c r="CC13" s="1">
+      <c r="CC16" s="1">
         <v>541998</v>
       </c>
-      <c r="CD13" s="1">
+      <c r="CD16" s="1">
         <v>555548</v>
       </c>
-      <c r="CE13" s="1">
+      <c r="CE16" s="1">
         <v>569437</v>
       </c>
-      <c r="CF13" s="1">
+      <c r="CF16" s="1">
         <v>583673</v>
       </c>
-      <c r="CG13" s="1">
+      <c r="CG16" s="1">
         <v>598265</v>
       </c>
-      <c r="CH13" s="1">
+      <c r="CH16" s="1">
         <v>613221</v>
       </c>
-      <c r="CI13" s="1">
+      <c r="CI16" s="1">
         <v>628552</v>
       </c>
-      <c r="CJ13" s="1">
+      <c r="CJ16" s="1">
         <v>644265</v>
       </c>
-      <c r="CK13" s="1">
+      <c r="CK16" s="1">
         <v>660372</v>
       </c>
-      <c r="CL13" s="1">
+      <c r="CL16" s="1">
         <v>676881</v>
       </c>
-      <c r="CM13" s="1">
+      <c r="CM16" s="1">
         <v>693803</v>
       </c>
-      <c r="CN13" s="1">
+      <c r="CN16" s="1">
         <v>711149</v>
       </c>
-      <c r="CO13" s="1">
+      <c r="CO16" s="1">
         <v>728927</v>
       </c>
-      <c r="CP13" s="1">
+      <c r="CP16" s="1">
         <v>747150</v>
       </c>
-      <c r="CQ13" s="1">
+      <c r="CQ16" s="1">
         <v>765829</v>
       </c>
-      <c r="CR13" s="1">
+      <c r="CR16" s="1">
         <v>784975</v>
       </c>
-      <c r="CS13" s="1">
+      <c r="CS16" s="1">
         <v>804599</v>
       </c>
-      <c r="CT13" s="1">
+      <c r="CT16" s="1">
         <v>824714</v>
       </c>
-      <c r="CU13" s="1">
+      <c r="CU16" s="1">
         <v>845332</v>
       </c>
-      <c r="CV13" s="1">
+      <c r="CV16" s="1">
         <v>866465</v>
       </c>
-      <c r="CW13" s="1">
+      <c r="CW16" s="1">
         <v>888127</v>
       </c>
-      <c r="CX13" s="1">
+      <c r="CX16" s="1">
         <v>910330</v>
       </c>
-      <c r="CY13" s="1">
+      <c r="CY16" s="1">
         <v>933089</v>
       </c>
-      <c r="CZ13" s="1">
+      <c r="CZ16" s="1">
         <v>956416</v>
       </c>
-      <c r="DA13" s="1">
+      <c r="DA16" s="1">
         <v>980326</v>
       </c>
-      <c r="DB13" s="1">
+      <c r="DB16" s="1">
         <v>1004834</v>
       </c>
-      <c r="DC13" s="1">
+      <c r="DC16" s="1">
         <v>1029955</v>
       </c>
-      <c r="DD13" s="1">
+      <c r="DD16" s="1">
         <v>1055704</v>
       </c>
-      <c r="DE13" s="1">
+      <c r="DE16" s="1">
         <v>1082097</v>
       </c>
-      <c r="DF13" s="1">
+      <c r="DF16" s="1">
         <v>1109149</v>
       </c>
-      <c r="DG13" s="1">
+      <c r="DG16" s="1">
         <v>1136878</v>
       </c>
-      <c r="DH13" s="1">
+      <c r="DH16" s="1">
         <v>1165300</v>
       </c>
-      <c r="DI13" s="1">
+      <c r="DI16" s="1">
         <v>1194432</v>
       </c>
     </row>
@@ -4904,7 +6251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DJ22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -4916,19 +6263,19 @@
   <sheetData>
     <row r="1" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
-        <v>31</v>
-      </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1">
         <v>2012</v>
@@ -5260,19 +6607,19 @@
     </row>
     <row r="2" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -5604,19 +6951,19 @@
     </row>
     <row r="3" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -5948,19 +7295,19 @@
     </row>
     <row r="4" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -6292,19 +7639,19 @@
     </row>
     <row r="5" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6636,19 +7983,19 @@
     </row>
     <row r="6" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6980,19 +8327,19 @@
     </row>
     <row r="7" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7324,19 +8671,19 @@
     </row>
     <row r="8" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7668,19 +9015,19 @@
     </row>
     <row r="9" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -8012,19 +9359,19 @@
     </row>
     <row r="10" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -8356,19 +9703,19 @@
     </row>
     <row r="11" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -8700,19 +10047,19 @@
     </row>
     <row r="12" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -9044,19 +10391,19 @@
     </row>
     <row r="13" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -9388,19 +10735,19 @@
     </row>
     <row r="14" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -9732,19 +11079,19 @@
     </row>
     <row r="15" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
         <v>18</v>
       </c>
-      <c r="D15" t="s">
-        <v>19</v>
-      </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -10076,19 +11423,19 @@
     </row>
     <row r="16" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -10420,19 +11767,19 @@
     </row>
     <row r="17" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -10764,19 +12111,19 @@
     </row>
     <row r="18" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -11108,19 +12455,19 @@
     </row>
     <row r="19" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -11452,19 +12799,19 @@
     </row>
     <row r="20" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -11796,19 +13143,19 @@
     </row>
     <row r="21" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -12140,19 +13487,19 @@
     </row>
     <row r="22" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -12499,37 +13846,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/app/Datos/Intermodal/Costos e Inversiones.xlsx
+++ b/app/Datos/Intermodal/Costos e Inversiones.xlsx
@@ -449,7 +449,7 @@
   <dimension ref="A1:DI16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A19" sqref="A19:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1514,313 +1514,313 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>15331</v>
+        <v>7665.5</v>
       </c>
       <c r="L4">
-        <v>15714</v>
+        <v>7857</v>
       </c>
       <c r="M4">
-        <v>16107</v>
+        <v>8053.5</v>
       </c>
       <c r="N4">
-        <v>16510</v>
+        <v>8255</v>
       </c>
       <c r="O4">
-        <v>16923</v>
+        <v>8461.5</v>
       </c>
       <c r="P4">
-        <v>17346</v>
+        <v>8673</v>
       </c>
       <c r="Q4">
-        <v>17779</v>
+        <v>8889.5</v>
       </c>
       <c r="R4">
-        <v>18224</v>
+        <v>9112</v>
       </c>
       <c r="S4">
-        <v>18679</v>
+        <v>9339.5</v>
       </c>
       <c r="T4">
-        <v>19146</v>
+        <v>9573</v>
       </c>
       <c r="U4">
-        <v>19625</v>
+        <v>9812.5</v>
       </c>
       <c r="V4">
-        <v>26819</v>
+        <v>13409.5</v>
       </c>
       <c r="W4">
-        <v>27489</v>
+        <v>13744.5</v>
       </c>
       <c r="X4">
-        <v>28176</v>
+        <v>14088</v>
       </c>
       <c r="Y4">
-        <v>28881</v>
+        <v>14440.5</v>
       </c>
       <c r="Z4">
-        <v>29603</v>
+        <v>14801.5</v>
       </c>
       <c r="AA4">
-        <v>30343</v>
+        <v>15171.5</v>
       </c>
       <c r="AB4">
-        <v>31101</v>
+        <v>15550.5</v>
       </c>
       <c r="AC4">
-        <v>31879</v>
+        <v>15939.5</v>
       </c>
       <c r="AD4">
-        <v>32676</v>
+        <v>16338</v>
       </c>
       <c r="AE4">
-        <v>33493</v>
+        <v>16746.5</v>
       </c>
       <c r="AF4">
-        <v>34330</v>
+        <v>17165</v>
       </c>
       <c r="AG4">
-        <v>35188</v>
+        <v>17594</v>
       </c>
       <c r="AH4">
-        <v>36068</v>
+        <v>18034</v>
       </c>
       <c r="AI4">
-        <v>36970</v>
+        <v>18485</v>
       </c>
       <c r="AJ4">
-        <v>43820</v>
+        <v>21910</v>
       </c>
       <c r="AK4">
-        <v>44916</v>
+        <v>22458</v>
       </c>
       <c r="AL4">
-        <v>46039</v>
+        <v>23019.5</v>
       </c>
       <c r="AM4">
-        <v>47190</v>
+        <v>23595</v>
       </c>
       <c r="AN4">
-        <v>48369</v>
+        <v>24184.5</v>
       </c>
       <c r="AO4">
-        <v>49579</v>
+        <v>24789.5</v>
       </c>
       <c r="AP4">
-        <v>50818</v>
+        <v>25409</v>
       </c>
       <c r="AQ4">
-        <v>52089</v>
+        <v>26044.5</v>
       </c>
       <c r="AR4">
-        <v>53391</v>
+        <v>26695.5</v>
       </c>
       <c r="AS4">
-        <v>54726</v>
+        <v>27363</v>
       </c>
       <c r="AT4">
-        <v>56094</v>
+        <v>28047</v>
       </c>
       <c r="AU4">
-        <v>57496</v>
+        <v>28748</v>
       </c>
       <c r="AV4">
-        <v>58933</v>
+        <v>29466.5</v>
       </c>
       <c r="AW4">
-        <v>60407</v>
+        <v>30203.5</v>
       </c>
       <c r="AX4">
-        <v>61917</v>
+        <v>30958.5</v>
       </c>
       <c r="AY4">
-        <v>63465</v>
+        <v>31732.5</v>
       </c>
       <c r="AZ4">
-        <v>65051</v>
+        <v>32525.5</v>
       </c>
       <c r="BA4">
-        <v>66678</v>
+        <v>33339</v>
       </c>
       <c r="BB4">
-        <v>68345</v>
+        <v>34172.5</v>
       </c>
       <c r="BC4">
-        <v>70053</v>
+        <v>35026.5</v>
       </c>
       <c r="BD4">
-        <v>71805</v>
+        <v>35902.5</v>
       </c>
       <c r="BE4">
-        <v>73600</v>
+        <v>36800</v>
       </c>
       <c r="BF4">
-        <v>75440</v>
+        <v>37720</v>
       </c>
       <c r="BG4">
-        <v>77326</v>
+        <v>38663</v>
       </c>
       <c r="BH4">
-        <v>79259</v>
+        <v>39629.5</v>
       </c>
       <c r="BI4">
-        <v>81240</v>
+        <v>40620</v>
       </c>
       <c r="BJ4">
-        <v>83271</v>
+        <v>41635.5</v>
       </c>
       <c r="BK4">
-        <v>85353</v>
+        <v>42676.5</v>
       </c>
       <c r="BL4">
-        <v>87487</v>
+        <v>43743.5</v>
       </c>
       <c r="BM4">
-        <v>89674</v>
+        <v>44837</v>
       </c>
       <c r="BN4">
-        <v>91916</v>
+        <v>45958</v>
       </c>
       <c r="BO4">
-        <v>94214</v>
+        <v>47107</v>
       </c>
       <c r="BP4">
-        <v>96569</v>
+        <v>48284.5</v>
       </c>
       <c r="BQ4">
-        <v>98984</v>
+        <v>49492</v>
       </c>
       <c r="BR4">
-        <v>101458</v>
+        <v>50729</v>
       </c>
       <c r="BS4">
-        <v>103995</v>
+        <v>51997.5</v>
       </c>
       <c r="BT4">
-        <v>106594</v>
+        <v>53297</v>
       </c>
       <c r="BU4">
-        <v>109259</v>
+        <v>54629.5</v>
       </c>
       <c r="BV4">
-        <v>111991</v>
+        <v>55995.5</v>
       </c>
       <c r="BW4">
-        <v>114791</v>
+        <v>57395.5</v>
       </c>
       <c r="BX4">
-        <v>117660</v>
+        <v>58830</v>
       </c>
       <c r="BY4">
-        <v>120602</v>
+        <v>60301</v>
       </c>
       <c r="BZ4">
-        <v>123617</v>
+        <v>61808.5</v>
       </c>
       <c r="CA4">
-        <v>126707</v>
+        <v>63353.5</v>
       </c>
       <c r="CB4">
-        <v>129875</v>
+        <v>64937.5</v>
       </c>
       <c r="CC4">
-        <v>133122</v>
+        <v>66561</v>
       </c>
       <c r="CD4">
-        <v>136450</v>
+        <v>68225</v>
       </c>
       <c r="CE4">
-        <v>139861</v>
+        <v>69930.5</v>
       </c>
       <c r="CF4">
-        <v>143358</v>
+        <v>71679</v>
       </c>
       <c r="CG4">
-        <v>146942</v>
+        <v>73471</v>
       </c>
       <c r="CH4">
-        <v>150615</v>
+        <v>75307.5</v>
       </c>
       <c r="CI4">
-        <v>154381</v>
+        <v>77190.5</v>
       </c>
       <c r="CJ4">
-        <v>158240</v>
+        <v>79120</v>
       </c>
       <c r="CK4">
-        <v>162196</v>
+        <v>81098</v>
       </c>
       <c r="CL4">
-        <v>166251</v>
+        <v>83125.5</v>
       </c>
       <c r="CM4">
-        <v>170407</v>
+        <v>85203.5</v>
       </c>
       <c r="CN4">
-        <v>174667</v>
+        <v>87333.5</v>
       </c>
       <c r="CO4">
-        <v>179034</v>
+        <v>89517</v>
       </c>
       <c r="CP4">
-        <v>183510</v>
+        <v>91755</v>
       </c>
       <c r="CQ4">
-        <v>188098</v>
+        <v>94049</v>
       </c>
       <c r="CR4">
-        <v>192800</v>
+        <v>96400</v>
       </c>
       <c r="CS4">
-        <v>197620</v>
+        <v>98810</v>
       </c>
       <c r="CT4">
-        <v>202561</v>
+        <v>101280.5</v>
       </c>
       <c r="CU4">
-        <v>207625</v>
+        <v>103812.5</v>
       </c>
       <c r="CV4">
-        <v>212815</v>
+        <v>106407.5</v>
       </c>
       <c r="CW4">
-        <v>218136</v>
+        <v>109068</v>
       </c>
       <c r="CX4">
-        <v>223589</v>
+        <v>111794.5</v>
       </c>
       <c r="CY4">
-        <v>229179</v>
+        <v>114589.5</v>
       </c>
       <c r="CZ4">
-        <v>234908</v>
+        <v>117454</v>
       </c>
       <c r="DA4">
-        <v>240781</v>
+        <v>120390.5</v>
       </c>
       <c r="DB4">
-        <v>246800</v>
+        <v>123400</v>
       </c>
       <c r="DC4">
-        <v>252970</v>
+        <v>126485</v>
       </c>
       <c r="DD4">
-        <v>259295</v>
+        <v>129647.5</v>
       </c>
       <c r="DE4">
-        <v>265777</v>
+        <v>132888.5</v>
       </c>
       <c r="DF4">
-        <v>272422</v>
+        <v>136211</v>
       </c>
       <c r="DG4">
-        <v>279232</v>
+        <v>139616</v>
       </c>
       <c r="DH4">
-        <v>286213</v>
+        <v>143106.5</v>
       </c>
       <c r="DI4">
-        <v>293368</v>
+        <v>146684</v>
       </c>
     </row>
     <row r="5" spans="1:113" x14ac:dyDescent="0.2">
@@ -1837,439 +1837,330 @@
         <v>10</v>
       </c>
       <c r="E5">
-        <f>E4*0.5</f>
         <v>0</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:BQ5" si="0">F4*0.5</f>
         <v>0</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I5">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J5">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K5">
-        <f t="shared" si="0"/>
         <v>7665.5</v>
       </c>
       <c r="L5">
-        <f t="shared" si="0"/>
         <v>7857</v>
       </c>
       <c r="M5">
-        <f t="shared" si="0"/>
         <v>8053.5</v>
       </c>
       <c r="N5">
-        <f t="shared" si="0"/>
         <v>8255</v>
       </c>
       <c r="O5">
-        <f t="shared" si="0"/>
         <v>8461.5</v>
       </c>
       <c r="P5">
-        <f t="shared" si="0"/>
         <v>8673</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="0"/>
         <v>8889.5</v>
       </c>
       <c r="R5">
-        <f t="shared" si="0"/>
         <v>9112</v>
       </c>
       <c r="S5">
-        <f t="shared" si="0"/>
         <v>9339.5</v>
       </c>
       <c r="T5">
-        <f t="shared" si="0"/>
         <v>9573</v>
       </c>
       <c r="U5">
-        <f t="shared" si="0"/>
         <v>9812.5</v>
       </c>
       <c r="V5">
-        <f t="shared" si="0"/>
         <v>13409.5</v>
       </c>
       <c r="W5">
-        <f t="shared" si="0"/>
         <v>13744.5</v>
       </c>
       <c r="X5">
-        <f t="shared" si="0"/>
         <v>14088</v>
       </c>
       <c r="Y5">
-        <f t="shared" si="0"/>
         <v>14440.5</v>
       </c>
       <c r="Z5">
-        <f t="shared" si="0"/>
         <v>14801.5</v>
       </c>
       <c r="AA5">
-        <f t="shared" si="0"/>
         <v>15171.5</v>
       </c>
       <c r="AB5">
-        <f t="shared" si="0"/>
         <v>15550.5</v>
       </c>
       <c r="AC5">
-        <f t="shared" si="0"/>
         <v>15939.5</v>
       </c>
       <c r="AD5">
-        <f t="shared" si="0"/>
         <v>16338</v>
       </c>
       <c r="AE5">
-        <f t="shared" si="0"/>
         <v>16746.5</v>
       </c>
       <c r="AF5">
-        <f t="shared" si="0"/>
         <v>17165</v>
       </c>
       <c r="AG5">
-        <f t="shared" si="0"/>
         <v>17594</v>
       </c>
       <c r="AH5">
-        <f t="shared" si="0"/>
         <v>18034</v>
       </c>
       <c r="AI5">
-        <f t="shared" si="0"/>
         <v>18485</v>
       </c>
       <c r="AJ5">
-        <f t="shared" si="0"/>
         <v>21910</v>
       </c>
       <c r="AK5">
-        <f t="shared" si="0"/>
         <v>22458</v>
       </c>
       <c r="AL5">
-        <f t="shared" si="0"/>
         <v>23019.5</v>
       </c>
       <c r="AM5">
-        <f t="shared" si="0"/>
         <v>23595</v>
       </c>
       <c r="AN5">
-        <f t="shared" si="0"/>
         <v>24184.5</v>
       </c>
       <c r="AO5">
-        <f t="shared" si="0"/>
         <v>24789.5</v>
       </c>
       <c r="AP5">
-        <f t="shared" si="0"/>
         <v>25409</v>
       </c>
       <c r="AQ5">
-        <f t="shared" si="0"/>
         <v>26044.5</v>
       </c>
       <c r="AR5">
-        <f t="shared" si="0"/>
         <v>26695.5</v>
       </c>
       <c r="AS5">
-        <f t="shared" si="0"/>
         <v>27363</v>
       </c>
       <c r="AT5">
-        <f t="shared" si="0"/>
         <v>28047</v>
       </c>
       <c r="AU5">
-        <f t="shared" si="0"/>
         <v>28748</v>
       </c>
       <c r="AV5">
-        <f t="shared" si="0"/>
         <v>29466.5</v>
       </c>
       <c r="AW5">
-        <f t="shared" si="0"/>
         <v>30203.5</v>
       </c>
       <c r="AX5">
-        <f t="shared" si="0"/>
         <v>30958.5</v>
       </c>
       <c r="AY5">
-        <f t="shared" si="0"/>
         <v>31732.5</v>
       </c>
       <c r="AZ5">
-        <f t="shared" si="0"/>
         <v>32525.5</v>
       </c>
       <c r="BA5">
-        <f t="shared" si="0"/>
         <v>33339</v>
       </c>
       <c r="BB5">
-        <f t="shared" si="0"/>
         <v>34172.5</v>
       </c>
       <c r="BC5">
-        <f t="shared" si="0"/>
         <v>35026.5</v>
       </c>
       <c r="BD5">
-        <f t="shared" si="0"/>
         <v>35902.5</v>
       </c>
       <c r="BE5">
-        <f t="shared" si="0"/>
         <v>36800</v>
       </c>
       <c r="BF5">
-        <f t="shared" si="0"/>
         <v>37720</v>
       </c>
       <c r="BG5">
-        <f t="shared" si="0"/>
         <v>38663</v>
       </c>
       <c r="BH5">
-        <f t="shared" si="0"/>
         <v>39629.5</v>
       </c>
       <c r="BI5">
-        <f t="shared" si="0"/>
         <v>40620</v>
       </c>
       <c r="BJ5">
-        <f t="shared" si="0"/>
         <v>41635.5</v>
       </c>
       <c r="BK5">
-        <f t="shared" si="0"/>
         <v>42676.5</v>
       </c>
       <c r="BL5">
-        <f t="shared" si="0"/>
         <v>43743.5</v>
       </c>
       <c r="BM5">
-        <f t="shared" si="0"/>
         <v>44837</v>
       </c>
       <c r="BN5">
-        <f t="shared" si="0"/>
         <v>45958</v>
       </c>
       <c r="BO5">
-        <f t="shared" si="0"/>
         <v>47107</v>
       </c>
       <c r="BP5">
-        <f t="shared" si="0"/>
         <v>48284.5</v>
       </c>
       <c r="BQ5">
-        <f t="shared" si="0"/>
         <v>49492</v>
       </c>
       <c r="BR5">
-        <f t="shared" ref="BR5:DI5" si="1">BR4*0.5</f>
         <v>50729</v>
       </c>
       <c r="BS5">
-        <f t="shared" si="1"/>
         <v>51997.5</v>
       </c>
       <c r="BT5">
-        <f t="shared" si="1"/>
         <v>53297</v>
       </c>
       <c r="BU5">
-        <f t="shared" si="1"/>
         <v>54629.5</v>
       </c>
       <c r="BV5">
-        <f t="shared" si="1"/>
         <v>55995.5</v>
       </c>
       <c r="BW5">
-        <f t="shared" si="1"/>
         <v>57395.5</v>
       </c>
       <c r="BX5">
-        <f t="shared" si="1"/>
         <v>58830</v>
       </c>
       <c r="BY5">
-        <f t="shared" si="1"/>
         <v>60301</v>
       </c>
       <c r="BZ5">
-        <f t="shared" si="1"/>
         <v>61808.5</v>
       </c>
       <c r="CA5">
-        <f t="shared" si="1"/>
         <v>63353.5</v>
       </c>
       <c r="CB5">
-        <f t="shared" si="1"/>
         <v>64937.5</v>
       </c>
       <c r="CC5">
-        <f t="shared" si="1"/>
         <v>66561</v>
       </c>
       <c r="CD5">
-        <f t="shared" si="1"/>
         <v>68225</v>
       </c>
       <c r="CE5">
-        <f t="shared" si="1"/>
         <v>69930.5</v>
       </c>
       <c r="CF5">
-        <f t="shared" si="1"/>
         <v>71679</v>
       </c>
       <c r="CG5">
-        <f t="shared" si="1"/>
         <v>73471</v>
       </c>
       <c r="CH5">
-        <f t="shared" si="1"/>
         <v>75307.5</v>
       </c>
       <c r="CI5">
-        <f t="shared" si="1"/>
         <v>77190.5</v>
       </c>
       <c r="CJ5">
-        <f t="shared" si="1"/>
         <v>79120</v>
       </c>
       <c r="CK5">
-        <f t="shared" si="1"/>
         <v>81098</v>
       </c>
       <c r="CL5">
-        <f t="shared" si="1"/>
         <v>83125.5</v>
       </c>
       <c r="CM5">
-        <f t="shared" si="1"/>
         <v>85203.5</v>
       </c>
       <c r="CN5">
-        <f t="shared" si="1"/>
         <v>87333.5</v>
       </c>
       <c r="CO5">
-        <f t="shared" si="1"/>
         <v>89517</v>
       </c>
       <c r="CP5">
-        <f t="shared" si="1"/>
         <v>91755</v>
       </c>
       <c r="CQ5">
-        <f t="shared" si="1"/>
         <v>94049</v>
       </c>
       <c r="CR5">
-        <f t="shared" si="1"/>
         <v>96400</v>
       </c>
       <c r="CS5">
-        <f t="shared" si="1"/>
         <v>98810</v>
       </c>
       <c r="CT5">
-        <f t="shared" si="1"/>
         <v>101280.5</v>
       </c>
       <c r="CU5">
-        <f t="shared" si="1"/>
         <v>103812.5</v>
       </c>
       <c r="CV5">
-        <f t="shared" si="1"/>
         <v>106407.5</v>
       </c>
       <c r="CW5">
-        <f t="shared" si="1"/>
         <v>109068</v>
       </c>
       <c r="CX5">
-        <f t="shared" si="1"/>
         <v>111794.5</v>
       </c>
       <c r="CY5">
-        <f t="shared" si="1"/>
         <v>114589.5</v>
       </c>
       <c r="CZ5">
-        <f t="shared" si="1"/>
         <v>117454</v>
       </c>
       <c r="DA5">
-        <f t="shared" si="1"/>
         <v>120390.5</v>
       </c>
       <c r="DB5">
-        <f t="shared" si="1"/>
         <v>123400</v>
       </c>
       <c r="DC5">
-        <f t="shared" si="1"/>
         <v>126485</v>
       </c>
       <c r="DD5">
-        <f t="shared" si="1"/>
         <v>129647.5</v>
       </c>
       <c r="DE5">
-        <f t="shared" si="1"/>
         <v>132888.5</v>
       </c>
       <c r="DF5">
-        <f t="shared" si="1"/>
         <v>136211</v>
       </c>
       <c r="DG5">
-        <f t="shared" si="1"/>
         <v>139616</v>
       </c>
       <c r="DH5">
-        <f t="shared" si="1"/>
         <v>143106.5</v>
       </c>
       <c r="DI5">
-        <f t="shared" si="1"/>
         <v>146684</v>
       </c>
     </row>
@@ -2305,313 +2196,313 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>25514</v>
+        <v>12757</v>
       </c>
       <c r="L6">
-        <v>26152</v>
+        <v>13076</v>
       </c>
       <c r="M6">
-        <v>26806</v>
+        <v>13403</v>
       </c>
       <c r="N6">
-        <v>27476</v>
+        <v>13738</v>
       </c>
       <c r="O6">
-        <v>28163</v>
+        <v>14081.5</v>
       </c>
       <c r="P6">
-        <v>28867</v>
+        <v>14433.5</v>
       </c>
       <c r="Q6">
-        <v>29589</v>
+        <v>14794.5</v>
       </c>
       <c r="R6">
-        <v>30328</v>
+        <v>15164</v>
       </c>
       <c r="S6">
-        <v>31087</v>
+        <v>15543.5</v>
       </c>
       <c r="T6">
-        <v>31864</v>
+        <v>15932</v>
       </c>
       <c r="U6">
-        <v>32660</v>
+        <v>16330</v>
       </c>
       <c r="V6">
-        <v>43144</v>
+        <v>21572</v>
       </c>
       <c r="W6">
-        <v>44223</v>
+        <v>22111.5</v>
       </c>
       <c r="X6">
-        <v>45328</v>
+        <v>22664</v>
       </c>
       <c r="Y6">
-        <v>46461</v>
+        <v>23230.5</v>
       </c>
       <c r="Z6">
-        <v>47623</v>
+        <v>23811.5</v>
       </c>
       <c r="AA6">
-        <v>48814</v>
+        <v>24407</v>
       </c>
       <c r="AB6">
-        <v>50034</v>
+        <v>25017</v>
       </c>
       <c r="AC6">
-        <v>51285</v>
+        <v>25642.5</v>
       </c>
       <c r="AD6">
-        <v>52567</v>
+        <v>26283.5</v>
       </c>
       <c r="AE6">
-        <v>53881</v>
+        <v>26940.5</v>
       </c>
       <c r="AF6">
-        <v>55228</v>
+        <v>27614</v>
       </c>
       <c r="AG6">
-        <v>56609</v>
+        <v>28304.5</v>
       </c>
       <c r="AH6">
-        <v>58024</v>
+        <v>29012</v>
       </c>
       <c r="AI6">
-        <v>59475</v>
+        <v>29737.5</v>
       </c>
       <c r="AJ6">
-        <v>75137</v>
+        <v>37568.5</v>
       </c>
       <c r="AK6">
-        <v>77015</v>
+        <v>38507.5</v>
       </c>
       <c r="AL6">
-        <v>78941</v>
+        <v>39470.5</v>
       </c>
       <c r="AM6">
-        <v>80914</v>
+        <v>40457</v>
       </c>
       <c r="AN6">
-        <v>82937</v>
+        <v>41468.5</v>
       </c>
       <c r="AO6">
-        <v>85010</v>
+        <v>42505</v>
       </c>
       <c r="AP6">
-        <v>87136</v>
+        <v>43568</v>
       </c>
       <c r="AQ6">
-        <v>89314</v>
+        <v>44657</v>
       </c>
       <c r="AR6">
-        <v>91547</v>
+        <v>45773.5</v>
       </c>
       <c r="AS6">
-        <v>93835</v>
+        <v>46917.5</v>
       </c>
       <c r="AT6">
-        <v>96181</v>
+        <v>48090.5</v>
       </c>
       <c r="AU6">
-        <v>98586</v>
+        <v>49293</v>
       </c>
       <c r="AV6">
-        <v>101051</v>
+        <v>50525.5</v>
       </c>
       <c r="AW6">
-        <v>103577</v>
+        <v>51788.5</v>
       </c>
       <c r="AX6">
-        <v>106166</v>
+        <v>53083</v>
       </c>
       <c r="AY6">
-        <v>108820</v>
+        <v>54410</v>
       </c>
       <c r="AZ6">
-        <v>111541</v>
+        <v>55770.5</v>
       </c>
       <c r="BA6">
-        <v>114329</v>
+        <v>57164.5</v>
       </c>
       <c r="BB6">
-        <v>117188</v>
+        <v>58594</v>
       </c>
       <c r="BC6">
-        <v>120117</v>
+        <v>60058.5</v>
       </c>
       <c r="BD6">
-        <v>123120</v>
+        <v>61560</v>
       </c>
       <c r="BE6">
-        <v>126198</v>
+        <v>63099</v>
       </c>
       <c r="BF6">
-        <v>129353</v>
+        <v>64676.5</v>
       </c>
       <c r="BG6">
-        <v>132587</v>
+        <v>66293.5</v>
       </c>
       <c r="BH6">
-        <v>135902</v>
+        <v>67951</v>
       </c>
       <c r="BI6">
-        <v>139299</v>
+        <v>69649.5</v>
       </c>
       <c r="BJ6">
-        <v>142782</v>
+        <v>71391</v>
       </c>
       <c r="BK6">
-        <v>146351</v>
+        <v>73175.5</v>
       </c>
       <c r="BL6">
-        <v>150010</v>
+        <v>75005</v>
       </c>
       <c r="BM6">
-        <v>153760</v>
+        <v>76880</v>
       </c>
       <c r="BN6">
-        <v>157604</v>
+        <v>78802</v>
       </c>
       <c r="BO6">
-        <v>161545</v>
+        <v>80772.5</v>
       </c>
       <c r="BP6">
-        <v>165583</v>
+        <v>82791.5</v>
       </c>
       <c r="BQ6">
-        <v>169723</v>
+        <v>84861.5</v>
       </c>
       <c r="BR6">
-        <v>173966</v>
+        <v>86983</v>
       </c>
       <c r="BS6">
-        <v>178315</v>
+        <v>89157.5</v>
       </c>
       <c r="BT6">
-        <v>182773</v>
+        <v>91386.5</v>
       </c>
       <c r="BU6">
-        <v>187342</v>
+        <v>93671</v>
       </c>
       <c r="BV6">
-        <v>192026</v>
+        <v>96013</v>
       </c>
       <c r="BW6">
-        <v>196826</v>
+        <v>98413</v>
       </c>
       <c r="BX6">
-        <v>201747</v>
+        <v>100873.5</v>
       </c>
       <c r="BY6">
-        <v>206791</v>
+        <v>103395.5</v>
       </c>
       <c r="BZ6">
-        <v>211960</v>
+        <v>105980</v>
       </c>
       <c r="CA6">
-        <v>217259</v>
+        <v>108629.5</v>
       </c>
       <c r="CB6">
-        <v>222691</v>
+        <v>111345.5</v>
       </c>
       <c r="CC6">
-        <v>228258</v>
+        <v>114129</v>
       </c>
       <c r="CD6">
-        <v>233965</v>
+        <v>116982.5</v>
       </c>
       <c r="CE6">
-        <v>239814</v>
+        <v>119907</v>
       </c>
       <c r="CF6">
-        <v>245809</v>
+        <v>122904.5</v>
       </c>
       <c r="CG6">
-        <v>251954</v>
+        <v>125977</v>
       </c>
       <c r="CH6">
-        <v>258253</v>
+        <v>129126.5</v>
       </c>
       <c r="CI6">
-        <v>264709</v>
+        <v>132354.5</v>
       </c>
       <c r="CJ6">
-        <v>271327</v>
+        <v>135663.5</v>
       </c>
       <c r="CK6">
-        <v>278110</v>
+        <v>139055</v>
       </c>
       <c r="CL6">
-        <v>285063</v>
+        <v>142531.5</v>
       </c>
       <c r="CM6">
-        <v>292190</v>
+        <v>146095</v>
       </c>
       <c r="CN6">
-        <v>299494</v>
+        <v>149747</v>
       </c>
       <c r="CO6">
-        <v>306982</v>
+        <v>153491</v>
       </c>
       <c r="CP6">
-        <v>314656</v>
+        <v>157328</v>
       </c>
       <c r="CQ6">
-        <v>322523</v>
+        <v>161261.5</v>
       </c>
       <c r="CR6">
-        <v>330586</v>
+        <v>165293</v>
       </c>
       <c r="CS6">
-        <v>338851</v>
+        <v>169425.5</v>
       </c>
       <c r="CT6">
-        <v>347322</v>
+        <v>173661</v>
       </c>
       <c r="CU6">
-        <v>356005</v>
+        <v>178002.5</v>
       </c>
       <c r="CV6">
-        <v>364905</v>
+        <v>182452.5</v>
       </c>
       <c r="CW6">
-        <v>374028</v>
+        <v>187014</v>
       </c>
       <c r="CX6">
-        <v>383378</v>
+        <v>191689</v>
       </c>
       <c r="CY6">
-        <v>392963</v>
+        <v>196481.5</v>
       </c>
       <c r="CZ6">
-        <v>402787</v>
+        <v>201393.5</v>
       </c>
       <c r="DA6">
-        <v>412856</v>
+        <v>206428</v>
       </c>
       <c r="DB6">
-        <v>423178</v>
+        <v>211589</v>
       </c>
       <c r="DC6">
-        <v>433757</v>
+        <v>216878.5</v>
       </c>
       <c r="DD6">
-        <v>444601</v>
+        <v>222300.5</v>
       </c>
       <c r="DE6">
-        <v>455716</v>
+        <v>227858</v>
       </c>
       <c r="DF6">
-        <v>467109</v>
+        <v>233554.5</v>
       </c>
       <c r="DG6">
-        <v>478787</v>
+        <v>239393.5</v>
       </c>
       <c r="DH6">
-        <v>490757</v>
+        <v>245378.5</v>
       </c>
       <c r="DI6">
-        <v>503025</v>
+        <v>251512.5</v>
       </c>
     </row>
     <row r="7" spans="1:113" x14ac:dyDescent="0.2">
@@ -2628,439 +2519,330 @@
         <v>11</v>
       </c>
       <c r="E7">
-        <f>E6*0.5</f>
         <v>0</v>
       </c>
       <c r="F7">
-        <f t="shared" ref="F7:BQ7" si="2">F6*0.5</f>
         <v>0</v>
       </c>
       <c r="G7">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H7">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I7">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J7">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K7">
-        <f t="shared" si="2"/>
         <v>12757</v>
       </c>
       <c r="L7">
-        <f t="shared" si="2"/>
         <v>13076</v>
       </c>
       <c r="M7">
-        <f t="shared" si="2"/>
         <v>13403</v>
       </c>
       <c r="N7">
-        <f t="shared" si="2"/>
         <v>13738</v>
       </c>
       <c r="O7">
-        <f t="shared" si="2"/>
         <v>14081.5</v>
       </c>
       <c r="P7">
-        <f t="shared" si="2"/>
         <v>14433.5</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="2"/>
         <v>14794.5</v>
       </c>
       <c r="R7">
-        <f t="shared" si="2"/>
         <v>15164</v>
       </c>
       <c r="S7">
-        <f t="shared" si="2"/>
         <v>15543.5</v>
       </c>
       <c r="T7">
-        <f t="shared" si="2"/>
         <v>15932</v>
       </c>
       <c r="U7">
-        <f t="shared" si="2"/>
         <v>16330</v>
       </c>
       <c r="V7">
-        <f t="shared" si="2"/>
         <v>21572</v>
       </c>
       <c r="W7">
-        <f t="shared" si="2"/>
         <v>22111.5</v>
       </c>
       <c r="X7">
-        <f t="shared" si="2"/>
         <v>22664</v>
       </c>
       <c r="Y7">
-        <f t="shared" si="2"/>
         <v>23230.5</v>
       </c>
       <c r="Z7">
-        <f t="shared" si="2"/>
         <v>23811.5</v>
       </c>
       <c r="AA7">
-        <f t="shared" si="2"/>
         <v>24407</v>
       </c>
       <c r="AB7">
-        <f t="shared" si="2"/>
         <v>25017</v>
       </c>
       <c r="AC7">
-        <f t="shared" si="2"/>
         <v>25642.5</v>
       </c>
       <c r="AD7">
-        <f t="shared" si="2"/>
         <v>26283.5</v>
       </c>
       <c r="AE7">
-        <f t="shared" si="2"/>
         <v>26940.5</v>
       </c>
       <c r="AF7">
-        <f t="shared" si="2"/>
         <v>27614</v>
       </c>
       <c r="AG7">
-        <f t="shared" si="2"/>
         <v>28304.5</v>
       </c>
       <c r="AH7">
-        <f t="shared" si="2"/>
         <v>29012</v>
       </c>
       <c r="AI7">
-        <f t="shared" si="2"/>
         <v>29737.5</v>
       </c>
       <c r="AJ7">
-        <f t="shared" si="2"/>
         <v>37568.5</v>
       </c>
       <c r="AK7">
-        <f t="shared" si="2"/>
         <v>38507.5</v>
       </c>
       <c r="AL7">
-        <f t="shared" si="2"/>
         <v>39470.5</v>
       </c>
       <c r="AM7">
-        <f t="shared" si="2"/>
         <v>40457</v>
       </c>
       <c r="AN7">
-        <f t="shared" si="2"/>
         <v>41468.5</v>
       </c>
       <c r="AO7">
-        <f t="shared" si="2"/>
         <v>42505</v>
       </c>
       <c r="AP7">
-        <f t="shared" si="2"/>
         <v>43568</v>
       </c>
       <c r="AQ7">
-        <f t="shared" si="2"/>
         <v>44657</v>
       </c>
       <c r="AR7">
-        <f t="shared" si="2"/>
         <v>45773.5</v>
       </c>
       <c r="AS7">
-        <f t="shared" si="2"/>
         <v>46917.5</v>
       </c>
       <c r="AT7">
-        <f t="shared" si="2"/>
         <v>48090.5</v>
       </c>
       <c r="AU7">
-        <f t="shared" si="2"/>
         <v>49293</v>
       </c>
       <c r="AV7">
-        <f t="shared" si="2"/>
         <v>50525.5</v>
       </c>
       <c r="AW7">
-        <f t="shared" si="2"/>
         <v>51788.5</v>
       </c>
       <c r="AX7">
-        <f t="shared" si="2"/>
         <v>53083</v>
       </c>
       <c r="AY7">
-        <f t="shared" si="2"/>
         <v>54410</v>
       </c>
       <c r="AZ7">
-        <f t="shared" si="2"/>
         <v>55770.5</v>
       </c>
       <c r="BA7">
-        <f t="shared" si="2"/>
         <v>57164.5</v>
       </c>
       <c r="BB7">
-        <f t="shared" si="2"/>
         <v>58594</v>
       </c>
       <c r="BC7">
-        <f t="shared" si="2"/>
         <v>60058.5</v>
       </c>
       <c r="BD7">
-        <f t="shared" si="2"/>
         <v>61560</v>
       </c>
       <c r="BE7">
-        <f t="shared" si="2"/>
         <v>63099</v>
       </c>
       <c r="BF7">
-        <f t="shared" si="2"/>
         <v>64676.5</v>
       </c>
       <c r="BG7">
-        <f t="shared" si="2"/>
         <v>66293.5</v>
       </c>
       <c r="BH7">
-        <f t="shared" si="2"/>
         <v>67951</v>
       </c>
       <c r="BI7">
-        <f t="shared" si="2"/>
         <v>69649.5</v>
       </c>
       <c r="BJ7">
-        <f t="shared" si="2"/>
         <v>71391</v>
       </c>
       <c r="BK7">
-        <f t="shared" si="2"/>
         <v>73175.5</v>
       </c>
       <c r="BL7">
-        <f t="shared" si="2"/>
         <v>75005</v>
       </c>
       <c r="BM7">
-        <f t="shared" si="2"/>
         <v>76880</v>
       </c>
       <c r="BN7">
-        <f t="shared" si="2"/>
         <v>78802</v>
       </c>
       <c r="BO7">
-        <f t="shared" si="2"/>
         <v>80772.5</v>
       </c>
       <c r="BP7">
-        <f t="shared" si="2"/>
         <v>82791.5</v>
       </c>
       <c r="BQ7">
-        <f t="shared" si="2"/>
         <v>84861.5</v>
       </c>
       <c r="BR7">
-        <f t="shared" ref="BR7:DI7" si="3">BR6*0.5</f>
         <v>86983</v>
       </c>
       <c r="BS7">
-        <f t="shared" si="3"/>
         <v>89157.5</v>
       </c>
       <c r="BT7">
-        <f t="shared" si="3"/>
         <v>91386.5</v>
       </c>
       <c r="BU7">
-        <f t="shared" si="3"/>
         <v>93671</v>
       </c>
       <c r="BV7">
-        <f t="shared" si="3"/>
         <v>96013</v>
       </c>
       <c r="BW7">
-        <f t="shared" si="3"/>
         <v>98413</v>
       </c>
       <c r="BX7">
-        <f t="shared" si="3"/>
         <v>100873.5</v>
       </c>
       <c r="BY7">
-        <f t="shared" si="3"/>
         <v>103395.5</v>
       </c>
       <c r="BZ7">
-        <f t="shared" si="3"/>
         <v>105980</v>
       </c>
       <c r="CA7">
-        <f t="shared" si="3"/>
         <v>108629.5</v>
       </c>
       <c r="CB7">
-        <f t="shared" si="3"/>
         <v>111345.5</v>
       </c>
       <c r="CC7">
-        <f t="shared" si="3"/>
         <v>114129</v>
       </c>
       <c r="CD7">
-        <f t="shared" si="3"/>
         <v>116982.5</v>
       </c>
       <c r="CE7">
-        <f t="shared" si="3"/>
         <v>119907</v>
       </c>
       <c r="CF7">
-        <f t="shared" si="3"/>
         <v>122904.5</v>
       </c>
       <c r="CG7">
-        <f t="shared" si="3"/>
         <v>125977</v>
       </c>
       <c r="CH7">
-        <f t="shared" si="3"/>
         <v>129126.5</v>
       </c>
       <c r="CI7">
-        <f t="shared" si="3"/>
         <v>132354.5</v>
       </c>
       <c r="CJ7">
-        <f t="shared" si="3"/>
         <v>135663.5</v>
       </c>
       <c r="CK7">
-        <f t="shared" si="3"/>
         <v>139055</v>
       </c>
       <c r="CL7">
-        <f t="shared" si="3"/>
         <v>142531.5</v>
       </c>
       <c r="CM7">
-        <f t="shared" si="3"/>
         <v>146095</v>
       </c>
       <c r="CN7">
-        <f t="shared" si="3"/>
         <v>149747</v>
       </c>
       <c r="CO7">
-        <f t="shared" si="3"/>
         <v>153491</v>
       </c>
       <c r="CP7">
-        <f t="shared" si="3"/>
         <v>157328</v>
       </c>
       <c r="CQ7">
-        <f t="shared" si="3"/>
         <v>161261.5</v>
       </c>
       <c r="CR7">
-        <f t="shared" si="3"/>
         <v>165293</v>
       </c>
       <c r="CS7">
-        <f t="shared" si="3"/>
         <v>169425.5</v>
       </c>
       <c r="CT7">
-        <f t="shared" si="3"/>
         <v>173661</v>
       </c>
       <c r="CU7">
-        <f t="shared" si="3"/>
         <v>178002.5</v>
       </c>
       <c r="CV7">
-        <f t="shared" si="3"/>
         <v>182452.5</v>
       </c>
       <c r="CW7">
-        <f t="shared" si="3"/>
         <v>187014</v>
       </c>
       <c r="CX7">
-        <f t="shared" si="3"/>
         <v>191689</v>
       </c>
       <c r="CY7">
-        <f t="shared" si="3"/>
         <v>196481.5</v>
       </c>
       <c r="CZ7">
-        <f t="shared" si="3"/>
         <v>201393.5</v>
       </c>
       <c r="DA7">
-        <f t="shared" si="3"/>
         <v>206428</v>
       </c>
       <c r="DB7">
-        <f t="shared" si="3"/>
         <v>211589</v>
       </c>
       <c r="DC7">
-        <f t="shared" si="3"/>
         <v>216878.5</v>
       </c>
       <c r="DD7">
-        <f t="shared" si="3"/>
         <v>222300.5</v>
       </c>
       <c r="DE7">
-        <f t="shared" si="3"/>
         <v>227858</v>
       </c>
       <c r="DF7">
-        <f t="shared" si="3"/>
         <v>233554.5</v>
       </c>
       <c r="DG7">
-        <f t="shared" si="3"/>
         <v>239393.5</v>
       </c>
       <c r="DH7">
-        <f t="shared" si="3"/>
         <v>245378.5</v>
       </c>
       <c r="DI7">
-        <f t="shared" si="3"/>
         <v>251512.5</v>
       </c>
     </row>
@@ -3096,313 +2878,313 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>3900</v>
+        <v>1950</v>
       </c>
       <c r="L8">
-        <v>3997</v>
+        <v>1998.5</v>
       </c>
       <c r="M8">
-        <v>4097</v>
+        <v>2048.5</v>
       </c>
       <c r="N8">
-        <v>4200</v>
+        <v>2100</v>
       </c>
       <c r="O8">
-        <v>4305</v>
+        <v>2152.5</v>
       </c>
       <c r="P8">
-        <v>4412</v>
+        <v>2206</v>
       </c>
       <c r="Q8">
-        <v>4522</v>
+        <v>2261</v>
       </c>
       <c r="R8">
-        <v>4636</v>
+        <v>2318</v>
       </c>
       <c r="S8">
-        <v>4751</v>
+        <v>2375.5</v>
       </c>
       <c r="T8">
-        <v>4870</v>
+        <v>2435</v>
       </c>
       <c r="U8">
-        <v>4992</v>
+        <v>2496</v>
       </c>
       <c r="V8">
-        <v>6383</v>
+        <v>3191.5</v>
       </c>
       <c r="W8">
-        <v>6543</v>
+        <v>3271.5</v>
       </c>
       <c r="X8">
-        <v>6706</v>
+        <v>3353</v>
       </c>
       <c r="Y8">
-        <v>6874</v>
+        <v>3437</v>
       </c>
       <c r="Z8">
-        <v>7046</v>
+        <v>3523</v>
       </c>
       <c r="AA8">
-        <v>7222</v>
+        <v>3611</v>
       </c>
       <c r="AB8">
-        <v>7402</v>
+        <v>3701</v>
       </c>
       <c r="AC8">
-        <v>7587</v>
+        <v>3793.5</v>
       </c>
       <c r="AD8">
-        <v>7777</v>
+        <v>3888.5</v>
       </c>
       <c r="AE8">
-        <v>7972</v>
+        <v>3986</v>
       </c>
       <c r="AF8">
-        <v>8171</v>
+        <v>4085.5</v>
       </c>
       <c r="AG8">
-        <v>8375</v>
+        <v>4187.5</v>
       </c>
       <c r="AH8">
-        <v>8585</v>
+        <v>4292.5</v>
       </c>
       <c r="AI8">
-        <v>8799</v>
+        <v>4399.5</v>
       </c>
       <c r="AJ8">
-        <v>10356</v>
+        <v>5178</v>
       </c>
       <c r="AK8">
-        <v>10615</v>
+        <v>5307.5</v>
       </c>
       <c r="AL8">
-        <v>10880</v>
+        <v>5440</v>
       </c>
       <c r="AM8">
-        <v>11152</v>
+        <v>5576</v>
       </c>
       <c r="AN8">
-        <v>11431</v>
+        <v>5715.5</v>
       </c>
       <c r="AO8">
-        <v>11717</v>
+        <v>5858.5</v>
       </c>
       <c r="AP8">
-        <v>12010</v>
+        <v>6005</v>
       </c>
       <c r="AQ8">
-        <v>12310</v>
+        <v>6155</v>
       </c>
       <c r="AR8">
-        <v>12618</v>
+        <v>6309</v>
       </c>
       <c r="AS8">
-        <v>12933</v>
+        <v>6466.5</v>
       </c>
       <c r="AT8">
-        <v>13256</v>
+        <v>6628</v>
       </c>
       <c r="AU8">
-        <v>13588</v>
+        <v>6794</v>
       </c>
       <c r="AV8">
-        <v>13927</v>
+        <v>6963.5</v>
       </c>
       <c r="AW8">
-        <v>14276</v>
+        <v>7138</v>
       </c>
       <c r="AX8">
-        <v>14632</v>
+        <v>7316</v>
       </c>
       <c r="AY8">
-        <v>14998</v>
+        <v>7499</v>
       </c>
       <c r="AZ8">
-        <v>15373</v>
+        <v>7686.5</v>
       </c>
       <c r="BA8">
-        <v>15758</v>
+        <v>7879</v>
       </c>
       <c r="BB8">
-        <v>16152</v>
+        <v>8076</v>
       </c>
       <c r="BC8">
-        <v>16555</v>
+        <v>8277.5</v>
       </c>
       <c r="BD8">
-        <v>16969</v>
+        <v>8484.5</v>
       </c>
       <c r="BE8">
-        <v>17393</v>
+        <v>8696.5</v>
       </c>
       <c r="BF8">
-        <v>17828</v>
+        <v>8914</v>
       </c>
       <c r="BG8">
-        <v>18274</v>
+        <v>9137</v>
       </c>
       <c r="BH8">
-        <v>18731</v>
+        <v>9365.5</v>
       </c>
       <c r="BI8">
-        <v>19199</v>
+        <v>9599.5</v>
       </c>
       <c r="BJ8">
-        <v>19679</v>
+        <v>9839.5</v>
       </c>
       <c r="BK8">
-        <v>20171</v>
+        <v>10085.5</v>
       </c>
       <c r="BL8">
-        <v>20675</v>
+        <v>10337.5</v>
       </c>
       <c r="BM8">
-        <v>21192</v>
+        <v>10596</v>
       </c>
       <c r="BN8">
-        <v>21722</v>
+        <v>10861</v>
       </c>
       <c r="BO8">
-        <v>22265</v>
+        <v>11132.5</v>
       </c>
       <c r="BP8">
-        <v>22822</v>
+        <v>11411</v>
       </c>
       <c r="BQ8">
-        <v>23392</v>
+        <v>11696</v>
       </c>
       <c r="BR8">
-        <v>23977</v>
+        <v>11988.5</v>
       </c>
       <c r="BS8">
-        <v>24576</v>
+        <v>12288</v>
       </c>
       <c r="BT8">
-        <v>25191</v>
+        <v>12595.5</v>
       </c>
       <c r="BU8">
-        <v>25821</v>
+        <v>12910.5</v>
       </c>
       <c r="BV8">
-        <v>26466</v>
+        <v>13233</v>
       </c>
       <c r="BW8">
-        <v>27128</v>
+        <v>13564</v>
       </c>
       <c r="BX8">
-        <v>27806</v>
+        <v>13903</v>
       </c>
       <c r="BY8">
-        <v>28501</v>
+        <v>14250.5</v>
       </c>
       <c r="BZ8">
-        <v>29214</v>
+        <v>14607</v>
       </c>
       <c r="CA8">
-        <v>29944</v>
+        <v>14972</v>
       </c>
       <c r="CB8">
-        <v>30693</v>
+        <v>15346.5</v>
       </c>
       <c r="CC8">
-        <v>31460</v>
+        <v>15730</v>
       </c>
       <c r="CD8">
-        <v>32246</v>
+        <v>16123</v>
       </c>
       <c r="CE8">
-        <v>33053</v>
+        <v>16526.5</v>
       </c>
       <c r="CF8">
-        <v>33879</v>
+        <v>16939.5</v>
       </c>
       <c r="CG8">
-        <v>34726</v>
+        <v>17363</v>
       </c>
       <c r="CH8">
-        <v>35594</v>
+        <v>17797</v>
       </c>
       <c r="CI8">
-        <v>36484</v>
+        <v>18242</v>
       </c>
       <c r="CJ8">
-        <v>37396</v>
+        <v>18698</v>
       </c>
       <c r="CK8">
-        <v>38331</v>
+        <v>19165.5</v>
       </c>
       <c r="CL8">
-        <v>39289</v>
+        <v>19644.5</v>
       </c>
       <c r="CM8">
-        <v>40271</v>
+        <v>20135.5</v>
       </c>
       <c r="CN8">
-        <v>41278</v>
+        <v>20639</v>
       </c>
       <c r="CO8">
-        <v>42310</v>
+        <v>21155</v>
       </c>
       <c r="CP8">
-        <v>43368</v>
+        <v>21684</v>
       </c>
       <c r="CQ8">
-        <v>44452</v>
+        <v>22226</v>
       </c>
       <c r="CR8">
-        <v>45563</v>
+        <v>22781.5</v>
       </c>
       <c r="CS8">
-        <v>46702</v>
+        <v>23351</v>
       </c>
       <c r="CT8">
-        <v>47870</v>
+        <v>23935</v>
       </c>
       <c r="CU8">
-        <v>49067</v>
+        <v>24533.5</v>
       </c>
       <c r="CV8">
-        <v>50293</v>
+        <v>25146.5</v>
       </c>
       <c r="CW8">
-        <v>51551</v>
+        <v>25775.5</v>
       </c>
       <c r="CX8">
-        <v>52840</v>
+        <v>26420</v>
       </c>
       <c r="CY8">
-        <v>54161</v>
+        <v>27080.5</v>
       </c>
       <c r="CZ8">
-        <v>55515</v>
+        <v>27757.5</v>
       </c>
       <c r="DA8">
-        <v>56902</v>
+        <v>28451</v>
       </c>
       <c r="DB8">
-        <v>58325</v>
+        <v>29162.5</v>
       </c>
       <c r="DC8">
-        <v>59783</v>
+        <v>29891.5</v>
       </c>
       <c r="DD8">
-        <v>61278</v>
+        <v>30639</v>
       </c>
       <c r="DE8">
-        <v>62810</v>
+        <v>31405</v>
       </c>
       <c r="DF8">
-        <v>64380</v>
+        <v>32190</v>
       </c>
       <c r="DG8">
-        <v>65989</v>
+        <v>32994.5</v>
       </c>
       <c r="DH8">
-        <v>67639</v>
+        <v>33819.5</v>
       </c>
       <c r="DI8">
-        <v>69330</v>
+        <v>34665</v>
       </c>
     </row>
     <row r="9" spans="1:113" x14ac:dyDescent="0.2">
@@ -3419,439 +3201,330 @@
         <v>12</v>
       </c>
       <c r="E9">
-        <f>E8*0.5</f>
         <v>0</v>
       </c>
       <c r="F9">
-        <f t="shared" ref="F9:BQ9" si="4">F8*0.5</f>
         <v>0</v>
       </c>
       <c r="G9">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H9">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I9">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J9">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K9">
-        <f t="shared" si="4"/>
         <v>1950</v>
       </c>
       <c r="L9">
-        <f t="shared" si="4"/>
         <v>1998.5</v>
       </c>
       <c r="M9">
-        <f t="shared" si="4"/>
         <v>2048.5</v>
       </c>
       <c r="N9">
-        <f t="shared" si="4"/>
         <v>2100</v>
       </c>
       <c r="O9">
-        <f t="shared" si="4"/>
         <v>2152.5</v>
       </c>
       <c r="P9">
-        <f t="shared" si="4"/>
         <v>2206</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="4"/>
         <v>2261</v>
       </c>
       <c r="R9">
-        <f t="shared" si="4"/>
         <v>2318</v>
       </c>
       <c r="S9">
-        <f t="shared" si="4"/>
         <v>2375.5</v>
       </c>
       <c r="T9">
-        <f t="shared" si="4"/>
         <v>2435</v>
       </c>
       <c r="U9">
-        <f t="shared" si="4"/>
         <v>2496</v>
       </c>
       <c r="V9">
-        <f t="shared" si="4"/>
         <v>3191.5</v>
       </c>
       <c r="W9">
-        <f t="shared" si="4"/>
         <v>3271.5</v>
       </c>
       <c r="X9">
-        <f t="shared" si="4"/>
         <v>3353</v>
       </c>
       <c r="Y9">
-        <f t="shared" si="4"/>
         <v>3437</v>
       </c>
       <c r="Z9">
-        <f t="shared" si="4"/>
         <v>3523</v>
       </c>
       <c r="AA9">
-        <f t="shared" si="4"/>
         <v>3611</v>
       </c>
       <c r="AB9">
-        <f t="shared" si="4"/>
         <v>3701</v>
       </c>
       <c r="AC9">
-        <f t="shared" si="4"/>
         <v>3793.5</v>
       </c>
       <c r="AD9">
-        <f t="shared" si="4"/>
         <v>3888.5</v>
       </c>
       <c r="AE9">
-        <f t="shared" si="4"/>
         <v>3986</v>
       </c>
       <c r="AF9">
-        <f t="shared" si="4"/>
         <v>4085.5</v>
       </c>
       <c r="AG9">
-        <f t="shared" si="4"/>
         <v>4187.5</v>
       </c>
       <c r="AH9">
-        <f t="shared" si="4"/>
         <v>4292.5</v>
       </c>
       <c r="AI9">
-        <f t="shared" si="4"/>
         <v>4399.5</v>
       </c>
       <c r="AJ9">
-        <f t="shared" si="4"/>
         <v>5178</v>
       </c>
       <c r="AK9">
-        <f t="shared" si="4"/>
         <v>5307.5</v>
       </c>
       <c r="AL9">
-        <f t="shared" si="4"/>
         <v>5440</v>
       </c>
       <c r="AM9">
-        <f t="shared" si="4"/>
         <v>5576</v>
       </c>
       <c r="AN9">
-        <f t="shared" si="4"/>
         <v>5715.5</v>
       </c>
       <c r="AO9">
-        <f t="shared" si="4"/>
         <v>5858.5</v>
       </c>
       <c r="AP9">
-        <f t="shared" si="4"/>
         <v>6005</v>
       </c>
       <c r="AQ9">
-        <f t="shared" si="4"/>
         <v>6155</v>
       </c>
       <c r="AR9">
-        <f t="shared" si="4"/>
         <v>6309</v>
       </c>
       <c r="AS9">
-        <f t="shared" si="4"/>
         <v>6466.5</v>
       </c>
       <c r="AT9">
-        <f t="shared" si="4"/>
         <v>6628</v>
       </c>
       <c r="AU9">
-        <f t="shared" si="4"/>
         <v>6794</v>
       </c>
       <c r="AV9">
-        <f t="shared" si="4"/>
         <v>6963.5</v>
       </c>
       <c r="AW9">
-        <f t="shared" si="4"/>
         <v>7138</v>
       </c>
       <c r="AX9">
-        <f t="shared" si="4"/>
         <v>7316</v>
       </c>
       <c r="AY9">
-        <f t="shared" si="4"/>
         <v>7499</v>
       </c>
       <c r="AZ9">
-        <f t="shared" si="4"/>
         <v>7686.5</v>
       </c>
       <c r="BA9">
-        <f t="shared" si="4"/>
         <v>7879</v>
       </c>
       <c r="BB9">
-        <f t="shared" si="4"/>
         <v>8076</v>
       </c>
       <c r="BC9">
-        <f t="shared" si="4"/>
         <v>8277.5</v>
       </c>
       <c r="BD9">
-        <f t="shared" si="4"/>
         <v>8484.5</v>
       </c>
       <c r="BE9">
-        <f t="shared" si="4"/>
         <v>8696.5</v>
       </c>
       <c r="BF9">
-        <f t="shared" si="4"/>
         <v>8914</v>
       </c>
       <c r="BG9">
-        <f t="shared" si="4"/>
         <v>9137</v>
       </c>
       <c r="BH9">
-        <f t="shared" si="4"/>
         <v>9365.5</v>
       </c>
       <c r="BI9">
-        <f t="shared" si="4"/>
         <v>9599.5</v>
       </c>
       <c r="BJ9">
-        <f t="shared" si="4"/>
         <v>9839.5</v>
       </c>
       <c r="BK9">
-        <f t="shared" si="4"/>
         <v>10085.5</v>
       </c>
       <c r="BL9">
-        <f t="shared" si="4"/>
         <v>10337.5</v>
       </c>
       <c r="BM9">
-        <f t="shared" si="4"/>
         <v>10596</v>
       </c>
       <c r="BN9">
-        <f t="shared" si="4"/>
         <v>10861</v>
       </c>
       <c r="BO9">
-        <f t="shared" si="4"/>
         <v>11132.5</v>
       </c>
       <c r="BP9">
-        <f t="shared" si="4"/>
         <v>11411</v>
       </c>
       <c r="BQ9">
-        <f t="shared" si="4"/>
         <v>11696</v>
       </c>
       <c r="BR9">
-        <f t="shared" ref="BR9:DI9" si="5">BR8*0.5</f>
         <v>11988.5</v>
       </c>
       <c r="BS9">
-        <f t="shared" si="5"/>
         <v>12288</v>
       </c>
       <c r="BT9">
-        <f t="shared" si="5"/>
         <v>12595.5</v>
       </c>
       <c r="BU9">
-        <f t="shared" si="5"/>
         <v>12910.5</v>
       </c>
       <c r="BV9">
-        <f t="shared" si="5"/>
         <v>13233</v>
       </c>
       <c r="BW9">
-        <f t="shared" si="5"/>
         <v>13564</v>
       </c>
       <c r="BX9">
-        <f t="shared" si="5"/>
         <v>13903</v>
       </c>
       <c r="BY9">
-        <f t="shared" si="5"/>
         <v>14250.5</v>
       </c>
       <c r="BZ9">
-        <f t="shared" si="5"/>
         <v>14607</v>
       </c>
       <c r="CA9">
-        <f t="shared" si="5"/>
         <v>14972</v>
       </c>
       <c r="CB9">
-        <f t="shared" si="5"/>
         <v>15346.5</v>
       </c>
       <c r="CC9">
-        <f t="shared" si="5"/>
         <v>15730</v>
       </c>
       <c r="CD9">
-        <f t="shared" si="5"/>
         <v>16123</v>
       </c>
       <c r="CE9">
-        <f t="shared" si="5"/>
         <v>16526.5</v>
       </c>
       <c r="CF9">
-        <f t="shared" si="5"/>
         <v>16939.5</v>
       </c>
       <c r="CG9">
-        <f t="shared" si="5"/>
         <v>17363</v>
       </c>
       <c r="CH9">
-        <f t="shared" si="5"/>
         <v>17797</v>
       </c>
       <c r="CI9">
-        <f t="shared" si="5"/>
         <v>18242</v>
       </c>
       <c r="CJ9">
-        <f t="shared" si="5"/>
         <v>18698</v>
       </c>
       <c r="CK9">
-        <f t="shared" si="5"/>
         <v>19165.5</v>
       </c>
       <c r="CL9">
-        <f t="shared" si="5"/>
         <v>19644.5</v>
       </c>
       <c r="CM9">
-        <f t="shared" si="5"/>
         <v>20135.5</v>
       </c>
       <c r="CN9">
-        <f t="shared" si="5"/>
         <v>20639</v>
       </c>
       <c r="CO9">
-        <f t="shared" si="5"/>
         <v>21155</v>
       </c>
       <c r="CP9">
-        <f t="shared" si="5"/>
         <v>21684</v>
       </c>
       <c r="CQ9">
-        <f t="shared" si="5"/>
         <v>22226</v>
       </c>
       <c r="CR9">
-        <f t="shared" si="5"/>
         <v>22781.5</v>
       </c>
       <c r="CS9">
-        <f t="shared" si="5"/>
         <v>23351</v>
       </c>
       <c r="CT9">
-        <f t="shared" si="5"/>
         <v>23935</v>
       </c>
       <c r="CU9">
-        <f t="shared" si="5"/>
         <v>24533.5</v>
       </c>
       <c r="CV9">
-        <f t="shared" si="5"/>
         <v>25146.5</v>
       </c>
       <c r="CW9">
-        <f t="shared" si="5"/>
         <v>25775.5</v>
       </c>
       <c r="CX9">
-        <f t="shared" si="5"/>
         <v>26420</v>
       </c>
       <c r="CY9">
-        <f t="shared" si="5"/>
         <v>27080.5</v>
       </c>
       <c r="CZ9">
-        <f t="shared" si="5"/>
         <v>27757.5</v>
       </c>
       <c r="DA9">
-        <f t="shared" si="5"/>
         <v>28451</v>
       </c>
       <c r="DB9">
-        <f t="shared" si="5"/>
         <v>29162.5</v>
       </c>
       <c r="DC9">
-        <f t="shared" si="5"/>
         <v>29891.5</v>
       </c>
       <c r="DD9">
-        <f t="shared" si="5"/>
         <v>30639</v>
       </c>
       <c r="DE9">
-        <f t="shared" si="5"/>
         <v>31405</v>
       </c>
       <c r="DF9">
-        <f t="shared" si="5"/>
         <v>32190</v>
       </c>
       <c r="DG9">
-        <f t="shared" si="5"/>
         <v>32994.5</v>
       </c>
       <c r="DH9">
-        <f t="shared" si="5"/>
         <v>33819.5</v>
       </c>
       <c r="DI9">
-        <f t="shared" si="5"/>
         <v>34665</v>
       </c>
     </row>

--- a/app/Datos/Intermodal/Costos e Inversiones.xlsx
+++ b/app/Datos/Intermodal/Costos e Inversiones.xlsx
@@ -449,7 +449,7 @@
   <dimension ref="A1:DI16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD26"/>
+      <selection activeCell="E14" sqref="E14:DI16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4924,313 +4924,313 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>50144.427316033492</v>
       </c>
       <c r="L14" s="1">
-        <v>50144</v>
+        <v>51398.037998934327</v>
       </c>
       <c r="M14" s="1">
-        <v>51398</v>
+        <v>52682.988948907681</v>
       </c>
       <c r="N14" s="1">
-        <v>52683</v>
+        <v>54000.063672630364</v>
       </c>
       <c r="O14" s="1">
-        <v>54000</v>
+        <v>55350.065264446122</v>
       </c>
       <c r="P14" s="1">
-        <v>55350</v>
+        <v>56733.81689605728</v>
       </c>
       <c r="Q14" s="1">
-        <v>56734</v>
+        <v>58152.162318458708</v>
       </c>
       <c r="R14" s="1">
-        <v>58152</v>
+        <v>59605.966376420169</v>
       </c>
       <c r="S14" s="1">
-        <v>59606</v>
+        <v>61096.115535830671</v>
       </c>
       <c r="T14" s="1">
-        <v>61096</v>
+        <v>62623.518424226444</v>
       </c>
       <c r="U14" s="1">
-        <v>62624</v>
+        <v>64189.106384832099</v>
       </c>
       <c r="V14" s="1">
-        <v>64189</v>
+        <v>65793.834044452888</v>
       </c>
       <c r="W14" s="1">
-        <v>65794</v>
+        <v>67438.679895564215</v>
       </c>
       <c r="X14" s="1">
-        <v>67439</v>
+        <v>69124.646892953315</v>
       </c>
       <c r="Y14" s="1">
-        <v>69125</v>
+        <v>70852.763065277148</v>
       </c>
       <c r="Z14" s="1">
-        <v>70853</v>
+        <v>72624.082141909064</v>
       </c>
       <c r="AA14" s="1">
-        <v>72624</v>
+        <v>74439.684195456794</v>
       </c>
       <c r="AB14" s="1">
-        <v>74440</v>
+        <v>76300.676300343213</v>
       </c>
       <c r="AC14" s="1">
-        <v>76301</v>
+        <v>78208.193207851786</v>
       </c>
       <c r="AD14" s="1">
-        <v>78208</v>
+        <v>80163.398038048079</v>
       </c>
       <c r="AE14" s="1">
-        <v>80163</v>
+        <v>82167.482988999269</v>
       </c>
       <c r="AF14" s="1">
-        <v>82167</v>
+        <v>84221.670063724247</v>
       </c>
       <c r="AG14" s="1">
-        <v>84222</v>
+        <v>86327.211815317351</v>
       </c>
       <c r="AH14" s="1">
-        <v>86327</v>
+        <v>88485.392110700297</v>
       </c>
       <c r="AI14" s="1">
-        <v>88485</v>
+        <v>90697.52691346778</v>
       </c>
       <c r="AJ14" s="1">
-        <v>90698</v>
+        <v>92964.965086304495</v>
       </c>
       <c r="AK14" s="1">
-        <v>92965</v>
+        <v>95289.089213462081</v>
       </c>
       <c r="AL14" s="1">
-        <v>95289</v>
+        <v>97671.316443798627</v>
       </c>
       <c r="AM14" s="1">
-        <v>97671</v>
+        <v>100113.09935489359</v>
       </c>
       <c r="AN14" s="1">
-        <v>100113</v>
+        <v>102615.92683876592</v>
       </c>
       <c r="AO14" s="1">
-        <v>102616</v>
+        <v>105181.32500973508</v>
       </c>
       <c r="AP14" s="1">
-        <v>105181</v>
+        <v>107810.85813497844</v>
       </c>
       <c r="AQ14" s="1">
-        <v>107811</v>
+        <v>110506.12958835288</v>
       </c>
       <c r="AR14" s="1">
-        <v>110506</v>
+        <v>113268.78282806171</v>
       </c>
       <c r="AS14" s="1">
-        <v>113269</v>
+        <v>116100.50239876324</v>
       </c>
       <c r="AT14" s="1">
-        <v>116101</v>
+        <v>119003.01495873232</v>
       </c>
       <c r="AU14" s="1">
-        <v>119003</v>
+        <v>121978.09033270062</v>
       </c>
       <c r="AV14" s="1">
-        <v>121978</v>
+        <v>125027.54259101814</v>
       </c>
       <c r="AW14" s="1">
-        <v>125028</v>
+        <v>128153.23115579356</v>
       </c>
       <c r="AX14" s="1">
-        <v>128153</v>
+        <v>131357.06193468842</v>
       </c>
       <c r="AY14" s="1">
-        <v>131357</v>
+        <v>134640.98848305558</v>
       </c>
       <c r="AZ14" s="1">
-        <v>134641</v>
+        <v>138007.01319513202</v>
       </c>
       <c r="BA14" s="1">
-        <v>138007</v>
+        <v>141457.18852501028</v>
       </c>
       <c r="BB14" s="1">
-        <v>141457</v>
+        <v>144993.61823813553</v>
       </c>
       <c r="BC14" s="1">
-        <v>144994</v>
+        <v>148618.45869408894</v>
       </c>
       <c r="BD14" s="1">
-        <v>148618</v>
+        <v>152333.92016144117</v>
       </c>
       <c r="BE14" s="1">
-        <v>152334</v>
+        <v>156142.26816547717</v>
       </c>
       <c r="BF14" s="1">
-        <v>156142</v>
+        <v>160045.82486961409</v>
       </c>
       <c r="BG14" s="1">
-        <v>160046</v>
+        <v>164046.97049135444</v>
       </c>
       <c r="BH14" s="1">
-        <v>164047</v>
+        <v>168148.14475363831</v>
       </c>
       <c r="BI14" s="1">
-        <v>168148</v>
+        <v>172351.84837247926</v>
       </c>
       <c r="BJ14" s="1">
-        <v>172352</v>
+        <v>176660.64458179119</v>
       </c>
       <c r="BK14" s="1">
-        <v>176661</v>
+        <v>181077.16069633598</v>
       </c>
       <c r="BL14" s="1">
-        <v>181077</v>
+        <v>185604.08971374438</v>
       </c>
       <c r="BM14" s="1">
-        <v>185604</v>
+        <v>190244.19195658798</v>
       </c>
       <c r="BN14" s="1">
-        <v>190244</v>
+        <v>195000.29675550267</v>
       </c>
       <c r="BO14" s="1">
-        <v>195000</v>
+        <v>199875.30417439018</v>
       </c>
       <c r="BP14" s="1">
-        <v>199875</v>
+        <v>204872.18677875001</v>
       </c>
       <c r="BQ14" s="1">
-        <v>204872</v>
+        <v>209993.9914482187</v>
       </c>
       <c r="BR14" s="1">
-        <v>209994</v>
+        <v>215243.84123442415</v>
       </c>
       <c r="BS14" s="1">
-        <v>215244</v>
+        <v>220624.93726528474</v>
       </c>
       <c r="BT14" s="1">
-        <v>220625</v>
+        <v>226140.56069691689</v>
       </c>
       <c r="BU14" s="1">
-        <v>226141</v>
+        <v>231794.0747143398</v>
       </c>
       <c r="BV14" s="1">
-        <v>231794</v>
+        <v>237588.92658219824</v>
       </c>
       <c r="BW14" s="1">
-        <v>237589</v>
+        <v>243528.64974675316</v>
       </c>
       <c r="BX14" s="1">
-        <v>243529</v>
+        <v>249616.86599042203</v>
       </c>
       <c r="BY14" s="1">
-        <v>249617</v>
+        <v>255857.28764018256</v>
       </c>
       <c r="BZ14" s="1">
-        <v>255857</v>
+        <v>262253.71983118705</v>
       </c>
       <c r="CA14" s="1">
-        <v>262254</v>
+        <v>268810.06282696675</v>
       </c>
       <c r="CB14" s="1">
-        <v>268810</v>
+        <v>275530.31439764093</v>
       </c>
       <c r="CC14" s="1">
-        <v>275530</v>
+        <v>282418.57225758187</v>
       </c>
       <c r="CD14" s="1">
-        <v>282419</v>
+        <v>289479.03656402149</v>
       </c>
       <c r="CE14" s="1">
-        <v>289479</v>
+        <v>296716.01247812196</v>
       </c>
       <c r="CF14" s="1">
-        <v>296716</v>
+        <v>304133.91279007506</v>
       </c>
       <c r="CG14" s="1">
-        <v>304134</v>
+        <v>311737.26060982689</v>
       </c>
       <c r="CH14" s="1">
-        <v>311737</v>
+        <v>319530.69212507253</v>
       </c>
       <c r="CI14" s="1">
-        <v>319531</v>
+        <v>327518.95942819933</v>
       </c>
       <c r="CJ14" s="1">
-        <v>327519</v>
+        <v>335706.93341390439</v>
       </c>
       <c r="CK14" s="1">
-        <v>335707</v>
+        <v>344099.60674925189</v>
       </c>
       <c r="CL14" s="1">
-        <v>344100</v>
+        <v>352702.0969179832</v>
       </c>
       <c r="CM14" s="1">
-        <v>352702</v>
+        <v>361519.64934093272</v>
       </c>
       <c r="CN14" s="1">
-        <v>361520</v>
+        <v>370557.64057445602</v>
       </c>
       <c r="CO14" s="1">
-        <v>370558</v>
+        <v>379821.58158881741</v>
       </c>
       <c r="CP14" s="1">
-        <v>379822</v>
+        <v>389317.12112853775</v>
       </c>
       <c r="CQ14" s="1">
-        <v>389317</v>
+        <v>399050.04915675125</v>
       </c>
       <c r="CR14" s="1">
-        <v>399050</v>
+        <v>409026.30038566998</v>
       </c>
       <c r="CS14" s="1">
-        <v>409026</v>
+        <v>419251.9578953117</v>
       </c>
       <c r="CT14" s="1">
-        <v>419252</v>
+        <v>429733.25684269454</v>
       </c>
       <c r="CU14" s="1">
-        <v>429733</v>
+        <v>440476.58826376183</v>
       </c>
       <c r="CV14" s="1">
-        <v>440477</v>
+        <v>451488.50297035597</v>
       </c>
       <c r="CW14" s="1">
-        <v>451489</v>
+        <v>462775.71554461477</v>
       </c>
       <c r="CX14" s="1">
-        <v>462776</v>
+        <v>474345.10843323008</v>
       </c>
       <c r="CY14" s="1">
-        <v>474345</v>
+        <v>486203.73614406091</v>
       </c>
       <c r="CZ14" s="1">
-        <v>486204</v>
+        <v>498358.82954766235</v>
       </c>
       <c r="DA14" s="1">
-        <v>498359</v>
+        <v>510817.80028635397</v>
       </c>
       <c r="DB14" s="1">
-        <v>510818</v>
+        <v>523588.24529351277</v>
       </c>
       <c r="DC14" s="1">
-        <v>523588</v>
+        <v>536677.95142585039</v>
       </c>
       <c r="DD14" s="1">
-        <v>536678</v>
+        <v>550094.90021149674</v>
       </c>
       <c r="DE14" s="1">
-        <v>550095</v>
+        <v>563847.27271678403</v>
       </c>
       <c r="DF14" s="1">
-        <v>563847</v>
+        <v>577943.45453470363</v>
       </c>
       <c r="DG14" s="1">
-        <v>577943</v>
+        <v>592392.04089807114</v>
       </c>
       <c r="DH14" s="1">
-        <v>592392</v>
+        <v>607201.84192052309</v>
       </c>
       <c r="DI14" s="1">
-        <v>607202</v>
+        <v>622381.88796853588</v>
       </c>
     </row>
     <row r="15" spans="1:113" x14ac:dyDescent="0.2">
@@ -5265,313 +5265,313 @@
         <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>62560</v>
+        <v>62559.599213794951</v>
       </c>
       <c r="L15" s="1">
-        <v>67058</v>
+        <v>67058.205820658884</v>
       </c>
       <c r="M15" s="1">
-        <v>71932</v>
+        <v>71931.527086352144</v>
       </c>
       <c r="N15" s="1">
-        <v>77212</v>
+        <v>77212.366578043919</v>
       </c>
       <c r="O15" s="1">
-        <v>80351</v>
+        <v>80350.991624710674</v>
       </c>
       <c r="P15" s="1">
-        <v>83623</v>
+        <v>83623.060670184947</v>
       </c>
       <c r="Q15" s="1">
-        <v>87034</v>
+        <v>87034.411330392002</v>
       </c>
       <c r="R15" s="1">
-        <v>90591</v>
+        <v>90591.140980631331</v>
       </c>
       <c r="S15" s="1">
-        <v>94300</v>
+        <v>94299.618428324204</v>
       </c>
       <c r="T15" s="1">
-        <v>98166</v>
+        <v>98166.496113213987</v>
       </c>
       <c r="U15" s="1">
-        <v>102199</v>
+        <v>102198.72285892627</v>
       </c>
       <c r="V15" s="1">
-        <v>106404</v>
+        <v>106403.55720088248</v>
       </c>
       <c r="W15" s="1">
-        <v>110789</v>
+        <v>110788.58131669456</v>
       </c>
       <c r="X15" s="1">
-        <v>115362</v>
+        <v>115361.71558635544</v>
       </c>
       <c r="Y15" s="1">
-        <v>120131</v>
+        <v>120131.23381077959</v>
       </c>
       <c r="Z15" s="1">
-        <v>125106</v>
+        <v>125105.77911854621</v>
       </c>
       <c r="AA15" s="1">
-        <v>130294</v>
+        <v>130294.38059205061</v>
       </c>
       <c r="AB15" s="1">
-        <v>135706</v>
+        <v>135706.47064568973</v>
       </c>
       <c r="AC15" s="1">
-        <v>141352</v>
+        <v>141351.90319018695</v>
       </c>
       <c r="AD15" s="1">
-        <v>147241</v>
+        <v>147240.97261871173</v>
       </c>
       <c r="AE15" s="1">
-        <v>153384</v>
+        <v>153384.43365206866</v>
       </c>
       <c r="AF15" s="1">
-        <v>159794</v>
+        <v>159793.52208192353</v>
       </c>
       <c r="AG15" s="1">
-        <v>166480</v>
+        <v>166479.97645280388</v>
       </c>
       <c r="AH15" s="1">
-        <v>173456</v>
+        <v>173456.06072546318</v>
       </c>
       <c r="AI15" s="1">
-        <v>180735</v>
+        <v>180734.58796612982</v>
       </c>
       <c r="AJ15" s="1">
-        <v>188329</v>
+        <v>188328.94510818835</v>
       </c>
       <c r="AK15" s="1">
-        <v>196253</v>
+        <v>196253.11883495041</v>
       </c>
       <c r="AL15" s="1">
-        <v>204522</v>
+        <v>204521.72263438869</v>
       </c>
       <c r="AM15" s="1">
-        <v>213150</v>
+        <v>213150.02507901259</v>
       </c>
       <c r="AN15" s="1">
-        <v>222154</v>
+        <v>222153.97938648585</v>
       </c>
       <c r="AO15" s="1">
-        <v>231550</v>
+        <v>231550.25431910867</v>
       </c>
       <c r="AP15" s="1">
-        <v>237339</v>
+        <v>237339.01067708636</v>
       </c>
       <c r="AQ15" s="1">
-        <v>243272</v>
+        <v>243272.48594401346</v>
       </c>
       <c r="AR15" s="1">
-        <v>249354</v>
+        <v>249354.29809261381</v>
       </c>
       <c r="AS15" s="1">
-        <v>255588</v>
+        <v>255588.15554492912</v>
       </c>
       <c r="AT15" s="1">
-        <v>261978</v>
+        <v>261977.85943355237</v>
       </c>
       <c r="AU15" s="1">
-        <v>268527</v>
+        <v>268527.30591939116</v>
       </c>
       <c r="AV15" s="1">
-        <v>275240</v>
+        <v>275240.48856737599</v>
       </c>
       <c r="AW15" s="1">
-        <v>282122</v>
+        <v>282121.50078156026</v>
       </c>
       <c r="AX15" s="1">
-        <v>289175</v>
+        <v>289174.53830109932</v>
       </c>
       <c r="AY15" s="1">
-        <v>296404</v>
+        <v>296403.90175862669</v>
       </c>
       <c r="AZ15" s="1">
-        <v>303814</v>
+        <v>303813.99930259248</v>
       </c>
       <c r="BA15" s="1">
-        <v>311409</v>
+        <v>311409.34928515722</v>
       </c>
       <c r="BB15" s="1">
-        <v>319195</v>
+        <v>319194.58301728615</v>
       </c>
       <c r="BC15" s="1">
-        <v>327174</v>
+        <v>327174.44759271829</v>
       </c>
       <c r="BD15" s="1">
-        <v>335354</v>
+        <v>335353.80878253625</v>
       </c>
       <c r="BE15" s="1">
-        <v>343738</v>
+        <v>343737.65400209965</v>
       </c>
       <c r="BF15" s="1">
-        <v>352331</v>
+        <v>352331.09535215207</v>
       </c>
       <c r="BG15" s="1">
-        <v>361139</v>
+        <v>361139.37273595581</v>
       </c>
       <c r="BH15" s="1">
-        <v>370168</v>
+        <v>370167.85705435474</v>
       </c>
       <c r="BI15" s="1">
-        <v>379422</v>
+        <v>379422.05348071363</v>
       </c>
       <c r="BJ15" s="1">
-        <v>388908</v>
+        <v>388907.60481773136</v>
       </c>
       <c r="BK15" s="1">
-        <v>398630</v>
+        <v>398630.29493817466</v>
       </c>
       <c r="BL15" s="1">
-        <v>408596</v>
+        <v>408596.052311629</v>
       </c>
       <c r="BM15" s="1">
-        <v>418811</v>
+        <v>418810.95361941971</v>
       </c>
       <c r="BN15" s="1">
-        <v>429281</v>
+        <v>429281.2274599052</v>
       </c>
       <c r="BO15" s="1">
-        <v>440013</v>
+        <v>440013.25814640278</v>
       </c>
       <c r="BP15" s="1">
-        <v>451014</v>
+        <v>451013.58960006299</v>
       </c>
       <c r="BQ15" s="1">
-        <v>462289</v>
+        <v>462288.92934006441</v>
       </c>
       <c r="BR15" s="1">
-        <v>473846</v>
+        <v>473846.15257356595</v>
       </c>
       <c r="BS15" s="1">
-        <v>485692</v>
+        <v>485692.30638790515</v>
       </c>
       <c r="BT15" s="1">
-        <v>497835</v>
+        <v>497834.61404760275</v>
       </c>
       <c r="BU15" s="1">
-        <v>510280</v>
+        <v>510280.47939879278</v>
       </c>
       <c r="BV15" s="1">
-        <v>523037</v>
+        <v>523037.49138376256</v>
       </c>
       <c r="BW15" s="1">
-        <v>536113</v>
+        <v>536113.4286683565</v>
       </c>
       <c r="BX15" s="1">
-        <v>549516</v>
+        <v>549516.26438506553</v>
       </c>
       <c r="BY15" s="1">
-        <v>563254</v>
+        <v>563254.17099469213</v>
       </c>
       <c r="BZ15" s="1">
-        <v>577336</v>
+        <v>577335.52526955924</v>
       </c>
       <c r="CA15" s="1">
-        <v>591769</v>
+        <v>591768.91340129834</v>
       </c>
       <c r="CB15" s="1">
-        <v>606563</v>
+        <v>606563.13623633073</v>
       </c>
       <c r="CC15" s="1">
-        <v>621727</v>
+        <v>621727.21464223892</v>
       </c>
       <c r="CD15" s="1">
-        <v>637270</v>
+        <v>637270.39500829496</v>
       </c>
       <c r="CE15" s="1">
-        <v>653202</v>
+        <v>653202.15488350217</v>
       </c>
       <c r="CF15" s="1">
-        <v>669532</v>
+        <v>669532.20875558979</v>
       </c>
       <c r="CG15" s="1">
-        <v>686271</v>
+        <v>686270.5139744794</v>
       </c>
       <c r="CH15" s="1">
-        <v>703427</v>
+        <v>703427.2768238415</v>
       </c>
       <c r="CI15" s="1">
-        <v>721013</v>
+        <v>721012.95874443743</v>
       </c>
       <c r="CJ15" s="1">
-        <v>739038</v>
+        <v>739038.28271304851</v>
       </c>
       <c r="CK15" s="1">
-        <v>757514</v>
+        <v>757514.23978087446</v>
       </c>
       <c r="CL15" s="1">
-        <v>776452</v>
+        <v>776452.09577539633</v>
       </c>
       <c r="CM15" s="1">
-        <v>795863</v>
+        <v>795863.3981697812</v>
       </c>
       <c r="CN15" s="1">
-        <v>815760</v>
+        <v>815759.98312402575</v>
       </c>
       <c r="CO15" s="1">
-        <v>836154</v>
+        <v>836153.98270212638</v>
       </c>
       <c r="CP15" s="1">
-        <v>857058</v>
+        <v>857057.83226967929</v>
       </c>
       <c r="CQ15" s="1">
-        <v>878484</v>
+        <v>878484.27807642135</v>
       </c>
       <c r="CR15" s="1">
-        <v>900446</v>
+        <v>900446.38502833189</v>
       </c>
       <c r="CS15" s="1">
-        <v>922958</v>
+        <v>922957.54465404002</v>
       </c>
       <c r="CT15" s="1">
-        <v>946031</v>
+        <v>946031.48327039112</v>
       </c>
       <c r="CU15" s="1">
-        <v>969682</v>
+        <v>969682.27035215078</v>
       </c>
       <c r="CV15" s="1">
-        <v>993924</v>
+        <v>993924.32711095479</v>
       </c>
       <c r="CW15" s="1">
-        <v>1018772</v>
+        <v>1018772.4352887283</v>
       </c>
       <c r="CX15" s="1">
-        <v>1044242</v>
+        <v>1044241.7461709465</v>
       </c>
       <c r="CY15" s="1">
-        <v>1070348</v>
+        <v>1070347.7898252201</v>
       </c>
       <c r="CZ15" s="1">
-        <v>1097106</v>
+        <v>1097106.4845708506</v>
       </c>
       <c r="DA15" s="1">
-        <v>1124534</v>
+        <v>1124534.1466851218</v>
       </c>
       <c r="DB15" s="1">
-        <v>1152648</v>
+        <v>1152647.5003522499</v>
       </c>
       <c r="DC15" s="1">
-        <v>1181464</v>
+        <v>1181463.6878610556</v>
       </c>
       <c r="DD15" s="1">
-        <v>1211000</v>
+        <v>1211000.2800575821</v>
       </c>
       <c r="DE15" s="1">
-        <v>1241275</v>
+        <v>1241275.2870590216</v>
       </c>
       <c r="DF15" s="1">
-        <v>1272307</v>
+        <v>1272307.1692354972</v>
       </c>
       <c r="DG15" s="1">
-        <v>1304115</v>
+        <v>1304114.8484663845</v>
       </c>
       <c r="DH15" s="1">
-        <v>1336718</v>
+        <v>1336717.7196780443</v>
       </c>
       <c r="DI15" s="1">
-        <v>1370136</v>
+        <v>1370135.6626699951</v>
       </c>
     </row>
     <row r="16" spans="1:113" x14ac:dyDescent="0.2">
@@ -5606,313 +5606,313 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>98639.552890991094</v>
       </c>
       <c r="L16" s="1">
-        <v>98640</v>
+        <v>101105.54171326588</v>
       </c>
       <c r="M16" s="1">
-        <v>101106</v>
+        <v>103633.1802560975</v>
       </c>
       <c r="N16" s="1">
-        <v>103633</v>
+        <v>106224.00976249993</v>
       </c>
       <c r="O16" s="1">
-        <v>106224</v>
+        <v>108879.61000656245</v>
       </c>
       <c r="P16" s="1">
-        <v>108880</v>
+        <v>111601.60025672649</v>
       </c>
       <c r="Q16" s="1">
-        <v>111602</v>
+        <v>114391.64026314464</v>
       </c>
       <c r="R16" s="1">
-        <v>114392</v>
+        <v>117251.43126972325</v>
       </c>
       <c r="S16" s="1">
-        <v>117251</v>
+        <v>120182.71705146633</v>
       </c>
       <c r="T16" s="1">
-        <v>120183</v>
+        <v>123187.28497775299</v>
       </c>
       <c r="U16" s="1">
-        <v>123187</v>
+        <v>126266.96710219681</v>
       </c>
       <c r="V16" s="1">
-        <v>126267</v>
+        <v>129423.64127975171</v>
       </c>
       <c r="W16" s="1">
-        <v>129424</v>
+        <v>132659.23231174552</v>
       </c>
       <c r="X16" s="1">
-        <v>132659</v>
+        <v>135975.71311953917</v>
       </c>
       <c r="Y16" s="1">
-        <v>135976</v>
+        <v>139375.10594752763</v>
       </c>
       <c r="Z16" s="1">
-        <v>139375</v>
+        <v>142859.48359621578</v>
       </c>
       <c r="AA16" s="1">
-        <v>142859</v>
+        <v>146430.9706861212</v>
       </c>
       <c r="AB16" s="1">
-        <v>146431</v>
+        <v>150091.74495327423</v>
       </c>
       <c r="AC16" s="1">
-        <v>150092</v>
+        <v>153844.03857710605</v>
       </c>
       <c r="AD16" s="1">
-        <v>153844</v>
+        <v>157690.13954153369</v>
       </c>
       <c r="AE16" s="1">
-        <v>157690</v>
+        <v>161632.39303007204</v>
       </c>
       <c r="AF16" s="1">
-        <v>161632</v>
+        <v>165673.20285582382</v>
       </c>
       <c r="AG16" s="1">
-        <v>165673</v>
+        <v>169815.03292721938</v>
       </c>
       <c r="AH16" s="1">
-        <v>169815</v>
+        <v>174060.40875039989</v>
       </c>
       <c r="AI16" s="1">
-        <v>174060</v>
+        <v>178411.91896915986</v>
       </c>
       <c r="AJ16" s="1">
-        <v>178412</v>
+        <v>182872.21694338892</v>
       </c>
       <c r="AK16" s="1">
-        <v>182872</v>
+        <v>187444.02236697357</v>
       </c>
       <c r="AL16" s="1">
-        <v>187444</v>
+        <v>192130.12292614792</v>
       </c>
       <c r="AM16" s="1">
-        <v>192130</v>
+        <v>196933.37599930161</v>
       </c>
       <c r="AN16" s="1">
-        <v>196933</v>
+        <v>201856.71039928411</v>
       </c>
       <c r="AO16" s="1">
-        <v>201857</v>
+        <v>206903.12815926623</v>
       </c>
       <c r="AP16" s="1">
-        <v>206903</v>
+        <v>212075.70636324788</v>
       </c>
       <c r="AQ16" s="1">
-        <v>212076</v>
+        <v>217377.59902232903</v>
       </c>
       <c r="AR16" s="1">
-        <v>217378</v>
+        <v>222812.03899788726</v>
       </c>
       <c r="AS16" s="1">
-        <v>222812</v>
+        <v>228382.33997283439</v>
       </c>
       <c r="AT16" s="1">
-        <v>228382</v>
+        <v>234091.89847215527</v>
       </c>
       <c r="AU16" s="1">
-        <v>234092</v>
+        <v>239944.19593395916</v>
       </c>
       <c r="AV16" s="1">
-        <v>239944</v>
+        <v>245942.80083230813</v>
       </c>
       <c r="AW16" s="1">
-        <v>245943</v>
+        <v>252091.37085311578</v>
       </c>
       <c r="AX16" s="1">
-        <v>252091</v>
+        <v>258393.6551244437</v>
       </c>
       <c r="AY16" s="1">
-        <v>258394</v>
+        <v>264853.49650255474</v>
       </c>
       <c r="AZ16" s="1">
-        <v>264853</v>
+        <v>271474.83391511865</v>
       </c>
       <c r="BA16" s="1">
-        <v>271475</v>
+        <v>278261.70476299664</v>
       </c>
       <c r="BB16" s="1">
-        <v>278262</v>
+        <v>285218.24738207151</v>
       </c>
       <c r="BC16" s="1">
-        <v>285218</v>
+        <v>292348.70356662327</v>
       </c>
       <c r="BD16" s="1">
-        <v>292349</v>
+        <v>299657.42115578888</v>
       </c>
       <c r="BE16" s="1">
-        <v>299657</v>
+        <v>307148.85668468359</v>
       </c>
       <c r="BF16" s="1">
-        <v>307149</v>
+        <v>314827.57810180064</v>
       </c>
       <c r="BG16" s="1">
-        <v>314828</v>
+        <v>322698.2675543456</v>
       </c>
       <c r="BH16" s="1">
-        <v>322698</v>
+        <v>330765.72424320423</v>
       </c>
       <c r="BI16" s="1">
-        <v>330766</v>
+        <v>339034.86734928435</v>
       </c>
       <c r="BJ16" s="1">
-        <v>339035</v>
+        <v>347510.73903301638</v>
       </c>
       <c r="BK16" s="1">
-        <v>347511</v>
+        <v>356198.50750884181</v>
       </c>
       <c r="BL16" s="1">
-        <v>356199</v>
+        <v>365103.47019656282</v>
       </c>
       <c r="BM16" s="1">
-        <v>365103</v>
+        <v>374231.05695147684</v>
       </c>
       <c r="BN16" s="1">
-        <v>374231</v>
+        <v>383586.83337526378</v>
       </c>
       <c r="BO16" s="1">
-        <v>383587</v>
+        <v>393176.50420964533</v>
       </c>
       <c r="BP16" s="1">
-        <v>393177</v>
+        <v>403005.91681488656</v>
       </c>
       <c r="BQ16" s="1">
-        <v>403006</v>
+        <v>413081.06473525864</v>
       </c>
       <c r="BR16" s="1">
-        <v>413081</v>
+        <v>423408.09135364002</v>
       </c>
       <c r="BS16" s="1">
-        <v>423408</v>
+        <v>433993.29363748111</v>
       </c>
       <c r="BT16" s="1">
-        <v>433993</v>
+        <v>444843.1259784181</v>
       </c>
       <c r="BU16" s="1">
-        <v>444843</v>
+        <v>455964.20412787847</v>
       </c>
       <c r="BV16" s="1">
-        <v>455964</v>
+        <v>467363.3092310754</v>
       </c>
       <c r="BW16" s="1">
-        <v>467363</v>
+        <v>479047.39196185226</v>
       </c>
       <c r="BX16" s="1">
-        <v>479047</v>
+        <v>491023.57676089858</v>
       </c>
       <c r="BY16" s="1">
-        <v>491024</v>
+        <v>503299.16617992095</v>
       </c>
       <c r="BZ16" s="1">
-        <v>503299</v>
+        <v>515881.64533441898</v>
       </c>
       <c r="CA16" s="1">
-        <v>515882</v>
+        <v>528778.68646777945</v>
       </c>
       <c r="CB16" s="1">
-        <v>528779</v>
+        <v>541998.15362947388</v>
       </c>
       <c r="CC16" s="1">
-        <v>541998</v>
+        <v>555548.10747021064</v>
       </c>
       <c r="CD16" s="1">
-        <v>555548</v>
+        <v>569436.81015696598</v>
       </c>
       <c r="CE16" s="1">
-        <v>569437</v>
+        <v>583672.73041088996</v>
       </c>
       <c r="CF16" s="1">
-        <v>583673</v>
+        <v>598264.54867116234</v>
       </c>
       <c r="CG16" s="1">
-        <v>598265</v>
+        <v>613221.16238794138</v>
       </c>
       <c r="CH16" s="1">
-        <v>613221</v>
+        <v>628551.69144763984</v>
       </c>
       <c r="CI16" s="1">
-        <v>628552</v>
+        <v>644265.48373383086</v>
       </c>
       <c r="CJ16" s="1">
-        <v>644265</v>
+        <v>660372.12082717661</v>
       </c>
       <c r="CK16" s="1">
-        <v>660372</v>
+        <v>676881.42384785588</v>
       </c>
       <c r="CL16" s="1">
-        <v>676881</v>
+        <v>693803.45944405231</v>
       </c>
       <c r="CM16" s="1">
-        <v>693803</v>
+        <v>711148.54593015357</v>
       </c>
       <c r="CN16" s="1">
-        <v>711149</v>
+        <v>728927.25957840739</v>
       </c>
       <c r="CO16" s="1">
-        <v>728927</v>
+        <v>747150.44106786756</v>
       </c>
       <c r="CP16" s="1">
-        <v>747150</v>
+        <v>765829.2020945641</v>
       </c>
       <c r="CQ16" s="1">
-        <v>765829</v>
+        <v>784974.93214692816</v>
       </c>
       <c r="CR16" s="1">
-        <v>784975</v>
+        <v>804599.3054506015</v>
       </c>
       <c r="CS16" s="1">
-        <v>804599</v>
+        <v>824714.28808686626</v>
       </c>
       <c r="CT16" s="1">
-        <v>824714</v>
+        <v>845332.14528903808</v>
       </c>
       <c r="CU16" s="1">
-        <v>845332</v>
+        <v>866465.44892126392</v>
       </c>
       <c r="CV16" s="1">
-        <v>866465</v>
+        <v>888127.08514429571</v>
       </c>
       <c r="CW16" s="1">
-        <v>888127</v>
+        <v>910330.26227290288</v>
       </c>
       <c r="CX16" s="1">
-        <v>910330</v>
+        <v>933088.51882972522</v>
       </c>
       <c r="CY16" s="1">
-        <v>933089</v>
+        <v>956415.73180046852</v>
       </c>
       <c r="CZ16" s="1">
-        <v>956416</v>
+        <v>980326.12509548012</v>
       </c>
       <c r="DA16" s="1">
-        <v>980326</v>
+        <v>1004834.2782228672</v>
       </c>
       <c r="DB16" s="1">
-        <v>1004834</v>
+        <v>1029955.1351784387</v>
       </c>
       <c r="DC16" s="1">
-        <v>1029955</v>
+        <v>1055704.0135578993</v>
       </c>
       <c r="DD16" s="1">
-        <v>1055704</v>
+        <v>1082096.613896847</v>
       </c>
       <c r="DE16" s="1">
-        <v>1082097</v>
+        <v>1109149.0292442678</v>
       </c>
       <c r="DF16" s="1">
-        <v>1109149</v>
+        <v>1136877.7549753748</v>
       </c>
       <c r="DG16" s="1">
-        <v>1136878</v>
+        <v>1165299.6988497591</v>
       </c>
       <c r="DH16" s="1">
-        <v>1165300</v>
+        <v>1194432.1913210033</v>
       </c>
       <c r="DI16" s="1">
-        <v>1194432</v>
+        <v>1224292.9961040278</v>
       </c>
     </row>
   </sheetData>

--- a/app/Datos/Intermodal/Costos e Inversiones.xlsx
+++ b/app/Datos/Intermodal/Costos e Inversiones.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="460" windowWidth="25600" windowHeight="14560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Costos" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="30">
   <si>
     <t>Infraestructura</t>
   </si>
@@ -65,12 +65,6 @@
   </si>
   <si>
     <t>Global</t>
-  </si>
-  <si>
-    <t>Superestructuras</t>
-  </si>
-  <si>
-    <t>Infraestructuras</t>
   </si>
   <si>
     <t>Fase</t>
@@ -449,7 +443,7 @@
   <dimension ref="A1:DI16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:DI16"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -461,16 +455,16 @@
   <sheetData>
     <row r="1" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E1">
         <v>2012</v>
@@ -802,13 +796,13 @@
     </row>
     <row r="2" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -1143,13 +1137,13 @@
     </row>
     <row r="3" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -1484,13 +1478,13 @@
     </row>
     <row r="4" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -1825,13 +1819,13 @@
     </row>
     <row r="5" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -2166,16 +2160,16 @@
     </row>
     <row r="6" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -2507,16 +2501,16 @@
     </row>
     <row r="7" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2848,16 +2842,16 @@
     </row>
     <row r="8" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3189,16 +3183,16 @@
     </row>
     <row r="9" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3530,7 +3524,7 @@
     </row>
     <row r="10" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -3539,7 +3533,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -3871,7 +3865,7 @@
     </row>
     <row r="11" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -3880,7 +3874,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -4212,13 +4206,13 @@
     </row>
     <row r="12" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -4553,13 +4547,13 @@
     </row>
     <row r="13" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
@@ -4894,10 +4888,10 @@
     </row>
     <row r="14" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
@@ -5235,13 +5229,13 @@
     </row>
     <row r="15" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
@@ -5576,13 +5570,13 @@
     </row>
     <row r="16" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
         <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
@@ -5936,19 +5930,19 @@
   <sheetData>
     <row r="1" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" t="s">
-        <v>30</v>
-      </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F1">
         <v>2012</v>
@@ -6280,10 +6274,10 @@
     </row>
     <row r="2" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -6292,7 +6286,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -6624,10 +6618,10 @@
     </row>
     <row r="3" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -6636,7 +6630,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -6968,10 +6962,10 @@
     </row>
     <row r="4" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -6980,7 +6974,7 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -7312,19 +7306,19 @@
     </row>
     <row r="5" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7656,19 +7650,19 @@
     </row>
     <row r="6" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -8000,19 +7994,19 @@
     </row>
     <row r="7" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8344,10 +8338,10 @@
     </row>
     <row r="8" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
@@ -8356,7 +8350,7 @@
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8688,10 +8682,10 @@
     </row>
     <row r="9" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
@@ -8700,7 +8694,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -9032,10 +9026,10 @@
     </row>
     <row r="10" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
@@ -9044,7 +9038,7 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -9376,19 +9370,19 @@
     </row>
     <row r="11" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -9720,19 +9714,19 @@
     </row>
     <row r="12" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -10064,19 +10058,19 @@
     </row>
     <row r="13" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -10408,7 +10402,7 @@
     </row>
     <row r="14" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
@@ -10420,7 +10414,7 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -10752,19 +10746,19 @@
     </row>
     <row r="15" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -11096,19 +11090,19 @@
     </row>
     <row r="16" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
       </c>
       <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
         <v>17</v>
       </c>
-      <c r="D16" t="s">
-        <v>19</v>
-      </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -11440,19 +11434,19 @@
     </row>
     <row r="17" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
       </c>
       <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
         <v>17</v>
       </c>
-      <c r="D17" t="s">
-        <v>19</v>
-      </c>
       <c r="E17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -11784,19 +11778,19 @@
     </row>
     <row r="18" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
       </c>
       <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
         <v>17</v>
       </c>
-      <c r="D18" t="s">
-        <v>19</v>
-      </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -12128,10 +12122,10 @@
     </row>
     <row r="19" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
         <v>0</v>
@@ -12140,7 +12134,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -12472,19 +12466,19 @@
     </row>
     <row r="20" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -12816,10 +12810,10 @@
     </row>
     <row r="21" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
         <v>0</v>
@@ -12828,7 +12822,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -13160,19 +13154,19 @@
     </row>
     <row r="22" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D22" t="s">
         <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F22">
         <v>0</v>
